--- a/PythonResources/Data/Consumption/Sympheny/base_1690_coo.xlsx
+++ b/PythonResources/Data/Consumption/Sympheny/base_1690_coo.xlsx
@@ -351,7 +351,7 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>0.8573558779206728</v>
+        <v>0.8573558779206727</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -423,7 +423,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>32.07105683174968</v>
+        <v>32.07105683174967</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -447,7 +447,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>32.59594706199215</v>
+        <v>32.59594706199214</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -503,7 +503,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>4.91799579267217</v>
+        <v>4.917995792672169</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -511,7 +511,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>4.266909173182125</v>
+        <v>4.266909173182124</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -551,7 +551,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>0.7295270829877538</v>
+        <v>0.7295270829877537</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -679,7 +679,7 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>0.4150237592691043</v>
+        <v>0.4150237592691042</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -727,7 +727,7 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <v>0.8398272990983378</v>
+        <v>0.8398272990983376</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -735,7 +735,7 @@
         <v>49</v>
       </c>
       <c r="B49">
-        <v>0.7266256797050065</v>
+        <v>0.7266256797050064</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -751,7 +751,7 @@
         <v>51</v>
       </c>
       <c r="B51">
-        <v>0.6136497250114445</v>
+        <v>0.6136497250114444</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -919,7 +919,7 @@
         <v>72</v>
       </c>
       <c r="B72">
-        <v>12.73027324185219</v>
+        <v>12.73027324185218</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -1183,7 +1183,7 @@
         <v>105</v>
       </c>
       <c r="B105">
-        <v>0.593281287824481</v>
+        <v>0.5932812878244809</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -1239,7 +1239,7 @@
         <v>112</v>
       </c>
       <c r="B112">
-        <v>0.3218418225267296</v>
+        <v>0.3218418225267295</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -1303,7 +1303,7 @@
         <v>120</v>
       </c>
       <c r="B120">
-        <v>0.7309953688914472</v>
+        <v>0.7309953688914471</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -1311,7 +1311,7 @@
         <v>121</v>
       </c>
       <c r="B121">
-        <v>0.5687952025443256</v>
+        <v>0.5687952025443255</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -1319,7 +1319,7 @@
         <v>122</v>
       </c>
       <c r="B122">
-        <v>0.4882622118305745</v>
+        <v>0.4882622118305744</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -1391,7 +1391,7 @@
         <v>131</v>
       </c>
       <c r="B131">
-        <v>0.3466590780805723</v>
+        <v>0.3466590780805722</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -1439,7 +1439,7 @@
         <v>137</v>
       </c>
       <c r="B137">
-        <v>0.358754119846126</v>
+        <v>0.3587541198461259</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -1455,7 +1455,7 @@
         <v>139</v>
       </c>
       <c r="B139">
-        <v>0.7267751459347238</v>
+        <v>0.7267751459347237</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -1511,7 +1511,7 @@
         <v>146</v>
       </c>
       <c r="B146">
-        <v>0.568443517297932</v>
+        <v>0.5684435172979319</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -1559,7 +1559,7 @@
         <v>152</v>
       </c>
       <c r="B152">
-        <v>0.6092243523276583</v>
+        <v>0.6092243523276581</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -1831,7 +1831,7 @@
         <v>186</v>
       </c>
       <c r="B186">
-        <v>0.4568684421691712</v>
+        <v>0.4568684421691711</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -2015,7 +2015,7 @@
         <v>209</v>
       </c>
       <c r="B209">
-        <v>0.7156618921486856</v>
+        <v>0.7156618921486855</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -2031,7 +2031,7 @@
         <v>211</v>
       </c>
       <c r="B211">
-        <v>0.5876953538275957</v>
+        <v>0.5876953538275956</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -2047,7 +2047,7 @@
         <v>213</v>
       </c>
       <c r="B213">
-        <v>0.9795401246489742</v>
+        <v>0.979540124648974</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -2423,7 +2423,7 @@
         <v>260</v>
       </c>
       <c r="B260">
-        <v>4.392665955871708</v>
+        <v>4.392665955871707</v>
       </c>
     </row>
     <row r="261" spans="1:2">
@@ -2431,7 +2431,7 @@
         <v>261</v>
       </c>
       <c r="B261">
-        <v>6.551075541404784</v>
+        <v>6.551075541404783</v>
       </c>
     </row>
     <row r="262" spans="1:2">
@@ -2439,7 +2439,7 @@
         <v>262</v>
       </c>
       <c r="B262">
-        <v>3.852448110307249</v>
+        <v>3.85244811030725</v>
       </c>
     </row>
     <row r="263" spans="1:2">
@@ -2455,7 +2455,7 @@
         <v>264</v>
       </c>
       <c r="B264">
-        <v>0.994592253194621</v>
+        <v>0.9945922531946207</v>
       </c>
     </row>
     <row r="265" spans="1:2">
@@ -2471,7 +2471,7 @@
         <v>266</v>
       </c>
       <c r="B266">
-        <v>0.6730376402857795</v>
+        <v>0.6730376402857794</v>
       </c>
     </row>
     <row r="267" spans="1:2">
@@ -2511,7 +2511,7 @@
         <v>271</v>
       </c>
       <c r="B271">
-        <v>0.6141039851213695</v>
+        <v>0.6141039851213694</v>
       </c>
     </row>
     <row r="272" spans="1:2">
@@ -2519,7 +2519,7 @@
         <v>272</v>
       </c>
       <c r="B272">
-        <v>0.5592645323670586</v>
+        <v>0.5592645323670585</v>
       </c>
     </row>
     <row r="273" spans="1:2">
@@ -2607,7 +2607,7 @@
         <v>283</v>
       </c>
       <c r="B283">
-        <v>5.503434499502073</v>
+        <v>5.503434499502072</v>
       </c>
     </row>
     <row r="284" spans="1:2">
@@ -2615,7 +2615,7 @@
         <v>284</v>
       </c>
       <c r="B284">
-        <v>7.849468163986142</v>
+        <v>7.849468163986141</v>
       </c>
     </row>
     <row r="285" spans="1:2">
@@ -2711,7 +2711,7 @@
         <v>296</v>
       </c>
       <c r="B296">
-        <v>0.8714525948802835</v>
+        <v>0.8714525948802834</v>
       </c>
     </row>
     <row r="297" spans="1:2">
@@ -2719,7 +2719,7 @@
         <v>297</v>
       </c>
       <c r="B297">
-        <v>24.47755691293036</v>
+        <v>24.47755691293035</v>
       </c>
     </row>
     <row r="298" spans="1:2">
@@ -2959,7 +2959,7 @@
         <v>327</v>
       </c>
       <c r="B327">
-        <v>18.23789865720712</v>
+        <v>18.23789865720711</v>
       </c>
     </row>
     <row r="328" spans="1:2">
@@ -3031,7 +3031,7 @@
         <v>336</v>
       </c>
       <c r="B336">
-        <v>0.6051037735240796</v>
+        <v>0.6051037735240795</v>
       </c>
     </row>
     <row r="337" spans="1:2">
@@ -3183,7 +3183,7 @@
         <v>355</v>
       </c>
       <c r="B355">
-        <v>0.3211003527989164</v>
+        <v>0.3211003527989163</v>
       </c>
     </row>
     <row r="356" spans="1:2">
@@ -3215,7 +3215,7 @@
         <v>359</v>
       </c>
       <c r="B359">
-        <v>0.4929689327114757</v>
+        <v>0.4929689327114756</v>
       </c>
     </row>
     <row r="360" spans="1:2">
@@ -3223,7 +3223,7 @@
         <v>360</v>
       </c>
       <c r="B360">
-        <v>0.4086465334678334</v>
+        <v>0.4086465334678333</v>
       </c>
     </row>
     <row r="361" spans="1:2">
@@ -3231,7 +3231,7 @@
         <v>361</v>
       </c>
       <c r="B361">
-        <v>0.3616760381015796</v>
+        <v>0.3616760381015795</v>
       </c>
     </row>
     <row r="362" spans="1:2">
@@ -3247,7 +3247,7 @@
         <v>363</v>
       </c>
       <c r="B363">
-        <v>0.2874250251015345</v>
+        <v>0.2874250251015344</v>
       </c>
     </row>
     <row r="364" spans="1:2">
@@ -3327,7 +3327,7 @@
         <v>373</v>
       </c>
       <c r="B373">
-        <v>7.553583643353648</v>
+        <v>7.553583643353647</v>
       </c>
     </row>
     <row r="374" spans="1:2">
@@ -3375,7 +3375,7 @@
         <v>379</v>
       </c>
       <c r="B379">
-        <v>0.5441479281929065</v>
+        <v>0.5441479281929064</v>
       </c>
     </row>
     <row r="380" spans="1:2">
@@ -3415,7 +3415,7 @@
         <v>384</v>
       </c>
       <c r="B384">
-        <v>0.5307428588845365</v>
+        <v>0.5307428588845364</v>
       </c>
     </row>
     <row r="385" spans="1:2">
@@ -3463,7 +3463,7 @@
         <v>390</v>
       </c>
       <c r="B390">
-        <v>0.250057588459097</v>
+        <v>0.2500575884590969</v>
       </c>
     </row>
     <row r="391" spans="1:2">
@@ -3711,7 +3711,7 @@
         <v>421</v>
       </c>
       <c r="B421">
-        <v>4.818937781604635</v>
+        <v>4.818937781604634</v>
       </c>
     </row>
     <row r="422" spans="1:2">
@@ -3743,7 +3743,7 @@
         <v>425</v>
       </c>
       <c r="B425">
-        <v>0.5972055090321564</v>
+        <v>0.5972055090321563</v>
       </c>
     </row>
     <row r="426" spans="1:2">
@@ -3775,7 +3775,7 @@
         <v>429</v>
       </c>
       <c r="B429">
-        <v>0.3531769779804006</v>
+        <v>0.3531769779804005</v>
       </c>
     </row>
     <row r="430" spans="1:2">
@@ -3959,7 +3959,7 @@
         <v>452</v>
       </c>
       <c r="B452">
-        <v>0.4145431227656997</v>
+        <v>0.4145431227656996</v>
       </c>
     </row>
     <row r="453" spans="1:2">
@@ -3975,7 +3975,7 @@
         <v>454</v>
       </c>
       <c r="B454">
-        <v>0.5625586508416122</v>
+        <v>0.5625586508416121</v>
       </c>
     </row>
     <row r="455" spans="1:2">
@@ -4127,7 +4127,7 @@
         <v>473</v>
       </c>
       <c r="B473">
-        <v>0.5673122630886992</v>
+        <v>0.5673122630886991</v>
       </c>
     </row>
     <row r="474" spans="1:2">
@@ -4167,7 +4167,7 @@
         <v>478</v>
       </c>
       <c r="B478">
-        <v>0.5796739994994348</v>
+        <v>0.5796739994994347</v>
       </c>
     </row>
     <row r="479" spans="1:2">
@@ -4175,7 +4175,7 @@
         <v>479</v>
       </c>
       <c r="B479">
-        <v>0.5474625616401663</v>
+        <v>0.5474625616401662</v>
       </c>
     </row>
     <row r="480" spans="1:2">
@@ -4183,7 +4183,7 @@
         <v>480</v>
       </c>
       <c r="B480">
-        <v>0.3888730304893525</v>
+        <v>0.3888730304893524</v>
       </c>
     </row>
     <row r="481" spans="1:2">
@@ -4239,7 +4239,7 @@
         <v>487</v>
       </c>
       <c r="B487">
-        <v>0.1932138228713811</v>
+        <v>0.193213822871381</v>
       </c>
     </row>
     <row r="488" spans="1:2">
@@ -4271,7 +4271,7 @@
         <v>491</v>
       </c>
       <c r="B491">
-        <v>6.328195016502831</v>
+        <v>6.32819501650283</v>
       </c>
     </row>
     <row r="492" spans="1:2">
@@ -4551,7 +4551,7 @@
         <v>526</v>
       </c>
       <c r="B526">
-        <v>0.4662379232751744</v>
+        <v>0.4662379232751743</v>
       </c>
     </row>
     <row r="527" spans="1:2">
@@ -4559,7 +4559,7 @@
         <v>527</v>
       </c>
       <c r="B527">
-        <v>0.4171368014578526</v>
+        <v>0.4171368014578525</v>
       </c>
     </row>
     <row r="528" spans="1:2">
@@ -4575,7 +4575,7 @@
         <v>529</v>
       </c>
       <c r="B529">
-        <v>0.2261034271141119</v>
+        <v>0.2261034271141118</v>
       </c>
     </row>
     <row r="530" spans="1:2">
@@ -4735,7 +4735,7 @@
         <v>549</v>
       </c>
       <c r="B549">
-        <v>0.3742693006328576</v>
+        <v>0.3742693006328575</v>
       </c>
     </row>
     <row r="550" spans="1:2">
@@ -5023,7 +5023,7 @@
         <v>585</v>
       </c>
       <c r="B585">
-        <v>0.1906837405946177</v>
+        <v>0.1906837405946176</v>
       </c>
     </row>
     <row r="586" spans="1:2">
@@ -5103,7 +5103,7 @@
         <v>595</v>
       </c>
       <c r="B595">
-        <v>0.4404916325287752</v>
+        <v>0.4404916325287751</v>
       </c>
     </row>
     <row r="596" spans="1:2">
@@ -5135,7 +5135,7 @@
         <v>599</v>
       </c>
       <c r="B599">
-        <v>0.7393654777556152</v>
+        <v>0.7393654777556151</v>
       </c>
     </row>
     <row r="600" spans="1:2">
@@ -5247,7 +5247,7 @@
         <v>613</v>
       </c>
       <c r="B613">
-        <v>0.6370455860277797</v>
+        <v>0.6370455860277796</v>
       </c>
     </row>
     <row r="614" spans="1:2">
@@ -5271,7 +5271,7 @@
         <v>616</v>
       </c>
       <c r="B616">
-        <v>0.389544163167887</v>
+        <v>0.3895441631678869</v>
       </c>
     </row>
     <row r="617" spans="1:2">
@@ -5399,7 +5399,7 @@
         <v>632</v>
       </c>
       <c r="B632">
-        <v>0.0862950604048718</v>
+        <v>0.0862950604048717</v>
       </c>
     </row>
     <row r="633" spans="1:2">
@@ -5623,7 +5623,7 @@
         <v>660</v>
       </c>
       <c r="B660">
-        <v>4.289739407093844</v>
+        <v>4.289739407093843</v>
       </c>
     </row>
     <row r="661" spans="1:2">
@@ -5759,7 +5759,7 @@
         <v>677</v>
       </c>
       <c r="B677">
-        <v>0.1000907934077773</v>
+        <v>0.1000907934077772</v>
       </c>
     </row>
     <row r="678" spans="1:2">
@@ -5791,7 +5791,7 @@
         <v>681</v>
       </c>
       <c r="B681">
-        <v>3.592230335079842</v>
+        <v>3.592230335079841</v>
       </c>
     </row>
     <row r="682" spans="1:2">
@@ -5831,7 +5831,7 @@
         <v>686</v>
       </c>
       <c r="B686">
-        <v>6.585130396097233</v>
+        <v>6.585130396097232</v>
       </c>
     </row>
     <row r="687" spans="1:2">
@@ -5895,7 +5895,7 @@
         <v>694</v>
       </c>
       <c r="B694">
-        <v>0.6777707375601603</v>
+        <v>0.6777707375601602</v>
       </c>
     </row>
     <row r="695" spans="1:2">
@@ -6031,7 +6031,7 @@
         <v>711</v>
       </c>
       <c r="B711">
-        <v>2.037268671702409</v>
+        <v>2.037268671702408</v>
       </c>
     </row>
     <row r="712" spans="1:2">
@@ -6071,7 +6071,7 @@
         <v>716</v>
       </c>
       <c r="B716">
-        <v>0.5729978412387293</v>
+        <v>0.5729978412387292</v>
       </c>
     </row>
     <row r="717" spans="1:2">
@@ -6095,7 +6095,7 @@
         <v>719</v>
       </c>
       <c r="B719">
-        <v>0.5445670197781922</v>
+        <v>0.5445670197781921</v>
       </c>
     </row>
     <row r="720" spans="1:2">
@@ -6111,7 +6111,7 @@
         <v>721</v>
       </c>
       <c r="B721">
-        <v>0.2865279346521921</v>
+        <v>0.286527934652192</v>
       </c>
     </row>
     <row r="722" spans="1:2">
@@ -6199,7 +6199,7 @@
         <v>732</v>
       </c>
       <c r="B732">
-        <v>5.160570691372165</v>
+        <v>5.160570691372164</v>
       </c>
     </row>
     <row r="733" spans="1:2">
@@ -6215,7 +6215,7 @@
         <v>734</v>
       </c>
       <c r="B734">
-        <v>6.53108809656808</v>
+        <v>6.531088096568079</v>
       </c>
     </row>
     <row r="735" spans="1:2">
@@ -6223,7 +6223,7 @@
         <v>735</v>
       </c>
       <c r="B735">
-        <v>9.955916254364562</v>
+        <v>9.95591625436456</v>
       </c>
     </row>
     <row r="736" spans="1:2">
@@ -6279,7 +6279,7 @@
         <v>742</v>
       </c>
       <c r="B742">
-        <v>0.5183371618180018</v>
+        <v>0.5183371618180017</v>
       </c>
     </row>
     <row r="743" spans="1:2">
@@ -6415,7 +6415,7 @@
         <v>759</v>
       </c>
       <c r="B759">
-        <v>6.820671589869355</v>
+        <v>6.820671589869354</v>
       </c>
     </row>
     <row r="760" spans="1:2">
@@ -6423,7 +6423,7 @@
         <v>760</v>
       </c>
       <c r="B760">
-        <v>4.305975542635682</v>
+        <v>4.305975542635681</v>
       </c>
     </row>
     <row r="761" spans="1:2">
@@ -6471,7 +6471,7 @@
         <v>766</v>
       </c>
       <c r="B766">
-        <v>0.7065444521359311</v>
+        <v>0.706544452135931</v>
       </c>
     </row>
     <row r="767" spans="1:2">
@@ -6503,7 +6503,7 @@
         <v>770</v>
       </c>
       <c r="B770">
-        <v>0.302490341843921</v>
+        <v>0.3024903418439209</v>
       </c>
     </row>
     <row r="771" spans="1:2">
@@ -6863,7 +6863,7 @@
         <v>815</v>
       </c>
       <c r="B815">
-        <v>0.3328642242907828</v>
+        <v>0.3328642242907827</v>
       </c>
     </row>
     <row r="816" spans="1:2">
@@ -7351,7 +7351,7 @@
         <v>876</v>
       </c>
       <c r="B876">
-        <v>3.793071917874462</v>
+        <v>3.793071917874461</v>
       </c>
     </row>
     <row r="877" spans="1:2">
@@ -7407,7 +7407,7 @@
         <v>883</v>
       </c>
       <c r="B883">
-        <v>0.3080176616330739</v>
+        <v>0.3080176616330738</v>
       </c>
     </row>
     <row r="884" spans="1:2">
@@ -7479,7 +7479,7 @@
         <v>892</v>
       </c>
       <c r="B892">
-        <v>0.1469188562492417</v>
+        <v>0.1469188562492416</v>
       </c>
     </row>
     <row r="893" spans="1:2">
@@ -7599,7 +7599,7 @@
         <v>907</v>
       </c>
       <c r="B907">
-        <v>0.5160658612683764</v>
+        <v>0.5160658612683763</v>
       </c>
     </row>
     <row r="908" spans="1:2">
@@ -7663,7 +7663,7 @@
         <v>915</v>
       </c>
       <c r="B915">
-        <v>0.3579804123040601</v>
+        <v>0.35798041230406</v>
       </c>
     </row>
     <row r="916" spans="1:2">
@@ -7687,7 +7687,7 @@
         <v>918</v>
       </c>
       <c r="B918">
-        <v>0.4137108010159015</v>
+        <v>0.4137108010159014</v>
       </c>
     </row>
     <row r="919" spans="1:2">
@@ -7711,7 +7711,7 @@
         <v>921</v>
       </c>
       <c r="B921">
-        <v>0.359102874382133</v>
+        <v>0.3591028743821329</v>
       </c>
     </row>
     <row r="922" spans="1:2">
@@ -7807,7 +7807,7 @@
         <v>933</v>
       </c>
       <c r="B933">
-        <v>1.159960517469672</v>
+        <v>1.159960517469671</v>
       </c>
     </row>
     <row r="934" spans="1:2">
@@ -7871,7 +7871,7 @@
         <v>941</v>
       </c>
       <c r="B941">
-        <v>0.4390585151497213</v>
+        <v>0.4390585151497212</v>
       </c>
     </row>
     <row r="942" spans="1:2">
@@ -7887,7 +7887,7 @@
         <v>943</v>
       </c>
       <c r="B943">
-        <v>0.5428261778085438</v>
+        <v>0.5428261778085437</v>
       </c>
     </row>
     <row r="944" spans="1:2">
@@ -7911,7 +7911,7 @@
         <v>946</v>
       </c>
       <c r="B946">
-        <v>0.4393984775545684</v>
+        <v>0.4393984775545683</v>
       </c>
     </row>
     <row r="947" spans="1:2">
@@ -8039,7 +8039,7 @@
         <v>962</v>
       </c>
       <c r="B962">
-        <v>0.5947026823619885</v>
+        <v>0.5947026823619884</v>
       </c>
     </row>
     <row r="963" spans="1:2">
@@ -8079,7 +8079,7 @@
         <v>967</v>
       </c>
       <c r="B967">
-        <v>0.4545942109091592</v>
+        <v>0.4545942109091591</v>
       </c>
     </row>
     <row r="968" spans="1:2">
@@ -8111,7 +8111,7 @@
         <v>971</v>
       </c>
       <c r="B971">
-        <v>8.122229379668257</v>
+        <v>8.122229379668255</v>
       </c>
     </row>
     <row r="972" spans="1:2">
@@ -8239,7 +8239,7 @@
         <v>987</v>
       </c>
       <c r="B987">
-        <v>0.6880223624925341</v>
+        <v>0.688022362492534</v>
       </c>
     </row>
     <row r="988" spans="1:2">
@@ -8407,7 +8407,7 @@
         <v>1008</v>
       </c>
       <c r="B1008">
-        <v>0.6352959519269714</v>
+        <v>0.6352959519269713</v>
       </c>
     </row>
     <row r="1009" spans="1:2">
@@ -8447,7 +8447,7 @@
         <v>1013</v>
       </c>
       <c r="B1013">
-        <v>0.3365070973013433</v>
+        <v>0.3365070973013432</v>
       </c>
     </row>
     <row r="1014" spans="1:2">
@@ -8495,7 +8495,7 @@
         <v>1019</v>
       </c>
       <c r="B1019">
-        <v>0.2014763746643604</v>
+        <v>0.2014763746643603</v>
       </c>
     </row>
     <row r="1020" spans="1:2">
@@ -8535,7 +8535,7 @@
         <v>1024</v>
       </c>
       <c r="B1024">
-        <v>0.6980834912497781</v>
+        <v>0.698083491249778</v>
       </c>
     </row>
     <row r="1025" spans="1:2">
@@ -8575,7 +8575,7 @@
         <v>1029</v>
       </c>
       <c r="B1029">
-        <v>0.7542329715469053</v>
+        <v>0.7542329715469052</v>
       </c>
     </row>
     <row r="1030" spans="1:2">
@@ -8727,7 +8727,7 @@
         <v>1048</v>
       </c>
       <c r="B1048">
-        <v>8.275827911030667</v>
+        <v>8.275827911030666</v>
       </c>
     </row>
     <row r="1049" spans="1:2">
@@ -8751,7 +8751,7 @@
         <v>1051</v>
       </c>
       <c r="B1051">
-        <v>0.439841014822947</v>
+        <v>0.4398410148229469</v>
       </c>
     </row>
     <row r="1052" spans="1:2">
@@ -8775,7 +8775,7 @@
         <v>1054</v>
       </c>
       <c r="B1054">
-        <v>0.7765356775890336</v>
+        <v>0.7765356775890335</v>
       </c>
     </row>
     <row r="1055" spans="1:2">
@@ -8783,7 +8783,7 @@
         <v>1055</v>
       </c>
       <c r="B1055">
-        <v>0.7383866204864863</v>
+        <v>0.7383866204864862</v>
       </c>
     </row>
     <row r="1056" spans="1:2">
@@ -8807,7 +8807,7 @@
         <v>1058</v>
       </c>
       <c r="B1058">
-        <v>0.4421621374491449</v>
+        <v>0.4421621374491448</v>
       </c>
     </row>
     <row r="1059" spans="1:2">
@@ -8855,7 +8855,7 @@
         <v>1064</v>
       </c>
       <c r="B1064">
-        <v>0.4360545370034425</v>
+        <v>0.4360545370034424</v>
       </c>
     </row>
     <row r="1065" spans="1:2">
@@ -8895,7 +8895,7 @@
         <v>1069</v>
       </c>
       <c r="B1069">
-        <v>12.32677303582325</v>
+        <v>12.32677303582324</v>
       </c>
     </row>
     <row r="1070" spans="1:2">
@@ -8983,7 +8983,7 @@
         <v>1080</v>
       </c>
       <c r="B1080">
-        <v>0.6583870190630989</v>
+        <v>0.6583870190630988</v>
       </c>
     </row>
     <row r="1081" spans="1:2">
@@ -9031,7 +9031,7 @@
         <v>1086</v>
       </c>
       <c r="B1086">
-        <v>0.4600717086217397</v>
+        <v>0.4600717086217396</v>
       </c>
     </row>
     <row r="1087" spans="1:2">
@@ -9095,7 +9095,7 @@
         <v>1094</v>
       </c>
       <c r="B1094">
-        <v>0.1681143399073075</v>
+        <v>0.1681143399073074</v>
       </c>
     </row>
     <row r="1095" spans="1:2">
@@ -9167,7 +9167,7 @@
         <v>1103</v>
       </c>
       <c r="B1103">
-        <v>0.8808191452759001</v>
+        <v>0.8808191452759</v>
       </c>
     </row>
     <row r="1104" spans="1:2">
@@ -9207,7 +9207,7 @@
         <v>1108</v>
       </c>
       <c r="B1108">
-        <v>0.354076706069091</v>
+        <v>0.3540767060690909</v>
       </c>
     </row>
     <row r="1109" spans="1:2">
@@ -9239,7 +9239,7 @@
         <v>1112</v>
       </c>
       <c r="B1112">
-        <v>0.3307922120474471</v>
+        <v>0.330792212047447</v>
       </c>
     </row>
     <row r="1113" spans="1:2">
@@ -9351,7 +9351,7 @@
         <v>1126</v>
       </c>
       <c r="B1126">
-        <v>0.6970811882975563</v>
+        <v>0.6970811882975562</v>
       </c>
     </row>
     <row r="1127" spans="1:2">
@@ -9463,7 +9463,7 @@
         <v>1140</v>
       </c>
       <c r="B1140">
-        <v>0.1487027796615733</v>
+        <v>0.1487027796615732</v>
       </c>
     </row>
     <row r="1141" spans="1:2">
@@ -9551,7 +9551,7 @@
         <v>1151</v>
       </c>
       <c r="B1151">
-        <v>0.5953943300132293</v>
+        <v>0.5953943300132292</v>
       </c>
     </row>
     <row r="1152" spans="1:2">
@@ -9623,7 +9623,7 @@
         <v>1160</v>
       </c>
       <c r="B1160">
-        <v>0.3470693775346982</v>
+        <v>0.3470693775346981</v>
       </c>
     </row>
     <row r="1161" spans="1:2">
@@ -9687,7 +9687,7 @@
         <v>1168</v>
       </c>
       <c r="B1168">
-        <v>10.02859787195258</v>
+        <v>10.02859787195257</v>
       </c>
     </row>
     <row r="1169" spans="1:2">
@@ -9711,7 +9711,7 @@
         <v>1171</v>
       </c>
       <c r="B1171">
-        <v>0.2636039180081017</v>
+        <v>0.2636039180081016</v>
       </c>
     </row>
     <row r="1172" spans="1:2">
@@ -9727,7 +9727,7 @@
         <v>1173</v>
       </c>
       <c r="B1173">
-        <v>0.4477392793148703</v>
+        <v>0.4477392793148702</v>
       </c>
     </row>
     <row r="1174" spans="1:2">
@@ -9823,7 +9823,7 @@
         <v>1185</v>
       </c>
       <c r="B1185">
-        <v>0.3902358108191277</v>
+        <v>0.3902358108191276</v>
       </c>
     </row>
     <row r="1186" spans="1:2">
@@ -9831,7 +9831,7 @@
         <v>1186</v>
       </c>
       <c r="B1186">
-        <v>0.4104489203556007</v>
+        <v>0.4104489203556006</v>
       </c>
     </row>
     <row r="1187" spans="1:2">
@@ -9911,7 +9911,7 @@
         <v>1196</v>
       </c>
       <c r="B1196">
-        <v>0.6906658632612594</v>
+        <v>0.6906658632612593</v>
       </c>
     </row>
     <row r="1197" spans="1:2">
@@ -9935,7 +9935,7 @@
         <v>1199</v>
       </c>
       <c r="B1199">
-        <v>0.6536685753406511</v>
+        <v>0.653668575340651</v>
       </c>
     </row>
     <row r="1200" spans="1:2">
@@ -10039,7 +10039,7 @@
         <v>1212</v>
       </c>
       <c r="B1212">
-        <v>0.2349257445909344</v>
+        <v>0.2349257445909343</v>
       </c>
     </row>
     <row r="1213" spans="1:2">
@@ -10263,7 +10263,7 @@
         <v>1240</v>
       </c>
       <c r="B1240">
-        <v>5.865142775417906</v>
+        <v>5.865142775417905</v>
       </c>
     </row>
     <row r="1241" spans="1:2">
@@ -10311,7 +10311,7 @@
         <v>1246</v>
       </c>
       <c r="B1246">
-        <v>13.71689689350561</v>
+        <v>13.7168968935056</v>
       </c>
     </row>
     <row r="1247" spans="1:2">
@@ -10335,7 +10335,7 @@
         <v>1249</v>
       </c>
       <c r="B1249">
-        <v>1.416596964604639</v>
+        <v>1.416596964604638</v>
       </c>
     </row>
     <row r="1250" spans="1:2">
@@ -10383,7 +10383,7 @@
         <v>1255</v>
       </c>
       <c r="B1255">
-        <v>0.975645210545165</v>
+        <v>0.9756452105451648</v>
       </c>
     </row>
     <row r="1256" spans="1:2">
@@ -10447,7 +10447,7 @@
         <v>1263</v>
       </c>
       <c r="B1263">
-        <v>0.5872557472696037</v>
+        <v>0.5872557472696036</v>
       </c>
     </row>
     <row r="1264" spans="1:2">
@@ -10455,7 +10455,7 @@
         <v>1264</v>
       </c>
       <c r="B1264">
-        <v>0.4680403101629417</v>
+        <v>0.4680403101629416</v>
       </c>
     </row>
     <row r="1265" spans="1:2">
@@ -10471,7 +10471,7 @@
         <v>1266</v>
       </c>
       <c r="B1266">
-        <v>0.6376405202362622</v>
+        <v>0.6376405202362621</v>
       </c>
     </row>
     <row r="1267" spans="1:2">
@@ -10503,7 +10503,7 @@
         <v>1270</v>
       </c>
       <c r="B1270">
-        <v>9.464787807775879</v>
+        <v>9.464787807775878</v>
       </c>
     </row>
     <row r="1271" spans="1:2">
@@ -10751,7 +10751,7 @@
         <v>1301</v>
       </c>
       <c r="B1301">
-        <v>0.8567521515810305</v>
+        <v>0.8567521515810304</v>
       </c>
     </row>
     <row r="1302" spans="1:2">
@@ -10799,7 +10799,7 @@
         <v>1307</v>
       </c>
       <c r="B1307">
-        <v>33.58945788305411</v>
+        <v>33.5894578830541</v>
       </c>
     </row>
     <row r="1308" spans="1:2">
@@ -10815,7 +10815,7 @@
         <v>1309</v>
       </c>
       <c r="B1309">
-        <v>27.07504552858586</v>
+        <v>27.07504552858585</v>
       </c>
     </row>
     <row r="1310" spans="1:2">
@@ -10895,7 +10895,7 @@
         <v>1319</v>
       </c>
       <c r="B1319">
-        <v>11.99560276213593</v>
+        <v>11.99560276213592</v>
       </c>
     </row>
     <row r="1320" spans="1:2">
@@ -10951,7 +10951,7 @@
         <v>1326</v>
       </c>
       <c r="B1326">
-        <v>0.6127118976877282</v>
+        <v>0.612711897687728</v>
       </c>
     </row>
     <row r="1327" spans="1:2">
@@ -11031,7 +11031,7 @@
         <v>1336</v>
       </c>
       <c r="B1336">
-        <v>54.97192086378586</v>
+        <v>54.97192086378585</v>
       </c>
     </row>
     <row r="1337" spans="1:2">
@@ -11063,7 +11063,7 @@
         <v>1340</v>
       </c>
       <c r="B1340">
-        <v>27.53156228550864</v>
+        <v>27.53156228550863</v>
       </c>
     </row>
     <row r="1341" spans="1:2">
@@ -11151,7 +11151,7 @@
         <v>1351</v>
       </c>
       <c r="B1351">
-        <v>0.8730703470136941</v>
+        <v>0.873070347013694</v>
       </c>
     </row>
     <row r="1352" spans="1:2">
@@ -11279,7 +11279,7 @@
         <v>1367</v>
       </c>
       <c r="B1367">
-        <v>7.988413143415485</v>
+        <v>7.988413143415484</v>
       </c>
     </row>
     <row r="1368" spans="1:2">
@@ -11351,7 +11351,7 @@
         <v>1376</v>
       </c>
       <c r="B1376">
-        <v>0.7948995088715535</v>
+        <v>0.7948995088715534</v>
       </c>
     </row>
     <row r="1377" spans="1:2">
@@ -11487,7 +11487,7 @@
         <v>1393</v>
       </c>
       <c r="B1393">
-        <v>5.974663422565651</v>
+        <v>5.97466342256565</v>
       </c>
     </row>
     <row r="1394" spans="1:2">
@@ -11599,7 +11599,7 @@
         <v>1407</v>
       </c>
       <c r="B1407">
-        <v>31.32167418589262</v>
+        <v>31.32167418589261</v>
       </c>
     </row>
     <row r="1408" spans="1:2">
@@ -11815,7 +11815,7 @@
         <v>1434</v>
       </c>
       <c r="B1434">
-        <v>0.3684635633569764</v>
+        <v>0.3684635633569763</v>
       </c>
     </row>
     <row r="1435" spans="1:2">
@@ -11831,7 +11831,7 @@
         <v>1436</v>
       </c>
       <c r="B1436">
-        <v>0.8666960519228099</v>
+        <v>0.8666960519228097</v>
       </c>
     </row>
     <row r="1437" spans="1:2">
@@ -11863,7 +11863,7 @@
         <v>1440</v>
       </c>
       <c r="B1440">
-        <v>0.6159034412987503</v>
+        <v>0.6159034412987502</v>
       </c>
     </row>
     <row r="1441" spans="1:2">
@@ -11871,7 +11871,7 @@
         <v>1441</v>
       </c>
       <c r="B1441">
-        <v>0.4605406222835979</v>
+        <v>0.4605406222835978</v>
       </c>
     </row>
     <row r="1442" spans="1:2">
@@ -11879,7 +11879,7 @@
         <v>1442</v>
       </c>
       <c r="B1442">
-        <v>0.4215797584039586</v>
+        <v>0.4215797584039585</v>
       </c>
     </row>
     <row r="1443" spans="1:2">
@@ -11975,7 +11975,7 @@
         <v>1454</v>
       </c>
       <c r="B1454">
-        <v>3.42052001352816</v>
+        <v>3.420520013528159</v>
       </c>
     </row>
     <row r="1455" spans="1:2">
@@ -12039,7 +12039,7 @@
         <v>1462</v>
       </c>
       <c r="B1462">
-        <v>0.759511180953196</v>
+        <v>0.7595111809531959</v>
       </c>
     </row>
     <row r="1463" spans="1:2">
@@ -12175,7 +12175,7 @@
         <v>1479</v>
       </c>
       <c r="B1479">
-        <v>8.71062810398864</v>
+        <v>8.710628103988638</v>
       </c>
     </row>
     <row r="1480" spans="1:2">
@@ -12215,7 +12215,7 @@
         <v>1484</v>
       </c>
       <c r="B1484">
-        <v>0.638628169636551</v>
+        <v>0.6386281696365509</v>
       </c>
     </row>
     <row r="1485" spans="1:2">
@@ -12239,7 +12239,7 @@
         <v>1487</v>
       </c>
       <c r="B1487">
-        <v>0.572317916429035</v>
+        <v>0.5723179164290348</v>
       </c>
     </row>
     <row r="1488" spans="1:2">
@@ -12391,7 +12391,7 @@
         <v>1506</v>
       </c>
       <c r="B1506">
-        <v>12.16271186838063</v>
+        <v>12.16271186838062</v>
       </c>
     </row>
     <row r="1507" spans="1:2">
@@ -12399,7 +12399,7 @@
         <v>1507</v>
       </c>
       <c r="B1507">
-        <v>1.831099057424926</v>
+        <v>1.831099057424925</v>
       </c>
     </row>
     <row r="1508" spans="1:2">
@@ -12607,7 +12607,7 @@
         <v>1533</v>
       </c>
       <c r="B1533">
-        <v>2.849942939068773</v>
+        <v>2.849942939068772</v>
       </c>
     </row>
     <row r="1534" spans="1:2">
@@ -12687,7 +12687,7 @@
         <v>1543</v>
       </c>
       <c r="B1543">
-        <v>0.3761508167010635</v>
+        <v>0.3761508167010634</v>
       </c>
     </row>
     <row r="1544" spans="1:2">
@@ -12823,7 +12823,7 @@
         <v>1560</v>
       </c>
       <c r="B1560">
-        <v>0.8895116322825956</v>
+        <v>0.8895116322825954</v>
       </c>
     </row>
     <row r="1561" spans="1:2">
@@ -12831,7 +12831,7 @@
         <v>1561</v>
       </c>
       <c r="B1561">
-        <v>0.7285833942432643</v>
+        <v>0.7285833942432642</v>
       </c>
     </row>
     <row r="1562" spans="1:2">
@@ -12895,7 +12895,7 @@
         <v>1569</v>
       </c>
       <c r="B1569">
-        <v>33.13343934689706</v>
+        <v>33.13343934689705</v>
       </c>
     </row>
     <row r="1570" spans="1:2">
@@ -12903,7 +12903,7 @@
         <v>1570</v>
       </c>
       <c r="B1570">
-        <v>43.73176731800729</v>
+        <v>43.73176731800728</v>
       </c>
     </row>
     <row r="1571" spans="1:2">
@@ -13039,7 +13039,7 @@
         <v>1587</v>
       </c>
       <c r="B1587">
-        <v>2.355332808540794</v>
+        <v>2.355332808540793</v>
       </c>
     </row>
     <row r="1588" spans="1:2">
@@ -13087,7 +13087,7 @@
         <v>1593</v>
       </c>
       <c r="B1593">
-        <v>0.5971849940594501</v>
+        <v>0.59718499405945</v>
       </c>
     </row>
     <row r="1594" spans="1:2">
@@ -13167,7 +13167,7 @@
         <v>1603</v>
       </c>
       <c r="B1603">
-        <v>0.5129739618104991</v>
+        <v>0.512973961810499</v>
       </c>
     </row>
     <row r="1604" spans="1:2">
@@ -13199,7 +13199,7 @@
         <v>1607</v>
       </c>
       <c r="B1607">
-        <v>0.6091393617264463</v>
+        <v>0.6091393617264462</v>
       </c>
     </row>
     <row r="1608" spans="1:2">
@@ -13327,7 +13327,7 @@
         <v>1623</v>
       </c>
       <c r="B1623">
-        <v>2.228307028253807</v>
+        <v>2.228307028253806</v>
       </c>
     </row>
     <row r="1624" spans="1:2">
@@ -13335,7 +13335,7 @@
         <v>1624</v>
       </c>
       <c r="B1624">
-        <v>6.304895868929254</v>
+        <v>6.304895868929253</v>
       </c>
     </row>
     <row r="1625" spans="1:2">
@@ -13351,7 +13351,7 @@
         <v>1626</v>
       </c>
       <c r="B1626">
-        <v>7.528672605067434</v>
+        <v>7.528672605067433</v>
       </c>
     </row>
     <row r="1627" spans="1:2">
@@ -13607,7 +13607,7 @@
         <v>1658</v>
       </c>
       <c r="B1658">
-        <v>0.3138028839362489</v>
+        <v>0.3138028839362488</v>
       </c>
     </row>
     <row r="1659" spans="1:2">
@@ -13615,7 +13615,7 @@
         <v>1659</v>
       </c>
       <c r="B1659">
-        <v>0.2947884349479008</v>
+        <v>0.2947884349479007</v>
       </c>
     </row>
     <row r="1660" spans="1:2">
@@ -13775,7 +13775,7 @@
         <v>1679</v>
       </c>
       <c r="B1679">
-        <v>0.6422153591497658</v>
+        <v>0.6422153591497657</v>
       </c>
     </row>
     <row r="1680" spans="1:2">
@@ -13863,7 +13863,7 @@
         <v>1690</v>
       </c>
       <c r="B1690">
-        <v>29.48089499206071</v>
+        <v>29.4808949920607</v>
       </c>
     </row>
     <row r="1691" spans="1:2">
@@ -13895,7 +13895,7 @@
         <v>1694</v>
       </c>
       <c r="B1694">
-        <v>13.0730491286705</v>
+        <v>13.07304912867049</v>
       </c>
     </row>
     <row r="1695" spans="1:2">
@@ -13959,7 +13959,7 @@
         <v>1702</v>
       </c>
       <c r="B1702">
-        <v>3.585958614852489</v>
+        <v>3.585958614852488</v>
       </c>
     </row>
     <row r="1703" spans="1:2">
@@ -13975,7 +13975,7 @@
         <v>1704</v>
       </c>
       <c r="B1704">
-        <v>0.5767315662712749</v>
+        <v>0.5767315662712748</v>
       </c>
     </row>
     <row r="1705" spans="1:2">
@@ -14023,7 +14023,7 @@
         <v>1710</v>
       </c>
       <c r="B1710">
-        <v>0.4921366109616775</v>
+        <v>0.4921366109616774</v>
       </c>
     </row>
     <row r="1711" spans="1:2">
@@ -14135,7 +14135,7 @@
         <v>1724</v>
       </c>
       <c r="B1724">
-        <v>9.78898299074306</v>
+        <v>9.788982990743058</v>
       </c>
     </row>
     <row r="1725" spans="1:2">
@@ -14279,7 +14279,7 @@
         <v>1742</v>
       </c>
       <c r="B1742">
-        <v>12.5939659017708</v>
+        <v>12.59396590177079</v>
       </c>
     </row>
     <row r="1743" spans="1:2">
@@ -14335,7 +14335,7 @@
         <v>1749</v>
       </c>
       <c r="B1749">
-        <v>3.110568083039921</v>
+        <v>3.11056808303992</v>
       </c>
     </row>
     <row r="1750" spans="1:2">
@@ -14351,7 +14351,7 @@
         <v>1751</v>
       </c>
       <c r="B1751">
-        <v>0.7247441636368006</v>
+        <v>0.7247441636368005</v>
       </c>
     </row>
     <row r="1752" spans="1:2">
@@ -14751,7 +14751,7 @@
         <v>1801</v>
       </c>
       <c r="B1801">
-        <v>0.5311121283932498</v>
+        <v>0.5311121283932497</v>
       </c>
     </row>
     <row r="1802" spans="1:2">
@@ -14807,7 +14807,7 @@
         <v>1808</v>
       </c>
       <c r="B1808">
-        <v>0.4241734370961115</v>
+        <v>0.4241734370961114</v>
       </c>
     </row>
     <row r="1809" spans="1:2">
@@ -14863,7 +14863,7 @@
         <v>1815</v>
       </c>
       <c r="B1815">
-        <v>7.101873251464916</v>
+        <v>7.101873251464915</v>
       </c>
     </row>
     <row r="1816" spans="1:2">
@@ -14919,7 +14919,7 @@
         <v>1822</v>
       </c>
       <c r="B1822">
-        <v>0.8876389083455496</v>
+        <v>0.8876389083455495</v>
       </c>
     </row>
     <row r="1823" spans="1:2">
@@ -14927,7 +14927,7 @@
         <v>1823</v>
       </c>
       <c r="B1823">
-        <v>0.5543702460214142</v>
+        <v>0.554370246021414</v>
       </c>
     </row>
     <row r="1824" spans="1:2">
@@ -15159,7 +15159,7 @@
         <v>1852</v>
       </c>
       <c r="B1852">
-        <v>0.4124505955496577</v>
+        <v>0.4124505955496576</v>
       </c>
     </row>
     <row r="1853" spans="1:2">
@@ -15167,7 +15167,7 @@
         <v>1853</v>
       </c>
       <c r="B1853">
-        <v>0.4814453794713116</v>
+        <v>0.4814453794713115</v>
       </c>
     </row>
     <row r="1854" spans="1:2">
@@ -15343,7 +15343,7 @@
         <v>1875</v>
       </c>
       <c r="B1875">
-        <v>0.6767918802910313</v>
+        <v>0.6767918802910312</v>
       </c>
     </row>
     <row r="1876" spans="1:2">
@@ -15383,7 +15383,7 @@
         <v>1880</v>
       </c>
       <c r="B1880">
-        <v>0.5518439736681534</v>
+        <v>0.5518439736681533</v>
       </c>
     </row>
     <row r="1881" spans="1:2">
@@ -15479,7 +15479,7 @@
         <v>1892</v>
       </c>
       <c r="B1892">
-        <v>8.587215889608347</v>
+        <v>8.587215889608345</v>
       </c>
     </row>
     <row r="1893" spans="1:2">
@@ -15495,7 +15495,7 @@
         <v>1894</v>
       </c>
       <c r="B1894">
-        <v>3.771238125494192</v>
+        <v>3.771238125494191</v>
       </c>
     </row>
     <row r="1895" spans="1:2">
@@ -15527,7 +15527,7 @@
         <v>1898</v>
       </c>
       <c r="B1898">
-        <v>0.5533474280964861</v>
+        <v>0.553347428096486</v>
       </c>
     </row>
     <row r="1899" spans="1:2">
@@ -15703,7 +15703,7 @@
         <v>1920</v>
       </c>
       <c r="B1920">
-        <v>0.6708747760204588</v>
+        <v>0.6708747760204586</v>
       </c>
     </row>
     <row r="1921" spans="1:2">
@@ -15759,7 +15759,7 @@
         <v>1927</v>
       </c>
       <c r="B1927">
-        <v>0.3540268839925185</v>
+        <v>0.3540268839925184</v>
       </c>
     </row>
     <row r="1928" spans="1:2">
@@ -15791,7 +15791,7 @@
         <v>1931</v>
       </c>
       <c r="B1931">
-        <v>33.74009639692604</v>
+        <v>33.74009639692603</v>
       </c>
     </row>
     <row r="1932" spans="1:2">
@@ -15911,7 +15911,7 @@
         <v>1946</v>
       </c>
       <c r="B1946">
-        <v>0.5969241608350415</v>
+        <v>0.5969241608350414</v>
       </c>
     </row>
     <row r="1947" spans="1:2">
@@ -15919,7 +15919,7 @@
         <v>1947</v>
       </c>
       <c r="B1947">
-        <v>0.5638774705155882</v>
+        <v>0.5638774705155881</v>
       </c>
     </row>
     <row r="1948" spans="1:2">
@@ -16039,7 +16039,7 @@
         <v>1962</v>
       </c>
       <c r="B1962">
-        <v>0.7515894707781799</v>
+        <v>0.7515894707781798</v>
       </c>
     </row>
     <row r="1963" spans="1:2">
@@ -16095,7 +16095,7 @@
         <v>1969</v>
       </c>
       <c r="B1969">
-        <v>0.5366599631551091</v>
+        <v>0.536659963155109</v>
       </c>
     </row>
     <row r="1970" spans="1:2">
@@ -16191,7 +16191,7 @@
         <v>1981</v>
       </c>
       <c r="B1981">
-        <v>3.571539519750351</v>
+        <v>3.57153951975035</v>
       </c>
     </row>
     <row r="1982" spans="1:2">
@@ -16215,7 +16215,7 @@
         <v>1984</v>
       </c>
       <c r="B1984">
-        <v>0.3841897552915442</v>
+        <v>0.3841897552915441</v>
       </c>
     </row>
     <row r="1985" spans="1:2">
@@ -16263,7 +16263,7 @@
         <v>1990</v>
       </c>
       <c r="B1990">
-        <v>0.9983289089375532</v>
+        <v>0.998328908937553</v>
       </c>
     </row>
     <row r="1991" spans="1:2">
@@ -16271,7 +16271,7 @@
         <v>1991</v>
       </c>
       <c r="B1991">
-        <v>0.6771318426958784</v>
+        <v>0.6771318426958783</v>
       </c>
     </row>
     <row r="1992" spans="1:2">
@@ -16303,7 +16303,7 @@
         <v>1995</v>
       </c>
       <c r="B1995">
-        <v>0.4449756194202938</v>
+        <v>0.4449756194202937</v>
       </c>
     </row>
     <row r="1996" spans="1:2">
@@ -16367,7 +16367,7 @@
         <v>2003</v>
       </c>
       <c r="B2003">
-        <v>0.6740985574457335</v>
+        <v>0.6740985574457334</v>
       </c>
     </row>
     <row r="2004" spans="1:2">
@@ -16423,7 +16423,7 @@
         <v>2010</v>
       </c>
       <c r="B2010">
-        <v>0.9054253896819068</v>
+        <v>0.9054253896819066</v>
       </c>
     </row>
     <row r="2011" spans="1:2">
@@ -16447,7 +16447,7 @@
         <v>2013</v>
       </c>
       <c r="B2013">
-        <v>0.9309841149635626</v>
+        <v>0.9309841149635624</v>
       </c>
     </row>
     <row r="2014" spans="1:2">
@@ -16735,7 +16735,7 @@
         <v>2049</v>
       </c>
       <c r="B2049">
-        <v>0.3911677767220708</v>
+        <v>0.3911677767220707</v>
       </c>
     </row>
     <row r="2050" spans="1:2">
@@ -16775,7 +16775,7 @@
         <v>2054</v>
       </c>
       <c r="B2054">
-        <v>0.2624377883452682</v>
+        <v>0.2624377883452681</v>
       </c>
     </row>
     <row r="2055" spans="1:2">
@@ -16863,7 +16863,7 @@
         <v>2065</v>
       </c>
       <c r="B2065">
-        <v>0.6625134592874506</v>
+        <v>0.6625134592874505</v>
       </c>
     </row>
     <row r="2066" spans="1:2">
@@ -16879,7 +16879,7 @@
         <v>2067</v>
       </c>
       <c r="B2067">
-        <v>0.5380491198783639</v>
+        <v>0.5380491198783638</v>
       </c>
     </row>
     <row r="2068" spans="1:2">
@@ -17095,7 +17095,7 @@
         <v>2094</v>
       </c>
       <c r="B2094">
-        <v>0.8151624404845988</v>
+        <v>0.8151624404845987</v>
       </c>
     </row>
     <row r="2095" spans="1:2">
@@ -17231,7 +17231,7 @@
         <v>2111</v>
       </c>
       <c r="B2111">
-        <v>3.326678666948797</v>
+        <v>3.326678666948796</v>
       </c>
     </row>
     <row r="2112" spans="1:2">
@@ -17295,7 +17295,7 @@
         <v>2119</v>
       </c>
       <c r="B2119">
-        <v>0.5961123540579496</v>
+        <v>0.5961123540579495</v>
       </c>
     </row>
     <row r="2120" spans="1:2">
@@ -17439,7 +17439,7 @@
         <v>2137</v>
       </c>
       <c r="B2137">
-        <v>0.967533004195019</v>
+        <v>0.9675330041950188</v>
       </c>
     </row>
     <row r="2138" spans="1:2">
@@ -17463,7 +17463,7 @@
         <v>2140</v>
       </c>
       <c r="B2140">
-        <v>0.5681035548930848</v>
+        <v>0.5681035548930847</v>
       </c>
     </row>
     <row r="2141" spans="1:2">
@@ -17511,7 +17511,7 @@
         <v>2146</v>
       </c>
       <c r="B2146">
-        <v>3.152828926814887</v>
+        <v>3.152828926814886</v>
       </c>
     </row>
     <row r="2147" spans="1:2">
@@ -17519,7 +17519,7 @@
         <v>2147</v>
       </c>
       <c r="B2147">
-        <v>1.660039353579072</v>
+        <v>1.660039353579071</v>
       </c>
     </row>
     <row r="2148" spans="1:2">
@@ -17543,7 +17543,7 @@
         <v>2150</v>
       </c>
       <c r="B2150">
-        <v>4.635944225064491</v>
+        <v>4.63594422506449</v>
       </c>
     </row>
     <row r="2151" spans="1:2">
@@ -17647,7 +17647,7 @@
         <v>2163</v>
       </c>
       <c r="B2163">
-        <v>0.4927461987220931</v>
+        <v>0.492746198722093</v>
       </c>
     </row>
     <row r="2164" spans="1:2">
@@ -17663,7 +17663,7 @@
         <v>2165</v>
       </c>
       <c r="B2165">
-        <v>0.4203693750142872</v>
+        <v>0.4203693750142871</v>
       </c>
     </row>
     <row r="2166" spans="1:2">
@@ -17743,7 +17743,7 @@
         <v>2175</v>
       </c>
       <c r="B2175">
-        <v>31.79176013190542</v>
+        <v>31.79176013190541</v>
       </c>
     </row>
     <row r="2176" spans="1:2">
@@ -17855,7 +17855,7 @@
         <v>2189</v>
       </c>
       <c r="B2189">
-        <v>0.5913792567835688</v>
+        <v>0.5913792567835687</v>
       </c>
     </row>
     <row r="2190" spans="1:2">
@@ -17863,7 +17863,7 @@
         <v>2190</v>
       </c>
       <c r="B2190">
-        <v>0.6081048209599719</v>
+        <v>0.6081048209599718</v>
       </c>
     </row>
     <row r="2191" spans="1:2">
@@ -17983,7 +17983,7 @@
         <v>2205</v>
       </c>
       <c r="B2205">
-        <v>34.61374116317551</v>
+        <v>34.6137411631755</v>
       </c>
     </row>
     <row r="2206" spans="1:2">
@@ -18007,7 +18007,7 @@
         <v>2208</v>
       </c>
       <c r="B2208">
-        <v>7.039624962853247</v>
+        <v>7.039624962853246</v>
       </c>
     </row>
     <row r="2209" spans="1:2">
@@ -18055,7 +18055,7 @@
         <v>2214</v>
       </c>
       <c r="B2214">
-        <v>0.7248203621068526</v>
+        <v>0.7248203621068525</v>
       </c>
     </row>
     <row r="2215" spans="1:2">
@@ -18079,7 +18079,7 @@
         <v>2217</v>
       </c>
       <c r="B2217">
-        <v>38.88642383581927</v>
+        <v>38.88642383581926</v>
       </c>
     </row>
     <row r="2218" spans="1:2">
@@ -18135,7 +18135,7 @@
         <v>2224</v>
       </c>
       <c r="B2224">
-        <v>68.24393592060355</v>
+        <v>68.24393592060353</v>
       </c>
     </row>
     <row r="2225" spans="1:2">
@@ -18271,7 +18271,7 @@
         <v>2241</v>
       </c>
       <c r="B2241">
-        <v>59.40227575522942</v>
+        <v>59.40227575522941</v>
       </c>
     </row>
     <row r="2242" spans="1:2">
@@ -18335,7 +18335,7 @@
         <v>2249</v>
       </c>
       <c r="B2249">
-        <v>85.12746538684499</v>
+        <v>85.12746538684497</v>
       </c>
     </row>
     <row r="2250" spans="1:2">
@@ -18367,7 +18367,7 @@
         <v>2253</v>
       </c>
       <c r="B2253">
-        <v>46.19034026133731</v>
+        <v>46.1903402613373</v>
       </c>
     </row>
     <row r="2254" spans="1:2">
@@ -18383,7 +18383,7 @@
         <v>2255</v>
       </c>
       <c r="B2255">
-        <v>25.73436275512567</v>
+        <v>25.73436275512566</v>
       </c>
     </row>
     <row r="2256" spans="1:2">
@@ -18559,7 +18559,7 @@
         <v>2277</v>
       </c>
       <c r="B2277">
-        <v>22.45457545436269</v>
+        <v>22.45457545436268</v>
       </c>
     </row>
     <row r="2278" spans="1:2">
@@ -18575,7 +18575,7 @@
         <v>2279</v>
       </c>
       <c r="B2279">
-        <v>9.073274207228188</v>
+        <v>9.073274207228186</v>
       </c>
     </row>
     <row r="2280" spans="1:2">
@@ -18791,7 +18791,7 @@
         <v>2306</v>
       </c>
       <c r="B2306">
-        <v>7.394299533841207</v>
+        <v>7.394299533841206</v>
       </c>
     </row>
     <row r="2307" spans="1:2">
@@ -18823,7 +18823,7 @@
         <v>2310</v>
       </c>
       <c r="B2310">
-        <v>3.193507186981082</v>
+        <v>3.193507186981081</v>
       </c>
     </row>
     <row r="2311" spans="1:2">
@@ -18847,7 +18847,7 @@
         <v>2313</v>
       </c>
       <c r="B2313">
-        <v>58.30443164440402</v>
+        <v>58.30443164440401</v>
       </c>
     </row>
     <row r="2314" spans="1:2">
@@ -18871,7 +18871,7 @@
         <v>2316</v>
       </c>
       <c r="B2316">
-        <v>55.35203400092963</v>
+        <v>55.35203400092962</v>
       </c>
     </row>
     <row r="2317" spans="1:2">
@@ -18887,7 +18887,7 @@
         <v>2318</v>
       </c>
       <c r="B2318">
-        <v>62.56920139900392</v>
+        <v>62.56920139900391</v>
       </c>
     </row>
     <row r="2319" spans="1:2">
@@ -19015,7 +19015,7 @@
         <v>2334</v>
       </c>
       <c r="B2334">
-        <v>0.7605310681677375</v>
+        <v>0.7605310681677374</v>
       </c>
     </row>
     <row r="2335" spans="1:2">
@@ -19047,7 +19047,7 @@
         <v>2338</v>
       </c>
       <c r="B2338">
-        <v>52.13411399642806</v>
+        <v>52.13411399642805</v>
       </c>
     </row>
     <row r="2339" spans="1:2">
@@ -19095,7 +19095,7 @@
         <v>2344</v>
       </c>
       <c r="B2344">
-        <v>57.38975693274196</v>
+        <v>57.38975693274195</v>
       </c>
     </row>
     <row r="2345" spans="1:2">
@@ -19119,7 +19119,7 @@
         <v>2347</v>
       </c>
       <c r="B2347">
-        <v>38.92422999980658</v>
+        <v>38.92422999980657</v>
       </c>
     </row>
     <row r="2348" spans="1:2">
@@ -19127,7 +19127,7 @@
         <v>2348</v>
       </c>
       <c r="B2348">
-        <v>23.50054599134503</v>
+        <v>23.50054599134502</v>
       </c>
     </row>
     <row r="2349" spans="1:2">
@@ -19279,7 +19279,7 @@
         <v>2367</v>
       </c>
       <c r="B2367">
-        <v>8.34071383899029</v>
+        <v>8.340713838990288</v>
       </c>
     </row>
     <row r="2368" spans="1:2">
@@ -19311,7 +19311,7 @@
         <v>2371</v>
       </c>
       <c r="B2371">
-        <v>6.77984679418383</v>
+        <v>6.779846794183829</v>
       </c>
     </row>
     <row r="2372" spans="1:2">
@@ -19343,7 +19343,7 @@
         <v>2375</v>
       </c>
       <c r="B2375">
-        <v>0.7218281068021203</v>
+        <v>0.7218281068021202</v>
       </c>
     </row>
     <row r="2376" spans="1:2">
@@ -19351,7 +19351,7 @@
         <v>2376</v>
       </c>
       <c r="B2376">
-        <v>0.5035634507590834</v>
+        <v>0.5035634507590833</v>
       </c>
     </row>
     <row r="2377" spans="1:2">
@@ -19439,7 +19439,7 @@
         <v>2387</v>
       </c>
       <c r="B2387">
-        <v>22.38945506957214</v>
+        <v>22.38945506957213</v>
       </c>
     </row>
     <row r="2388" spans="1:2">
@@ -19511,7 +19511,7 @@
         <v>2396</v>
       </c>
       <c r="B2396">
-        <v>13.5632983621432</v>
+        <v>13.56329836214319</v>
       </c>
     </row>
     <row r="2397" spans="1:2">
@@ -19543,7 +19543,7 @@
         <v>2400</v>
       </c>
       <c r="B2400">
-        <v>0.5257078984403346</v>
+        <v>0.5257078984403345</v>
       </c>
     </row>
     <row r="2401" spans="1:2">
@@ -19551,7 +19551,7 @@
         <v>2401</v>
       </c>
       <c r="B2401">
-        <v>0.4726356640491516</v>
+        <v>0.4726356640491515</v>
       </c>
     </row>
     <row r="2402" spans="1:2">
@@ -19631,7 +19631,7 @@
         <v>2411</v>
       </c>
       <c r="B2411">
-        <v>0.3097204043676963</v>
+        <v>0.3097204043676962</v>
       </c>
     </row>
     <row r="2412" spans="1:2">
@@ -19671,7 +19671,7 @@
         <v>2416</v>
       </c>
       <c r="B2416">
-        <v>44.1039675371072</v>
+        <v>44.10396753710719</v>
       </c>
     </row>
     <row r="2417" spans="1:2">
@@ -19823,7 +19823,7 @@
         <v>2435</v>
       </c>
       <c r="B2435">
-        <v>28.35644003092486</v>
+        <v>28.35644003092485</v>
       </c>
     </row>
     <row r="2436" spans="1:2">
@@ -19831,7 +19831,7 @@
         <v>2436</v>
       </c>
       <c r="B2436">
-        <v>26.83545995448021</v>
+        <v>26.8354599544802</v>
       </c>
     </row>
     <row r="2437" spans="1:2">
@@ -19863,7 +19863,7 @@
         <v>2440</v>
       </c>
       <c r="B2440">
-        <v>44.12184487046554</v>
+        <v>44.12184487046553</v>
       </c>
     </row>
     <row r="2441" spans="1:2">
@@ -19871,7 +19871,7 @@
         <v>2441</v>
       </c>
       <c r="B2441">
-        <v>40.78435188219014</v>
+        <v>40.78435188219013</v>
       </c>
     </row>
     <row r="2442" spans="1:2">
@@ -20007,7 +20007,7 @@
         <v>2458</v>
       </c>
       <c r="B2458">
-        <v>59.7413589469606</v>
+        <v>59.74135894696059</v>
       </c>
     </row>
     <row r="2459" spans="1:2">
@@ -20039,7 +20039,7 @@
         <v>2462</v>
       </c>
       <c r="B2462">
-        <v>46.94968732250886</v>
+        <v>46.94968732250885</v>
       </c>
     </row>
     <row r="2463" spans="1:2">
@@ -20055,7 +20055,7 @@
         <v>2464</v>
       </c>
       <c r="B2464">
-        <v>51.27014057445441</v>
+        <v>51.2701405744544</v>
       </c>
     </row>
     <row r="2465" spans="1:2">
@@ -20159,7 +20159,7 @@
         <v>2477</v>
       </c>
       <c r="B2477">
-        <v>0.5104711351403313</v>
+        <v>0.5104711351403312</v>
       </c>
     </row>
     <row r="2478" spans="1:2">
@@ -20255,7 +20255,7 @@
         <v>2489</v>
       </c>
       <c r="B2489">
-        <v>43.71418305568761</v>
+        <v>43.7141830556876</v>
       </c>
     </row>
     <row r="2490" spans="1:2">
@@ -20279,7 +20279,7 @@
         <v>2492</v>
       </c>
       <c r="B2492">
-        <v>20.2658037092243</v>
+        <v>20.26580370922429</v>
       </c>
     </row>
     <row r="2493" spans="1:2">
@@ -20415,7 +20415,7 @@
         <v>2509</v>
       </c>
       <c r="B2509">
-        <v>32.51945552090154</v>
+        <v>32.51945552090153</v>
       </c>
     </row>
     <row r="2510" spans="1:2">
@@ -20439,7 +20439,7 @@
         <v>2512</v>
       </c>
       <c r="B2512">
-        <v>53.73897100413758</v>
+        <v>53.73897100413757</v>
       </c>
     </row>
     <row r="2513" spans="1:2">
@@ -20511,7 +20511,7 @@
         <v>2521</v>
       </c>
       <c r="B2521">
-        <v>0.8255400859635972</v>
+        <v>0.8255400859635971</v>
       </c>
     </row>
     <row r="2522" spans="1:2">
@@ -20519,7 +20519,7 @@
         <v>2522</v>
       </c>
       <c r="B2522">
-        <v>0.6402195453764821</v>
+        <v>0.640219545376482</v>
       </c>
     </row>
     <row r="2523" spans="1:2">
@@ -20527,7 +20527,7 @@
         <v>2523</v>
       </c>
       <c r="B2523">
-        <v>0.5377912173643419</v>
+        <v>0.5377912173643418</v>
       </c>
     </row>
     <row r="2524" spans="1:2">
@@ -20599,7 +20599,7 @@
         <v>2532</v>
       </c>
       <c r="B2532">
-        <v>42.10903297693942</v>
+        <v>42.10903297693941</v>
       </c>
     </row>
     <row r="2533" spans="1:2">
@@ -20679,7 +20679,7 @@
         <v>2542</v>
       </c>
       <c r="B2542">
-        <v>26.99225296016403</v>
+        <v>26.99225296016402</v>
       </c>
     </row>
     <row r="2543" spans="1:2">
@@ -20695,7 +20695,7 @@
         <v>2544</v>
       </c>
       <c r="B2544">
-        <v>6.255015178149093</v>
+        <v>6.255015178149092</v>
       </c>
     </row>
     <row r="2545" spans="1:2">
@@ -20703,7 +20703,7 @@
         <v>2545</v>
       </c>
       <c r="B2545">
-        <v>2.789007608710306</v>
+        <v>2.789007608710305</v>
       </c>
     </row>
     <row r="2546" spans="1:2">
@@ -20775,7 +20775,7 @@
         <v>2554</v>
       </c>
       <c r="B2554">
-        <v>4.995571696605827</v>
+        <v>4.995571696605826</v>
       </c>
     </row>
     <row r="2555" spans="1:2">
@@ -20839,7 +20839,7 @@
         <v>2562</v>
       </c>
       <c r="B2562">
-        <v>3.807256556145671</v>
+        <v>3.80725655614567</v>
       </c>
     </row>
     <row r="2563" spans="1:2">
@@ -21127,7 +21127,7 @@
         <v>2598</v>
       </c>
       <c r="B2598">
-        <v>0.5819189236555806</v>
+        <v>0.5819189236555805</v>
       </c>
     </row>
     <row r="2599" spans="1:2">
@@ -21151,7 +21151,7 @@
         <v>2601</v>
       </c>
       <c r="B2601">
-        <v>27.72331866610476</v>
+        <v>27.72331866610475</v>
       </c>
     </row>
     <row r="2602" spans="1:2">
@@ -21159,7 +21159,7 @@
         <v>2602</v>
       </c>
       <c r="B2602">
-        <v>31.52799619711021</v>
+        <v>31.5279961971102</v>
       </c>
     </row>
     <row r="2603" spans="1:2">
@@ -21287,7 +21287,7 @@
         <v>2618</v>
       </c>
       <c r="B2618">
-        <v>0.6577217478053375</v>
+        <v>0.6577217478053374</v>
       </c>
     </row>
     <row r="2619" spans="1:2">
@@ -21295,7 +21295,7 @@
         <v>2619</v>
       </c>
       <c r="B2619">
-        <v>0.5004100063830873</v>
+        <v>0.5004100063830872</v>
       </c>
     </row>
     <row r="2620" spans="1:2">
@@ -21407,7 +21407,7 @@
         <v>2633</v>
       </c>
       <c r="B2633">
-        <v>59.88115383240206</v>
+        <v>59.88115383240205</v>
       </c>
     </row>
     <row r="2634" spans="1:2">
@@ -21455,7 +21455,7 @@
         <v>2639</v>
       </c>
       <c r="B2639">
-        <v>7.665126480668156</v>
+        <v>7.665126480668155</v>
       </c>
     </row>
     <row r="2640" spans="1:2">
@@ -21479,7 +21479,7 @@
         <v>2642</v>
       </c>
       <c r="B2642">
-        <v>0.604623137020675</v>
+        <v>0.6046231370206749</v>
       </c>
     </row>
     <row r="2643" spans="1:2">
@@ -21519,7 +21519,7 @@
         <v>2647</v>
       </c>
       <c r="B2647">
-        <v>6.686298518643128</v>
+        <v>6.686298518643127</v>
       </c>
     </row>
     <row r="2648" spans="1:2">
@@ -21655,7 +21655,7 @@
         <v>2664</v>
       </c>
       <c r="B2664">
-        <v>0.8219587578711555</v>
+        <v>0.8219587578711554</v>
       </c>
     </row>
     <row r="2665" spans="1:2">
@@ -21671,7 +21671,7 @@
         <v>2666</v>
       </c>
       <c r="B2666">
-        <v>0.6129522159394305</v>
+        <v>0.6129522159394304</v>
       </c>
     </row>
     <row r="2667" spans="1:2">
@@ -21679,7 +21679,7 @@
         <v>2667</v>
       </c>
       <c r="B2667">
-        <v>0.5379992978017915</v>
+        <v>0.5379992978017913</v>
       </c>
     </row>
     <row r="2668" spans="1:2">
@@ -21751,7 +21751,7 @@
         <v>2676</v>
       </c>
       <c r="B2676">
-        <v>31.25397477596185</v>
+        <v>31.25397477596184</v>
       </c>
     </row>
     <row r="2677" spans="1:2">
@@ -21783,7 +21783,7 @@
         <v>2680</v>
       </c>
       <c r="B2680">
-        <v>47.56601571681367</v>
+        <v>47.56601571681366</v>
       </c>
     </row>
     <row r="2681" spans="1:2">
@@ -21791,7 +21791,7 @@
         <v>2681</v>
       </c>
       <c r="B2681">
-        <v>48.60553869094546</v>
+        <v>48.60553869094545</v>
       </c>
     </row>
     <row r="2682" spans="1:2">
@@ -21839,7 +21839,7 @@
         <v>2687</v>
       </c>
       <c r="B2687">
-        <v>2.693736075462276</v>
+        <v>2.693736075462275</v>
       </c>
     </row>
     <row r="2688" spans="1:2">
@@ -21879,7 +21879,7 @@
         <v>2692</v>
       </c>
       <c r="B2692">
-        <v>0.6901031668670297</v>
+        <v>0.6901031668670295</v>
       </c>
     </row>
     <row r="2693" spans="1:2">
@@ -21887,7 +21887,7 @@
         <v>2693</v>
       </c>
       <c r="B2693">
-        <v>0.767336177685454</v>
+        <v>0.7673361776854539</v>
       </c>
     </row>
     <row r="2694" spans="1:2">
@@ -22055,7 +22055,7 @@
         <v>2714</v>
       </c>
       <c r="B2714">
-        <v>0.664178102787047</v>
+        <v>0.6641781027870469</v>
       </c>
     </row>
     <row r="2715" spans="1:2">
@@ -22095,7 +22095,7 @@
         <v>2719</v>
       </c>
       <c r="B2719">
-        <v>0.620742044147049</v>
+        <v>0.6207420441470489</v>
       </c>
     </row>
     <row r="2720" spans="1:2">
@@ -22223,7 +22223,7 @@
         <v>2735</v>
       </c>
       <c r="B2735">
-        <v>6.339331715971962</v>
+        <v>6.339331715971961</v>
       </c>
     </row>
     <row r="2736" spans="1:2">
@@ -22263,7 +22263,7 @@
         <v>2740</v>
       </c>
       <c r="B2740">
-        <v>0.7525243673915095</v>
+        <v>0.7525243673915094</v>
       </c>
     </row>
     <row r="2741" spans="1:2">
@@ -22367,7 +22367,7 @@
         <v>2753</v>
       </c>
       <c r="B2753">
-        <v>54.64837043710374</v>
+        <v>54.64837043710373</v>
       </c>
     </row>
     <row r="2754" spans="1:2">
@@ -22407,7 +22407,7 @@
         <v>2758</v>
       </c>
       <c r="B2758">
-        <v>19.21048420610866</v>
+        <v>19.21048420610865</v>
       </c>
     </row>
     <row r="2759" spans="1:2">
@@ -22495,7 +22495,7 @@
         <v>2769</v>
       </c>
       <c r="B2769">
-        <v>55.53285883178368</v>
+        <v>55.53285883178367</v>
       </c>
     </row>
     <row r="2770" spans="1:2">
@@ -22639,7 +22639,7 @@
         <v>2787</v>
       </c>
       <c r="B2787">
-        <v>0.8794270578422587</v>
+        <v>0.8794270578422586</v>
       </c>
     </row>
     <row r="2788" spans="1:2">
@@ -22647,7 +22647,7 @@
         <v>2788</v>
       </c>
       <c r="B2788">
-        <v>0.7801316592334083</v>
+        <v>0.7801316592334082</v>
       </c>
     </row>
     <row r="2789" spans="1:2">
@@ -22687,7 +22687,7 @@
         <v>2793</v>
       </c>
       <c r="B2793">
-        <v>43.43136950337941</v>
+        <v>43.4313695033794</v>
       </c>
     </row>
     <row r="2794" spans="1:2">
@@ -22863,7 +22863,7 @@
         <v>2815</v>
       </c>
       <c r="B2815">
-        <v>0.942155982957333</v>
+        <v>0.9421559829573328</v>
       </c>
     </row>
     <row r="2816" spans="1:2">
@@ -22919,7 +22919,7 @@
         <v>2822</v>
       </c>
       <c r="B2822">
-        <v>25.6246955724586</v>
+        <v>25.62469557245859</v>
       </c>
     </row>
     <row r="2823" spans="1:2">
@@ -23015,7 +23015,7 @@
         <v>2834</v>
       </c>
       <c r="B2834">
-        <v>0.7734936002077288</v>
+        <v>0.7734936002077287</v>
       </c>
     </row>
     <row r="2835" spans="1:2">
@@ -23095,7 +23095,7 @@
         <v>2844</v>
       </c>
       <c r="B2844">
-        <v>42.53457212507569</v>
+        <v>42.53457212507568</v>
       </c>
     </row>
     <row r="2845" spans="1:2">
@@ -23215,7 +23215,7 @@
         <v>2859</v>
       </c>
       <c r="B2859">
-        <v>0.8628773362890526</v>
+        <v>0.8628773362890525</v>
       </c>
     </row>
     <row r="2860" spans="1:2">
@@ -23263,7 +23263,7 @@
         <v>2865</v>
       </c>
       <c r="B2865">
-        <v>55.3977530829608</v>
+        <v>55.39775308296079</v>
       </c>
     </row>
     <row r="2866" spans="1:2">
@@ -23271,7 +23271,7 @@
         <v>2866</v>
       </c>
       <c r="B2866">
-        <v>61.9604928517043</v>
+        <v>61.96049285170429</v>
       </c>
     </row>
     <row r="2867" spans="1:2">
@@ -23279,7 +23279,7 @@
         <v>2867</v>
       </c>
       <c r="B2867">
-        <v>62.13369783555316</v>
+        <v>62.13369783555315</v>
       </c>
     </row>
     <row r="2868" spans="1:2">
@@ -23287,7 +23287,7 @@
         <v>2868</v>
       </c>
       <c r="B2868">
-        <v>55.26528497348587</v>
+        <v>55.26528497348586</v>
       </c>
     </row>
     <row r="2869" spans="1:2">
@@ -23335,7 +23335,7 @@
         <v>2874</v>
       </c>
       <c r="B2874">
-        <v>75.87931569084758</v>
+        <v>75.87931569084756</v>
       </c>
     </row>
     <row r="2875" spans="1:2">
@@ -23343,7 +23343,7 @@
         <v>2875</v>
       </c>
       <c r="B2875">
-        <v>61.73893114647633</v>
+        <v>61.73893114647632</v>
       </c>
     </row>
     <row r="2876" spans="1:2">
@@ -23359,7 +23359,7 @@
         <v>2877</v>
       </c>
       <c r="B2877">
-        <v>43.98673912164266</v>
+        <v>43.98673912164265</v>
       </c>
     </row>
     <row r="2878" spans="1:2">
@@ -23463,7 +23463,7 @@
         <v>2890</v>
       </c>
       <c r="B2890">
-        <v>52.41399683834964</v>
+        <v>52.41399683834963</v>
       </c>
     </row>
     <row r="2891" spans="1:2">
@@ -23479,7 +23479,7 @@
         <v>2892</v>
       </c>
       <c r="B2892">
-        <v>47.39017309361686</v>
+        <v>47.39017309361685</v>
       </c>
     </row>
     <row r="2893" spans="1:2">
@@ -23511,7 +23511,7 @@
         <v>2896</v>
       </c>
       <c r="B2896">
-        <v>79.18105401240629</v>
+        <v>79.18105401240628</v>
       </c>
     </row>
     <row r="2897" spans="1:2">
@@ -23679,7 +23679,7 @@
         <v>2917</v>
       </c>
       <c r="B2917">
-        <v>85.32352991170943</v>
+        <v>85.32352991170941</v>
       </c>
     </row>
     <row r="2918" spans="1:2">
@@ -23847,7 +23847,7 @@
         <v>2938</v>
       </c>
       <c r="B2938">
-        <v>52.55936007352567</v>
+        <v>52.55936007352566</v>
       </c>
     </row>
     <row r="2939" spans="1:2">
@@ -23967,7 +23967,7 @@
         <v>2953</v>
       </c>
       <c r="B2953">
-        <v>1.212927246286937</v>
+        <v>1.212927246286936</v>
       </c>
     </row>
     <row r="2954" spans="1:2">
@@ -23983,7 +23983,7 @@
         <v>2955</v>
       </c>
       <c r="B2955">
-        <v>0.723642216531434</v>
+        <v>0.7236422165314339</v>
       </c>
     </row>
     <row r="2956" spans="1:2">
@@ -23991,7 +23991,7 @@
         <v>2956</v>
       </c>
       <c r="B2956">
-        <v>0.6967734637069618</v>
+        <v>0.6967734637069617</v>
       </c>
     </row>
     <row r="2957" spans="1:2">
@@ -23999,7 +23999,7 @@
         <v>2957</v>
       </c>
       <c r="B2957">
-        <v>0.7685700067582182</v>
+        <v>0.7685700067582181</v>
       </c>
     </row>
     <row r="2958" spans="1:2">
@@ -24007,7 +24007,7 @@
         <v>2958</v>
       </c>
       <c r="B2958">
-        <v>0.8524586608646417</v>
+        <v>0.8524586608646416</v>
       </c>
     </row>
     <row r="2959" spans="1:2">
@@ -24071,7 +24071,7 @@
         <v>2966</v>
       </c>
       <c r="B2966">
-        <v>42.8886019397786</v>
+        <v>42.88860193977859</v>
       </c>
     </row>
     <row r="2967" spans="1:2">
@@ -24199,7 +24199,7 @@
         <v>2982</v>
       </c>
       <c r="B2982">
-        <v>0.8860973546821909</v>
+        <v>0.8860973546821908</v>
       </c>
     </row>
     <row r="2983" spans="1:2">
@@ -24223,7 +24223,7 @@
         <v>2985</v>
       </c>
       <c r="B2985">
-        <v>49.15827066986076</v>
+        <v>49.15827066986075</v>
       </c>
     </row>
     <row r="2986" spans="1:2">
@@ -24447,7 +24447,7 @@
         <v>3013</v>
       </c>
       <c r="B3013">
-        <v>61.34885359401808</v>
+        <v>61.34885359401807</v>
       </c>
     </row>
     <row r="3014" spans="1:2">
@@ -24455,7 +24455,7 @@
         <v>3014</v>
       </c>
       <c r="B3014">
-        <v>64.74877071352834</v>
+        <v>64.74877071352833</v>
       </c>
     </row>
     <row r="3015" spans="1:2">
@@ -24583,7 +24583,7 @@
         <v>3030</v>
       </c>
       <c r="B3030">
-        <v>8.793039680060209</v>
+        <v>8.793039680060208</v>
       </c>
     </row>
     <row r="3031" spans="1:2">
@@ -24623,7 +24623,7 @@
         <v>3035</v>
       </c>
       <c r="B3035">
-        <v>55.29576436150665</v>
+        <v>55.29576436150664</v>
       </c>
     </row>
     <row r="3036" spans="1:2">
@@ -24679,7 +24679,7 @@
         <v>3042</v>
       </c>
       <c r="B3042">
-        <v>67.97694820438306</v>
+        <v>67.97694820438305</v>
       </c>
     </row>
     <row r="3043" spans="1:2">
@@ -24695,7 +24695,7 @@
         <v>3044</v>
       </c>
       <c r="B3044">
-        <v>67.96639764699125</v>
+        <v>67.96639764699124</v>
       </c>
     </row>
     <row r="3045" spans="1:2">
@@ -24719,7 +24719,7 @@
         <v>3047</v>
       </c>
       <c r="B3047">
-        <v>40.32071349902789</v>
+        <v>40.32071349902788</v>
       </c>
     </row>
     <row r="3048" spans="1:2">
@@ -24799,7 +24799,7 @@
         <v>3057</v>
       </c>
       <c r="B3057">
-        <v>88.57163623319312</v>
+        <v>88.5716362331931</v>
       </c>
     </row>
     <row r="3058" spans="1:2">
@@ -24823,7 +24823,7 @@
         <v>3060</v>
       </c>
       <c r="B3060">
-        <v>73.04385339179906</v>
+        <v>73.04385339179905</v>
       </c>
     </row>
     <row r="3061" spans="1:2">
@@ -24863,7 +24863,7 @@
         <v>3065</v>
       </c>
       <c r="B3065">
-        <v>58.72733315319234</v>
+        <v>58.72733315319233</v>
       </c>
     </row>
     <row r="3066" spans="1:2">
@@ -24903,7 +24903,7 @@
         <v>3070</v>
       </c>
       <c r="B3070">
-        <v>42.62132115251945</v>
+        <v>42.62132115251944</v>
       </c>
     </row>
     <row r="3071" spans="1:2">
@@ -24951,7 +24951,7 @@
         <v>3076</v>
       </c>
       <c r="B3076">
-        <v>5.997435042269636</v>
+        <v>5.997435042269635</v>
       </c>
     </row>
     <row r="3077" spans="1:2">
@@ -24967,7 +24967,7 @@
         <v>3078</v>
       </c>
       <c r="B3078">
-        <v>5.553491032905431</v>
+        <v>5.55349103290543</v>
       </c>
     </row>
     <row r="3079" spans="1:2">
@@ -24975,7 +24975,7 @@
         <v>3079</v>
       </c>
       <c r="B3079">
-        <v>8.250799644328989</v>
+        <v>8.250799644328987</v>
       </c>
     </row>
     <row r="3080" spans="1:2">
@@ -25063,7 +25063,7 @@
         <v>3090</v>
       </c>
       <c r="B3090">
-        <v>36.06356359143319</v>
+        <v>36.06356359143318</v>
       </c>
     </row>
     <row r="3091" spans="1:2">
@@ -25087,7 +25087,7 @@
         <v>3093</v>
       </c>
       <c r="B3093">
-        <v>49.18113021087634</v>
+        <v>49.18113021087633</v>
       </c>
     </row>
     <row r="3094" spans="1:2">
@@ -25127,7 +25127,7 @@
         <v>3098</v>
       </c>
       <c r="B3098">
-        <v>8.328082477223985</v>
+        <v>8.328082477223983</v>
       </c>
     </row>
     <row r="3099" spans="1:2">
@@ -25263,7 +25263,7 @@
         <v>3115</v>
       </c>
       <c r="B3115">
-        <v>67.95379559232882</v>
+        <v>67.9537955923288</v>
       </c>
     </row>
     <row r="3116" spans="1:2">
@@ -25271,7 +25271,7 @@
         <v>3116</v>
       </c>
       <c r="B3116">
-        <v>62.83706832834039</v>
+        <v>62.83706832834038</v>
       </c>
     </row>
     <row r="3117" spans="1:2">
@@ -25303,7 +25303,7 @@
         <v>3120</v>
       </c>
       <c r="B3120">
-        <v>22.22864699065866</v>
+        <v>22.22864699065865</v>
       </c>
     </row>
     <row r="3121" spans="1:2">
@@ -25319,7 +25319,7 @@
         <v>3122</v>
       </c>
       <c r="B3122">
-        <v>7.797037755169627</v>
+        <v>7.797037755169626</v>
       </c>
     </row>
     <row r="3123" spans="1:2">
@@ -25487,7 +25487,7 @@
         <v>3143</v>
       </c>
       <c r="B3143">
-        <v>31.15989897255156</v>
+        <v>31.15989897255155</v>
       </c>
     </row>
     <row r="3144" spans="1:2">
@@ -25575,7 +25575,7 @@
         <v>3154</v>
       </c>
       <c r="B3154">
-        <v>64.22886269094312</v>
+        <v>64.2288626909431</v>
       </c>
     </row>
     <row r="3155" spans="1:2">
@@ -25599,7 +25599,7 @@
         <v>3157</v>
       </c>
       <c r="B3157">
-        <v>86.69656772783783</v>
+        <v>86.69656772783782</v>
       </c>
     </row>
     <row r="3158" spans="1:2">
@@ -25647,7 +25647,7 @@
         <v>3163</v>
       </c>
       <c r="B3163">
-        <v>95.57779248343124</v>
+        <v>95.57779248343122</v>
       </c>
     </row>
     <row r="3164" spans="1:2">
@@ -25679,7 +25679,7 @@
         <v>3167</v>
       </c>
       <c r="B3167">
-        <v>57.26989087792947</v>
+        <v>57.26989087792946</v>
       </c>
     </row>
     <row r="3168" spans="1:2">
@@ -25687,7 +25687,7 @@
         <v>3168</v>
       </c>
       <c r="B3168">
-        <v>44.85803931958284</v>
+        <v>44.85803931958283</v>
       </c>
     </row>
     <row r="3169" spans="1:2">
@@ -25695,7 +25695,7 @@
         <v>3169</v>
       </c>
       <c r="B3169">
-        <v>42.66205802689338</v>
+        <v>42.66205802689337</v>
       </c>
     </row>
     <row r="3170" spans="1:2">
@@ -25807,7 +25807,7 @@
         <v>3183</v>
       </c>
       <c r="B3183">
-        <v>81.04615810244709</v>
+        <v>81.04615810244708</v>
       </c>
     </row>
     <row r="3184" spans="1:2">
@@ -25991,7 +25991,7 @@
         <v>3206</v>
       </c>
       <c r="B3206">
-        <v>25.6705611900091</v>
+        <v>25.67056119000909</v>
       </c>
     </row>
     <row r="3207" spans="1:2">
@@ -26023,7 +26023,7 @@
         <v>3210</v>
       </c>
       <c r="B3210">
-        <v>43.87214834552607</v>
+        <v>43.87214834552606</v>
       </c>
     </row>
     <row r="3211" spans="1:2">
@@ -26191,7 +26191,7 @@
         <v>3231</v>
       </c>
       <c r="B3231">
-        <v>63.23154194637856</v>
+        <v>63.23154194637855</v>
       </c>
     </row>
     <row r="3232" spans="1:2">
@@ -26215,7 +26215,7 @@
         <v>3234</v>
       </c>
       <c r="B3234">
-        <v>86.82698434004213</v>
+        <v>86.82698434004212</v>
       </c>
     </row>
     <row r="3235" spans="1:2">
@@ -26239,7 +26239,7 @@
         <v>3237</v>
       </c>
       <c r="B3237">
-        <v>38.01512363787909</v>
+        <v>38.01512363787908</v>
       </c>
     </row>
     <row r="3238" spans="1:2">
@@ -26327,7 +26327,7 @@
         <v>3248</v>
       </c>
       <c r="B3248">
-        <v>51.60131084814173</v>
+        <v>51.60131084814172</v>
       </c>
     </row>
     <row r="3249" spans="1:2">
@@ -26359,7 +26359,7 @@
         <v>3252</v>
       </c>
       <c r="B3252">
-        <v>69.12021832620097</v>
+        <v>69.12021832620096</v>
       </c>
     </row>
     <row r="3253" spans="1:2">
@@ -26383,7 +26383,7 @@
         <v>3255</v>
       </c>
       <c r="B3255">
-        <v>93.59077084130732</v>
+        <v>93.5907708413073</v>
       </c>
     </row>
     <row r="3256" spans="1:2">
@@ -26415,7 +26415,7 @@
         <v>3259</v>
       </c>
       <c r="B3259">
-        <v>99.14505316601714</v>
+        <v>99.14505316601712</v>
       </c>
     </row>
     <row r="3260" spans="1:2">
@@ -26519,7 +26519,7 @@
         <v>3272</v>
       </c>
       <c r="B3272">
-        <v>78.87567399012117</v>
+        <v>78.87567399012116</v>
       </c>
     </row>
     <row r="3273" spans="1:2">
@@ -26559,7 +26559,7 @@
         <v>3277</v>
       </c>
       <c r="B3277">
-        <v>81.96083281410915</v>
+        <v>81.96083281410914</v>
       </c>
     </row>
     <row r="3278" spans="1:2">
@@ -26567,7 +26567,7 @@
         <v>3278</v>
       </c>
       <c r="B3278">
-        <v>90.57975899010066</v>
+        <v>90.57975899010064</v>
       </c>
     </row>
     <row r="3279" spans="1:2">
@@ -26575,7 +26575,7 @@
         <v>3279</v>
       </c>
       <c r="B3279">
-        <v>91.97858705763126</v>
+        <v>91.97858705763124</v>
       </c>
     </row>
     <row r="3280" spans="1:2">
@@ -26639,7 +26639,7 @@
         <v>3287</v>
       </c>
       <c r="B3287">
-        <v>44.46825483816325</v>
+        <v>44.46825483816324</v>
       </c>
     </row>
     <row r="3288" spans="1:2">
@@ -26687,7 +26687,7 @@
         <v>3293</v>
       </c>
       <c r="B3293">
-        <v>11.04895400015592</v>
+        <v>11.04895400015591</v>
       </c>
     </row>
     <row r="3294" spans="1:2">
@@ -26695,7 +26695,7 @@
         <v>3294</v>
       </c>
       <c r="B3294">
-        <v>6.914600857760316</v>
+        <v>6.914600857760315</v>
       </c>
     </row>
     <row r="3295" spans="1:2">
@@ -26743,7 +26743,7 @@
         <v>3300</v>
       </c>
       <c r="B3300">
-        <v>7.220244643980234</v>
+        <v>7.220244643980233</v>
       </c>
     </row>
     <row r="3301" spans="1:2">
@@ -26863,7 +26863,7 @@
         <v>3315</v>
       </c>
       <c r="B3315">
-        <v>0.7383455905410737</v>
+        <v>0.7383455905410736</v>
       </c>
     </row>
     <row r="3316" spans="1:2">
@@ -26895,7 +26895,7 @@
         <v>3319</v>
       </c>
       <c r="B3319">
-        <v>17.10837356710243</v>
+        <v>17.10837356710242</v>
       </c>
     </row>
     <row r="3320" spans="1:2">
@@ -26983,7 +26983,7 @@
         <v>3330</v>
       </c>
       <c r="B3330">
-        <v>61.99360987907304</v>
+        <v>61.99360987907303</v>
       </c>
     </row>
     <row r="3331" spans="1:2">
@@ -26991,7 +26991,7 @@
         <v>3331</v>
       </c>
       <c r="B3331">
-        <v>50.58992269372143</v>
+        <v>50.58992269372142</v>
       </c>
     </row>
     <row r="3332" spans="1:2">
@@ -27063,7 +27063,7 @@
         <v>3340</v>
       </c>
       <c r="B3340">
-        <v>0.6621060905437113</v>
+        <v>0.6621060905437112</v>
       </c>
     </row>
     <row r="3341" spans="1:2">
@@ -27103,7 +27103,7 @@
         <v>3345</v>
       </c>
       <c r="B3345">
-        <v>55.5501500230647</v>
+        <v>55.55015002306469</v>
       </c>
     </row>
     <row r="3346" spans="1:2">
@@ -27247,7 +27247,7 @@
         <v>3363</v>
       </c>
       <c r="B3363">
-        <v>0.5532770910472073</v>
+        <v>0.5532770910472072</v>
       </c>
     </row>
     <row r="3364" spans="1:2">
@@ -27263,7 +27263,7 @@
         <v>3365</v>
       </c>
       <c r="B3365">
-        <v>0.5922672620307128</v>
+        <v>0.5922672620307127</v>
       </c>
     </row>
     <row r="3366" spans="1:2">
@@ -27279,7 +27279,7 @@
         <v>3367</v>
       </c>
       <c r="B3367">
-        <v>3.587042977695536</v>
+        <v>3.587042977695535</v>
       </c>
     </row>
     <row r="3368" spans="1:2">
@@ -27311,7 +27311,7 @@
         <v>3371</v>
       </c>
       <c r="B3371">
-        <v>33.92854107478529</v>
+        <v>33.92854107478528</v>
       </c>
     </row>
     <row r="3372" spans="1:2">
@@ -27367,7 +27367,7 @@
         <v>3378</v>
       </c>
       <c r="B3378">
-        <v>30.30647610796972</v>
+        <v>30.30647610796971</v>
       </c>
     </row>
     <row r="3379" spans="1:2">
@@ -27383,7 +27383,7 @@
         <v>3380</v>
       </c>
       <c r="B3380">
-        <v>27.34877387869556</v>
+        <v>27.34877387869555</v>
       </c>
     </row>
     <row r="3381" spans="1:2">
@@ -27527,7 +27527,7 @@
         <v>3398</v>
       </c>
       <c r="B3398">
-        <v>49.80302695491572</v>
+        <v>49.80302695491571</v>
       </c>
     </row>
     <row r="3399" spans="1:2">
@@ -27607,7 +27607,7 @@
         <v>3408</v>
       </c>
       <c r="B3408">
-        <v>7.665888465368675</v>
+        <v>7.665888465368674</v>
       </c>
     </row>
     <row r="3409" spans="1:2">
@@ -27639,7 +27639,7 @@
         <v>3412</v>
       </c>
       <c r="B3412">
-        <v>0.7554843848819892</v>
+        <v>0.7554843848819891</v>
       </c>
     </row>
     <row r="3413" spans="1:2">
@@ -27695,7 +27695,7 @@
         <v>3419</v>
       </c>
       <c r="B3419">
-        <v>61.47370185648781</v>
+        <v>61.4737018564878</v>
       </c>
     </row>
     <row r="3420" spans="1:2">
@@ -27711,7 +27711,7 @@
         <v>3421</v>
       </c>
       <c r="B3421">
-        <v>56.15182486543644</v>
+        <v>56.15182486543643</v>
       </c>
     </row>
     <row r="3422" spans="1:2">
@@ -27735,7 +27735,7 @@
         <v>3424</v>
       </c>
       <c r="B3424">
-        <v>85.3692489937406</v>
+        <v>85.36924899374058</v>
       </c>
     </row>
     <row r="3425" spans="1:2">
@@ -27759,7 +27759,7 @@
         <v>3427</v>
       </c>
       <c r="B3427">
-        <v>87.39730058127711</v>
+        <v>87.39730058127709</v>
       </c>
     </row>
     <row r="3428" spans="1:2">
@@ -27823,7 +27823,7 @@
         <v>3435</v>
       </c>
       <c r="B3435">
-        <v>4.259523783007859</v>
+        <v>4.259523783007858</v>
       </c>
     </row>
     <row r="3436" spans="1:2">
@@ -27871,7 +27871,7 @@
         <v>3441</v>
       </c>
       <c r="B3441">
-        <v>81.82103792866769</v>
+        <v>81.82103792866768</v>
       </c>
     </row>
     <row r="3442" spans="1:2">
@@ -28103,7 +28103,7 @@
         <v>3470</v>
       </c>
       <c r="B3470">
-        <v>74.04996626752346</v>
+        <v>74.04996626752344</v>
       </c>
     </row>
     <row r="3471" spans="1:2">
@@ -28151,7 +28151,7 @@
         <v>3476</v>
       </c>
       <c r="B3476">
-        <v>75.14282817069162</v>
+        <v>75.1428281706916</v>
       </c>
     </row>
     <row r="3477" spans="1:2">
@@ -28263,7 +28263,7 @@
         <v>3490</v>
       </c>
       <c r="B3490">
-        <v>52.00164588695313</v>
+        <v>52.00164588695312</v>
       </c>
     </row>
     <row r="3491" spans="1:2">
@@ -28279,7 +28279,7 @@
         <v>3492</v>
       </c>
       <c r="B3492">
-        <v>82.04963333882354</v>
+        <v>82.04963333882353</v>
       </c>
     </row>
     <row r="3493" spans="1:2">
@@ -28303,7 +28303,7 @@
         <v>3495</v>
       </c>
       <c r="B3495">
-        <v>118.045497520326</v>
+        <v>118.0454975203259</v>
       </c>
     </row>
     <row r="3496" spans="1:2">
@@ -28439,7 +28439,7 @@
         <v>3512</v>
       </c>
       <c r="B3512">
-        <v>85.20366385689694</v>
+        <v>85.20366385689692</v>
       </c>
     </row>
     <row r="3513" spans="1:2">
@@ -28543,7 +28543,7 @@
         <v>3525</v>
       </c>
       <c r="B3525">
-        <v>74.06579210361117</v>
+        <v>74.06579210361116</v>
       </c>
     </row>
     <row r="3526" spans="1:2">
@@ -28647,7 +28647,7 @@
         <v>3538</v>
       </c>
       <c r="B3538">
-        <v>101.4937244698492</v>
+        <v>101.4937244698491</v>
       </c>
     </row>
     <row r="3539" spans="1:2">
@@ -28671,7 +28671,7 @@
         <v>3541</v>
       </c>
       <c r="B3541">
-        <v>91.06860148258778</v>
+        <v>91.06860148258777</v>
       </c>
     </row>
     <row r="3542" spans="1:2">
@@ -28935,7 +28935,7 @@
         <v>3574</v>
       </c>
       <c r="B3574">
-        <v>68.8122006645679</v>
+        <v>68.81220066456788</v>
       </c>
     </row>
     <row r="3575" spans="1:2">
@@ -28959,7 +28959,7 @@
         <v>3577</v>
       </c>
       <c r="B3577">
-        <v>34.97040861722637</v>
+        <v>34.97040861722636</v>
       </c>
     </row>
     <row r="3578" spans="1:2">
@@ -29055,7 +29055,7 @@
         <v>3589</v>
       </c>
       <c r="B3589">
-        <v>91.4733325869791</v>
+        <v>91.47333258697908</v>
       </c>
     </row>
     <row r="3590" spans="1:2">
@@ -29215,7 +29215,7 @@
         <v>3609</v>
       </c>
       <c r="B3609">
-        <v>133.576797214184</v>
+        <v>133.5767972141839</v>
       </c>
     </row>
     <row r="3610" spans="1:2">
@@ -29231,7 +29231,7 @@
         <v>3611</v>
       </c>
       <c r="B3611">
-        <v>122.8969954943259</v>
+        <v>122.8969954943258</v>
       </c>
     </row>
     <row r="3612" spans="1:2">
@@ -29319,7 +29319,7 @@
         <v>3622</v>
       </c>
       <c r="B3622">
-        <v>98.36548420317796</v>
+        <v>98.36548420317794</v>
       </c>
     </row>
     <row r="3623" spans="1:2">
@@ -29351,7 +29351,7 @@
         <v>3626</v>
       </c>
       <c r="B3626">
-        <v>44.82755993156206</v>
+        <v>44.82755993156205</v>
       </c>
     </row>
     <row r="3627" spans="1:2">
@@ -29391,7 +29391,7 @@
         <v>3631</v>
       </c>
       <c r="B3631">
-        <v>84.88304414060143</v>
+        <v>84.88304414060141</v>
       </c>
     </row>
     <row r="3632" spans="1:2">
@@ -29639,7 +29639,7 @@
         <v>3662</v>
       </c>
       <c r="B3662">
-        <v>66.95500949257095</v>
+        <v>66.95500949257094</v>
       </c>
     </row>
     <row r="3663" spans="1:2">
@@ -29647,7 +29647,7 @@
         <v>3663</v>
       </c>
       <c r="B3663">
-        <v>67.84184245556018</v>
+        <v>67.84184245556017</v>
       </c>
     </row>
     <row r="3664" spans="1:2">
@@ -29759,7 +29759,7 @@
         <v>3677</v>
       </c>
       <c r="B3677">
-        <v>2.121520733896773</v>
+        <v>2.121520733896772</v>
       </c>
     </row>
     <row r="3678" spans="1:2">
@@ -29807,7 +29807,7 @@
         <v>3683</v>
       </c>
       <c r="B3683">
-        <v>72.01253640674979</v>
+        <v>72.01253640674977</v>
       </c>
     </row>
     <row r="3684" spans="1:2">
@@ -29943,7 +29943,7 @@
         <v>3700</v>
       </c>
       <c r="B3700">
-        <v>4.934935298706796</v>
+        <v>4.934935298706795</v>
       </c>
     </row>
     <row r="3701" spans="1:2">
@@ -30015,7 +30015,7 @@
         <v>3709</v>
       </c>
       <c r="B3709">
-        <v>81.9051493167635</v>
+        <v>81.90514931676348</v>
       </c>
     </row>
     <row r="3710" spans="1:2">
@@ -30063,7 +30063,7 @@
         <v>3715</v>
       </c>
       <c r="B3715">
-        <v>93.2065547096223</v>
+        <v>93.20655470962228</v>
       </c>
     </row>
     <row r="3716" spans="1:2">
@@ -30095,7 +30095,7 @@
         <v>3719</v>
       </c>
       <c r="B3719">
-        <v>43.01345020224833</v>
+        <v>43.01345020224832</v>
       </c>
     </row>
     <row r="3720" spans="1:2">
@@ -30279,7 +30279,7 @@
         <v>3742</v>
       </c>
       <c r="B3742">
-        <v>58.33754867177275</v>
+        <v>58.33754867177274</v>
       </c>
     </row>
     <row r="3743" spans="1:2">
@@ -30287,7 +30287,7 @@
         <v>3743</v>
       </c>
       <c r="B3743">
-        <v>45.90781978006778</v>
+        <v>45.90781978006777</v>
       </c>
     </row>
     <row r="3744" spans="1:2">
@@ -30303,7 +30303,7 @@
         <v>3745</v>
       </c>
       <c r="B3745">
-        <v>37.39322689383971</v>
+        <v>37.3932268938397</v>
       </c>
     </row>
     <row r="3746" spans="1:2">
@@ -30335,7 +30335,7 @@
         <v>3749</v>
       </c>
       <c r="B3749">
-        <v>26.74554575981891</v>
+        <v>26.7455457598189</v>
       </c>
     </row>
     <row r="3750" spans="1:2">
@@ -30343,7 +30343,7 @@
         <v>3750</v>
       </c>
       <c r="B3750">
-        <v>44.94947748364518</v>
+        <v>44.94947748364517</v>
       </c>
     </row>
     <row r="3751" spans="1:2">
@@ -30391,7 +30391,7 @@
         <v>3756</v>
       </c>
       <c r="B3756">
-        <v>95.92215095385832</v>
+        <v>95.92215095385831</v>
       </c>
     </row>
     <row r="3757" spans="1:2">
@@ -30447,7 +30447,7 @@
         <v>3763</v>
       </c>
       <c r="B3763">
-        <v>111.0671830187607</v>
+        <v>111.0671830187606</v>
       </c>
     </row>
     <row r="3764" spans="1:2">
@@ -30487,7 +30487,7 @@
         <v>3768</v>
       </c>
       <c r="B3768">
-        <v>63.03547742151412</v>
+        <v>63.03547742151411</v>
       </c>
     </row>
     <row r="3769" spans="1:2">
@@ -30495,7 +30495,7 @@
         <v>3769</v>
       </c>
       <c r="B3769">
-        <v>57.46624847383257</v>
+        <v>57.46624847383256</v>
       </c>
     </row>
     <row r="3770" spans="1:2">
@@ -30519,7 +30519,7 @@
         <v>3772</v>
       </c>
       <c r="B3772">
-        <v>44.8067518878171</v>
+        <v>44.80675188781709</v>
       </c>
     </row>
     <row r="3773" spans="1:2">
@@ -30719,7 +30719,7 @@
         <v>3797</v>
       </c>
       <c r="B3797">
-        <v>41.00855122676607</v>
+        <v>41.00855122676606</v>
       </c>
     </row>
     <row r="3798" spans="1:2">
@@ -30743,7 +30743,7 @@
         <v>3800</v>
       </c>
       <c r="B3800">
-        <v>59.69798443323872</v>
+        <v>59.69798443323871</v>
       </c>
     </row>
     <row r="3801" spans="1:2">
@@ -30751,7 +30751,7 @@
         <v>3801</v>
       </c>
       <c r="B3801">
-        <v>78.48559643766292</v>
+        <v>78.48559643766291</v>
       </c>
     </row>
     <row r="3802" spans="1:2">
@@ -30767,7 +30767,7 @@
         <v>3803</v>
       </c>
       <c r="B3803">
-        <v>96.51503366507022</v>
+        <v>96.51503366507021</v>
       </c>
     </row>
     <row r="3804" spans="1:2">
@@ -30799,7 +30799,7 @@
         <v>3807</v>
       </c>
       <c r="B3807">
-        <v>107.6083586204795</v>
+        <v>107.6083586204794</v>
       </c>
     </row>
     <row r="3808" spans="1:2">
@@ -30847,7 +30847,7 @@
         <v>3813</v>
       </c>
       <c r="B3813">
-        <v>61.34621595467012</v>
+        <v>61.34621595467011</v>
       </c>
     </row>
     <row r="3814" spans="1:2">
@@ -30895,7 +30895,7 @@
         <v>3819</v>
       </c>
       <c r="B3819">
-        <v>8.143183958932543</v>
+        <v>8.143183958932541</v>
       </c>
     </row>
     <row r="3820" spans="1:2">
@@ -30935,7 +30935,7 @@
         <v>3824</v>
       </c>
       <c r="B3824">
-        <v>56.4038659586852</v>
+        <v>56.40386595868519</v>
       </c>
     </row>
     <row r="3825" spans="1:2">
@@ -31031,7 +31031,7 @@
         <v>3836</v>
       </c>
       <c r="B3836">
-        <v>58.96208305516008</v>
+        <v>58.96208305516007</v>
       </c>
     </row>
     <row r="3837" spans="1:2">
@@ -31103,7 +31103,7 @@
         <v>3845</v>
       </c>
       <c r="B3845">
-        <v>4.74391159570733</v>
+        <v>4.743911595707329</v>
       </c>
     </row>
     <row r="3846" spans="1:2">
@@ -31143,7 +31143,7 @@
         <v>3850</v>
       </c>
       <c r="B3850">
-        <v>53.42831570315656</v>
+        <v>53.42831570315655</v>
       </c>
     </row>
     <row r="3851" spans="1:2">
@@ -31167,7 +31167,7 @@
         <v>3853</v>
       </c>
       <c r="B3853">
-        <v>62.99444747610153</v>
+        <v>62.99444747610152</v>
       </c>
     </row>
     <row r="3854" spans="1:2">
@@ -31199,7 +31199,7 @@
         <v>3857</v>
       </c>
       <c r="B3857">
-        <v>82.80136055298989</v>
+        <v>82.80136055298988</v>
       </c>
     </row>
     <row r="3858" spans="1:2">
@@ -31215,7 +31215,7 @@
         <v>3859</v>
       </c>
       <c r="B3859">
-        <v>71.77544193647276</v>
+        <v>71.77544193647275</v>
       </c>
     </row>
     <row r="3860" spans="1:2">
@@ -31223,7 +31223,7 @@
         <v>3860</v>
       </c>
       <c r="B3860">
-        <v>60.07252922064792</v>
+        <v>60.07252922064791</v>
       </c>
     </row>
     <row r="3861" spans="1:2">
@@ -31455,7 +31455,7 @@
         <v>3889</v>
       </c>
       <c r="B3889">
-        <v>33.40628848389077</v>
+        <v>33.40628848389076</v>
       </c>
     </row>
     <row r="3890" spans="1:2">
@@ -31503,7 +31503,7 @@
         <v>3895</v>
       </c>
       <c r="B3895">
-        <v>38.84304932209739</v>
+        <v>38.84304932209738</v>
       </c>
     </row>
     <row r="3896" spans="1:2">
@@ -31575,7 +31575,7 @@
         <v>3904</v>
       </c>
       <c r="B3904">
-        <v>91.10171850995653</v>
+        <v>91.1017185099565</v>
       </c>
     </row>
     <row r="3905" spans="1:2">
@@ -31703,7 +31703,7 @@
         <v>3920</v>
       </c>
       <c r="B3920">
-        <v>94.23523405532362</v>
+        <v>94.2352340553236</v>
       </c>
     </row>
     <row r="3921" spans="1:2">
@@ -31951,7 +31951,7 @@
         <v>3951</v>
       </c>
       <c r="B3951">
-        <v>141.5407096187674</v>
+        <v>141.5407096187673</v>
       </c>
     </row>
     <row r="3952" spans="1:2">
@@ -32039,7 +32039,7 @@
         <v>3962</v>
       </c>
       <c r="B3962">
-        <v>68.31808289338487</v>
+        <v>68.31808289338485</v>
       </c>
     </row>
     <row r="3963" spans="1:2">
@@ -32055,7 +32055,7 @@
         <v>3964</v>
       </c>
       <c r="B3964">
-        <v>56.4038659586852</v>
+        <v>56.40386595868519</v>
       </c>
     </row>
     <row r="3965" spans="1:2">
@@ -32063,7 +32063,7 @@
         <v>3965</v>
       </c>
       <c r="B3965">
-        <v>62.6049560657206</v>
+        <v>62.60495606572059</v>
       </c>
     </row>
     <row r="3966" spans="1:2">
@@ -32183,7 +32183,7 @@
         <v>3980</v>
       </c>
       <c r="B3980">
-        <v>137.4456279955524</v>
+        <v>137.4456279955523</v>
       </c>
     </row>
     <row r="3981" spans="1:2">
@@ -32223,7 +32223,7 @@
         <v>3985</v>
       </c>
       <c r="B3985">
-        <v>76.30983704664109</v>
+        <v>76.30983704664108</v>
       </c>
     </row>
     <row r="3986" spans="1:2">
@@ -32271,7 +32271,7 @@
         <v>3991</v>
       </c>
       <c r="B3991">
-        <v>78.8504698807963</v>
+        <v>78.85046988079628</v>
       </c>
     </row>
     <row r="3992" spans="1:2">
@@ -32335,7 +32335,7 @@
         <v>3999</v>
       </c>
       <c r="B3999">
-        <v>98.86692875032752</v>
+        <v>98.8669287503275</v>
       </c>
     </row>
     <row r="4000" spans="1:2">
@@ -32391,7 +32391,7 @@
         <v>4006</v>
       </c>
       <c r="B4006">
-        <v>88.0933442980978</v>
+        <v>88.09334429809779</v>
       </c>
     </row>
     <row r="4007" spans="1:2">
@@ -32439,7 +32439,7 @@
         <v>4012</v>
       </c>
       <c r="B4012">
-        <v>43.87976819253127</v>
+        <v>43.87976819253126</v>
       </c>
     </row>
     <row r="4013" spans="1:2">
@@ -32591,7 +32591,7 @@
         <v>4031</v>
       </c>
       <c r="B4031">
-        <v>62.34031291780941</v>
+        <v>62.3403129178094</v>
       </c>
     </row>
     <row r="4032" spans="1:2">
@@ -32607,7 +32607,7 @@
         <v>4033</v>
       </c>
       <c r="B4033">
-        <v>42.48328469330996</v>
+        <v>42.48328469330995</v>
       </c>
     </row>
     <row r="4034" spans="1:2">
@@ -32639,7 +32639,7 @@
         <v>4037</v>
       </c>
       <c r="B4037">
-        <v>47.89718599050099</v>
+        <v>47.89718599050098</v>
       </c>
     </row>
     <row r="4038" spans="1:2">
@@ -32663,7 +32663,7 @@
         <v>4040</v>
       </c>
       <c r="B4040">
-        <v>77.42057628316759</v>
+        <v>77.42057628316758</v>
       </c>
     </row>
     <row r="4041" spans="1:2">
@@ -33087,7 +33087,7 @@
         <v>4093</v>
       </c>
       <c r="B4093">
-        <v>112.0990861458873</v>
+        <v>112.0990861458872</v>
       </c>
     </row>
     <row r="4094" spans="1:2">
@@ -33159,7 +33159,7 @@
         <v>4102</v>
       </c>
       <c r="B4102">
-        <v>87.6748388548894</v>
+        <v>87.67483885488939</v>
       </c>
     </row>
     <row r="4103" spans="1:2">
@@ -33175,7 +33175,7 @@
         <v>4104</v>
       </c>
       <c r="B4104">
-        <v>54.15190809761142</v>
+        <v>54.15190809761141</v>
       </c>
     </row>
     <row r="4105" spans="1:2">
@@ -33199,7 +33199,7 @@
         <v>4107</v>
       </c>
       <c r="B4107">
-        <v>42.17262939232893</v>
+        <v>42.17262939232892</v>
       </c>
     </row>
     <row r="4108" spans="1:2">
@@ -33263,7 +33263,7 @@
         <v>4115</v>
       </c>
       <c r="B4115">
-        <v>73.7319841905759</v>
+        <v>73.73198419057589</v>
       </c>
     </row>
     <row r="4116" spans="1:2">
@@ -33335,7 +33335,7 @@
         <v>4124</v>
       </c>
       <c r="B4124">
-        <v>98.18407323024658</v>
+        <v>98.18407323024655</v>
       </c>
     </row>
     <row r="4125" spans="1:2">
@@ -33391,7 +33391,7 @@
         <v>4131</v>
       </c>
       <c r="B4131">
-        <v>45.02333138538784</v>
+        <v>45.02333138538783</v>
       </c>
     </row>
     <row r="4132" spans="1:2">
@@ -33463,7 +33463,7 @@
         <v>4140</v>
       </c>
       <c r="B4140">
-        <v>96.40102903103096</v>
+        <v>96.40102903103094</v>
       </c>
     </row>
     <row r="4141" spans="1:2">
@@ -33503,7 +33503,7 @@
         <v>4145</v>
       </c>
       <c r="B4145">
-        <v>132.9238349400465</v>
+        <v>132.9238349400464</v>
       </c>
     </row>
     <row r="4146" spans="1:2">
@@ -33567,7 +33567,7 @@
         <v>4153</v>
       </c>
       <c r="B4153">
-        <v>53.67771915705736</v>
+        <v>53.67771915705735</v>
       </c>
     </row>
     <row r="4154" spans="1:2">
@@ -33655,7 +33655,7 @@
         <v>4164</v>
       </c>
       <c r="B4164">
-        <v>113.5820256015137</v>
+        <v>113.5820256015136</v>
       </c>
     </row>
     <row r="4165" spans="1:2">
@@ -33975,7 +33975,7 @@
         <v>4204</v>
       </c>
       <c r="B4204">
-        <v>54.03995496084279</v>
+        <v>54.03995496084278</v>
       </c>
     </row>
     <row r="4205" spans="1:2">
@@ -33983,7 +33983,7 @@
         <v>4205</v>
       </c>
       <c r="B4205">
-        <v>56.63802971857561</v>
+        <v>56.6380297185756</v>
       </c>
     </row>
     <row r="4206" spans="1:2">
@@ -34183,7 +34183,7 @@
         <v>4230</v>
       </c>
       <c r="B4230">
-        <v>32.42772428580054</v>
+        <v>32.42772428580053</v>
       </c>
     </row>
     <row r="4231" spans="1:2">
@@ -34199,7 +34199,7 @@
         <v>4232</v>
       </c>
       <c r="B4232">
-        <v>78.40148504956711</v>
+        <v>78.4014850495671</v>
       </c>
     </row>
     <row r="4233" spans="1:2">
@@ -34367,7 +34367,7 @@
         <v>4253</v>
       </c>
       <c r="B4253">
-        <v>47.46168242705023</v>
+        <v>47.46168242705022</v>
       </c>
     </row>
     <row r="4254" spans="1:2">
@@ -34415,7 +34415,7 @@
         <v>4259</v>
       </c>
       <c r="B4259">
-        <v>77.38745925579886</v>
+        <v>77.38745925579884</v>
       </c>
     </row>
     <row r="4260" spans="1:2">
@@ -34575,7 +34575,7 @@
         <v>4279</v>
       </c>
       <c r="B4279">
-        <v>65.38795864884874</v>
+        <v>65.38795864884872</v>
       </c>
     </row>
     <row r="4280" spans="1:2">
@@ -34615,7 +34615,7 @@
         <v>4284</v>
       </c>
       <c r="B4284">
-        <v>88.24632738027903</v>
+        <v>88.24632738027901</v>
       </c>
     </row>
     <row r="4285" spans="1:2">
@@ -34671,7 +34671,7 @@
         <v>4291</v>
       </c>
       <c r="B4291">
-        <v>118.5633540456406</v>
+        <v>118.5633540456405</v>
       </c>
     </row>
     <row r="4292" spans="1:2">
@@ -34687,7 +34687,7 @@
         <v>4293</v>
       </c>
       <c r="B4293">
-        <v>105.286942923243</v>
+        <v>105.2869429232429</v>
       </c>
     </row>
     <row r="4294" spans="1:2">
@@ -34711,7 +34711,7 @@
         <v>4296</v>
       </c>
       <c r="B4296">
-        <v>67.81605220415798</v>
+        <v>67.81605220415797</v>
       </c>
     </row>
     <row r="4297" spans="1:2">
@@ -34719,7 +34719,7 @@
         <v>4297</v>
       </c>
       <c r="B4297">
-        <v>63.41529748761922</v>
+        <v>63.41529748761921</v>
       </c>
     </row>
     <row r="4298" spans="1:2">
@@ -34767,7 +34767,7 @@
         <v>4303</v>
       </c>
       <c r="B4303">
-        <v>67.51067218187286</v>
+        <v>67.51067218187285</v>
       </c>
     </row>
     <row r="4304" spans="1:2">
@@ -34863,7 +34863,7 @@
         <v>4315</v>
       </c>
       <c r="B4315">
-        <v>90.8698993183754</v>
+        <v>90.86989931837536</v>
       </c>
     </row>
     <row r="4316" spans="1:2">
@@ -34991,7 +34991,7 @@
         <v>4331</v>
       </c>
       <c r="B4331">
-        <v>95.59889359821486</v>
+        <v>95.59889359821484</v>
       </c>
     </row>
     <row r="4332" spans="1:2">
@@ -35063,7 +35063,7 @@
         <v>4340</v>
       </c>
       <c r="B4340">
-        <v>77.53311556201355</v>
+        <v>77.53311556201353</v>
       </c>
     </row>
     <row r="4341" spans="1:2">
@@ -35119,7 +35119,7 @@
         <v>4347</v>
       </c>
       <c r="B4347">
-        <v>39.28089745385744</v>
+        <v>39.28089745385743</v>
       </c>
     </row>
     <row r="4348" spans="1:2">
@@ -35159,7 +35159,7 @@
         <v>4352</v>
       </c>
       <c r="B4352">
-        <v>60.98222172465273</v>
+        <v>60.98222172465272</v>
       </c>
     </row>
     <row r="4353" spans="1:2">
@@ -35175,7 +35175,7 @@
         <v>4354</v>
       </c>
       <c r="B4354">
-        <v>86.42430473292144</v>
+        <v>86.42430473292143</v>
       </c>
     </row>
     <row r="4355" spans="1:2">
@@ -35191,7 +35191,7 @@
         <v>4356</v>
       </c>
       <c r="B4356">
-        <v>80.32227263695357</v>
+        <v>80.32227263695356</v>
       </c>
     </row>
     <row r="4357" spans="1:2">
@@ -35319,7 +35319,7 @@
         <v>4372</v>
       </c>
       <c r="B4372">
-        <v>46.00951543048326</v>
+        <v>46.00951543048325</v>
       </c>
     </row>
     <row r="4373" spans="1:2">
@@ -35367,7 +35367,7 @@
         <v>4378</v>
       </c>
       <c r="B4378">
-        <v>75.22225042216884</v>
+        <v>75.22225042216883</v>
       </c>
     </row>
     <row r="4379" spans="1:2">
@@ -35447,7 +35447,7 @@
         <v>4388</v>
       </c>
       <c r="B4388">
-        <v>111.8010328995687</v>
+        <v>111.8010328995686</v>
       </c>
     </row>
     <row r="4389" spans="1:2">
@@ -35487,7 +35487,7 @@
         <v>4393</v>
       </c>
       <c r="B4393">
-        <v>61.73365586778042</v>
+        <v>61.73365586778041</v>
       </c>
     </row>
     <row r="4394" spans="1:2">
@@ -35519,7 +35519,7 @@
         <v>4397</v>
       </c>
       <c r="B4397">
-        <v>49.35697283407315</v>
+        <v>49.35697283407314</v>
       </c>
     </row>
     <row r="4398" spans="1:2">
@@ -35567,7 +35567,7 @@
         <v>4403</v>
       </c>
       <c r="B4403">
-        <v>109.8723323941384</v>
+        <v>109.8723323941383</v>
       </c>
     </row>
     <row r="4404" spans="1:2">
@@ -35679,7 +35679,7 @@
         <v>4417</v>
       </c>
       <c r="B4417">
-        <v>59.25222338343481</v>
+        <v>59.2522233834348</v>
       </c>
     </row>
     <row r="4418" spans="1:2">
@@ -35719,7 +35719,7 @@
         <v>4422</v>
       </c>
       <c r="B4422">
-        <v>41.98945999316559</v>
+        <v>41.98945999316558</v>
       </c>
     </row>
     <row r="4423" spans="1:2">
@@ -35735,7 +35735,7 @@
         <v>4424</v>
       </c>
       <c r="B4424">
-        <v>57.51958740286894</v>
+        <v>57.51958740286893</v>
       </c>
     </row>
     <row r="4425" spans="1:2">
@@ -35767,7 +35767,7 @@
         <v>4428</v>
       </c>
       <c r="B4428">
-        <v>62.89275182568604</v>
+        <v>62.89275182568603</v>
       </c>
     </row>
     <row r="4429" spans="1:2">
@@ -35775,7 +35775,7 @@
         <v>4429</v>
       </c>
       <c r="B4429">
-        <v>58.709455819834</v>
+        <v>58.70945581983399</v>
       </c>
     </row>
     <row r="4430" spans="1:2">
@@ -35783,7 +35783,7 @@
         <v>4430</v>
       </c>
       <c r="B4430">
-        <v>56.27374241751956</v>
+        <v>56.27374241751955</v>
       </c>
     </row>
     <row r="4431" spans="1:2">
@@ -35815,7 +35815,7 @@
         <v>4434</v>
       </c>
       <c r="B4434">
-        <v>63.335875236142</v>
+        <v>63.33587523614199</v>
       </c>
     </row>
     <row r="4435" spans="1:2">
@@ -35895,7 +35895,7 @@
         <v>4444</v>
       </c>
       <c r="B4444">
-        <v>29.23078816766712</v>
+        <v>29.23078816766711</v>
       </c>
     </row>
     <row r="4445" spans="1:2">
@@ -35959,7 +35959,7 @@
         <v>4452</v>
       </c>
       <c r="B4452">
-        <v>91.77724725407091</v>
+        <v>91.7772472540709</v>
       </c>
     </row>
     <row r="4453" spans="1:2">
@@ -35991,7 +35991,7 @@
         <v>4456</v>
       </c>
       <c r="B4456">
-        <v>142.2009986688714</v>
+        <v>142.2009986688713</v>
       </c>
     </row>
     <row r="4457" spans="1:2">
@@ -36071,7 +36071,7 @@
         <v>4466</v>
       </c>
       <c r="B4466">
-        <v>53.35680636972319</v>
+        <v>53.35680636972318</v>
       </c>
     </row>
     <row r="4467" spans="1:2">
@@ -36103,7 +36103,7 @@
         <v>4470</v>
       </c>
       <c r="B4470">
-        <v>46.22345728870605</v>
+        <v>46.22345728870604</v>
       </c>
     </row>
     <row r="4471" spans="1:2">
@@ -36239,7 +36239,7 @@
         <v>4487</v>
       </c>
       <c r="B4487">
-        <v>83.13780610537312</v>
+        <v>83.1378061053731</v>
       </c>
     </row>
     <row r="4488" spans="1:2">
@@ -36263,7 +36263,7 @@
         <v>4490</v>
       </c>
       <c r="B4490">
-        <v>59.77945818198657</v>
+        <v>59.77945818198656</v>
       </c>
     </row>
     <row r="4491" spans="1:2">
@@ -36351,7 +36351,7 @@
         <v>4501</v>
       </c>
       <c r="B4501">
-        <v>142.9052483747746</v>
+        <v>142.9052483747745</v>
       </c>
     </row>
     <row r="4502" spans="1:2">
@@ -36367,7 +36367,7 @@
         <v>4503</v>
       </c>
       <c r="B4503">
-        <v>148.2156955953182</v>
+        <v>148.2156955953181</v>
       </c>
     </row>
     <row r="4504" spans="1:2">
@@ -36447,7 +36447,7 @@
         <v>4513</v>
       </c>
       <c r="B4513">
-        <v>72.28479940166618</v>
+        <v>72.28479940166616</v>
       </c>
     </row>
     <row r="4514" spans="1:2">
@@ -36527,7 +36527,7 @@
         <v>4523</v>
       </c>
       <c r="B4523">
-        <v>155.771653114085</v>
+        <v>155.7716531140849</v>
       </c>
     </row>
     <row r="4524" spans="1:2">
@@ -36679,7 +36679,7 @@
         <v>4542</v>
       </c>
       <c r="B4542">
-        <v>62.69375659043499</v>
+        <v>62.69375659043498</v>
       </c>
     </row>
     <row r="4543" spans="1:2">
@@ -36687,7 +36687,7 @@
         <v>4543</v>
       </c>
       <c r="B4543">
-        <v>75.35735617099172</v>
+        <v>75.35735617099171</v>
       </c>
     </row>
     <row r="4544" spans="1:2">
@@ -36775,7 +36775,7 @@
         <v>4554</v>
       </c>
       <c r="B4554">
-        <v>107.4506864016797</v>
+        <v>107.4506864016796</v>
       </c>
     </row>
     <row r="4555" spans="1:2">
@@ -36943,7 +36943,7 @@
         <v>4575</v>
       </c>
       <c r="B4575">
-        <v>80.59775941329524</v>
+        <v>80.59775941329522</v>
       </c>
     </row>
     <row r="4576" spans="1:2">
@@ -36959,7 +36959,7 @@
         <v>4577</v>
       </c>
       <c r="B4577">
-        <v>78.70745121392956</v>
+        <v>78.70745121392955</v>
       </c>
     </row>
     <row r="4578" spans="1:2">
@@ -36967,7 +36967,7 @@
         <v>4578</v>
       </c>
       <c r="B4578">
-        <v>85.58846613065928</v>
+        <v>85.58846613065927</v>
       </c>
     </row>
     <row r="4579" spans="1:2">
@@ -37239,7 +37239,7 @@
         <v>4612</v>
       </c>
       <c r="B4612">
-        <v>39.35768206598671</v>
+        <v>39.3576820659867</v>
       </c>
     </row>
     <row r="4613" spans="1:2">
@@ -37335,7 +37335,7 @@
         <v>4624</v>
       </c>
       <c r="B4624">
-        <v>86.91842250410447</v>
+        <v>86.91842250410446</v>
       </c>
     </row>
     <row r="4625" spans="1:2">
@@ -37343,7 +37343,7 @@
         <v>4625</v>
       </c>
       <c r="B4625">
-        <v>81.95555753541325</v>
+        <v>81.95555753541323</v>
       </c>
     </row>
     <row r="4626" spans="1:2">
@@ -37399,7 +37399,7 @@
         <v>4632</v>
       </c>
       <c r="B4632">
-        <v>61.68500607536264</v>
+        <v>61.68500607536263</v>
       </c>
     </row>
     <row r="4633" spans="1:2">
@@ -37455,7 +37455,7 @@
         <v>4639</v>
       </c>
       <c r="B4639">
-        <v>68.89162291604512</v>
+        <v>68.89162291604511</v>
       </c>
     </row>
     <row r="4640" spans="1:2">
@@ -37487,7 +37487,7 @@
         <v>4643</v>
       </c>
       <c r="B4643">
-        <v>77.85373527830906</v>
+        <v>77.85373527830905</v>
       </c>
     </row>
     <row r="4644" spans="1:2">
@@ -37527,7 +37527,7 @@
         <v>4648</v>
       </c>
       <c r="B4648">
-        <v>113.0263629122118</v>
+        <v>113.0263629122117</v>
       </c>
     </row>
     <row r="4649" spans="1:2">
@@ -37535,7 +37535,7 @@
         <v>4649</v>
       </c>
       <c r="B4649">
-        <v>100.3193888179332</v>
+        <v>100.3193888179331</v>
       </c>
     </row>
     <row r="4650" spans="1:2">
@@ -37575,7 +37575,7 @@
         <v>4654</v>
       </c>
       <c r="B4654">
-        <v>87.14496641698969</v>
+        <v>87.14496641698967</v>
       </c>
     </row>
     <row r="4655" spans="1:2">
@@ -37639,7 +37639,7 @@
         <v>4662</v>
       </c>
       <c r="B4662">
-        <v>52.84481126518182</v>
+        <v>52.84481126518181</v>
       </c>
     </row>
     <row r="4663" spans="1:2">
@@ -37791,7 +37791,7 @@
         <v>4681</v>
       </c>
       <c r="B4681">
-        <v>49.59670494369813</v>
+        <v>49.59670494369812</v>
       </c>
     </row>
     <row r="4682" spans="1:2">
@@ -37807,7 +37807,7 @@
         <v>4683</v>
       </c>
       <c r="B4683">
-        <v>32.81780183825879</v>
+        <v>32.81780183825878</v>
       </c>
     </row>
     <row r="4684" spans="1:2">
@@ -37951,7 +37951,7 @@
         <v>4701</v>
       </c>
       <c r="B4701">
-        <v>77.63451814139037</v>
+        <v>77.63451814139036</v>
       </c>
     </row>
     <row r="4702" spans="1:2">
@@ -37983,7 +37983,7 @@
         <v>4705</v>
       </c>
       <c r="B4705">
-        <v>42.75613383030367</v>
+        <v>42.75613383030366</v>
       </c>
     </row>
     <row r="4706" spans="1:2">
@@ -38007,7 +38007,7 @@
         <v>4708</v>
       </c>
       <c r="B4708">
-        <v>27.37822751808102</v>
+        <v>27.37822751808101</v>
       </c>
     </row>
     <row r="4709" spans="1:2">
@@ -38391,7 +38391,7 @@
         <v>4756</v>
       </c>
       <c r="B4756">
-        <v>54.77878704930804</v>
+        <v>54.77878704930803</v>
       </c>
     </row>
     <row r="4757" spans="1:2">
@@ -38575,7 +38575,7 @@
         <v>4779</v>
       </c>
       <c r="B4779">
-        <v>66.51657521873358</v>
+        <v>66.51657521873356</v>
       </c>
     </row>
     <row r="4780" spans="1:2">
@@ -38679,7 +38679,7 @@
         <v>4792</v>
       </c>
       <c r="B4792">
-        <v>157.9353965925217</v>
+        <v>157.9353965925216</v>
       </c>
     </row>
     <row r="4793" spans="1:2">
@@ -38711,7 +38711,7 @@
         <v>4796</v>
       </c>
       <c r="B4796">
-        <v>149.2238599683132</v>
+        <v>149.2238599683131</v>
       </c>
     </row>
     <row r="4797" spans="1:2">
@@ -38887,7 +38887,7 @@
         <v>4818</v>
       </c>
       <c r="B4818">
-        <v>139.0636732000017</v>
+        <v>139.0636732000016</v>
       </c>
     </row>
     <row r="4819" spans="1:2">
@@ -38943,7 +38943,7 @@
         <v>4825</v>
       </c>
       <c r="B4825">
-        <v>78.30008247019029</v>
+        <v>78.30008247019028</v>
       </c>
     </row>
     <row r="4826" spans="1:2">
@@ -38967,7 +38967,7 @@
         <v>4828</v>
       </c>
       <c r="B4828">
-        <v>61.21931619492976</v>
+        <v>61.21931619492975</v>
       </c>
     </row>
     <row r="4829" spans="1:2">
@@ -38999,7 +38999,7 @@
         <v>4832</v>
       </c>
       <c r="B4832">
-        <v>94.21999436131324</v>
+        <v>94.2199943613132</v>
       </c>
     </row>
     <row r="4833" spans="1:2">
@@ -39119,7 +39119,7 @@
         <v>4847</v>
       </c>
       <c r="B4847">
-        <v>108.2097403918126</v>
+        <v>108.2097403918125</v>
       </c>
     </row>
     <row r="4848" spans="1:2">
@@ -39127,7 +39127,7 @@
         <v>4848</v>
       </c>
       <c r="B4848">
-        <v>94.48756821961103</v>
+        <v>94.48756821961102</v>
       </c>
     </row>
     <row r="4849" spans="1:2">
@@ -39143,7 +39143,7 @@
         <v>4850</v>
       </c>
       <c r="B4850">
-        <v>76.46018248947436</v>
+        <v>76.46018248947435</v>
       </c>
     </row>
     <row r="4851" spans="1:2">
@@ -39319,7 +39319,7 @@
         <v>4872</v>
       </c>
       <c r="B4872">
-        <v>74.30757571050678</v>
+        <v>74.30757571050677</v>
       </c>
     </row>
     <row r="4873" spans="1:2">
@@ -39343,7 +39343,7 @@
         <v>4875</v>
       </c>
       <c r="B4875">
-        <v>61.53729827187732</v>
+        <v>61.53729827187731</v>
       </c>
     </row>
     <row r="4876" spans="1:2">
@@ -39511,7 +39511,7 @@
         <v>4896</v>
       </c>
       <c r="B4896">
-        <v>91.64155536317072</v>
+        <v>91.6415553631707</v>
       </c>
     </row>
     <row r="4897" spans="1:2">
@@ -39551,7 +39551,7 @@
         <v>4901</v>
       </c>
       <c r="B4901">
-        <v>64.10166986016409</v>
+        <v>64.10166986016408</v>
       </c>
     </row>
     <row r="4902" spans="1:2">
@@ -39703,7 +39703,7 @@
         <v>4920</v>
       </c>
       <c r="B4920">
-        <v>81.35681340342812</v>
+        <v>81.35681340342811</v>
       </c>
     </row>
     <row r="4921" spans="1:2">
@@ -39735,7 +39735,7 @@
         <v>4924</v>
       </c>
       <c r="B4924">
-        <v>59.84862294711065</v>
+        <v>59.84862294711064</v>
       </c>
     </row>
     <row r="4925" spans="1:2">
@@ -39759,7 +39759,7 @@
         <v>4927</v>
       </c>
       <c r="B4927">
-        <v>68.87315944060946</v>
+        <v>68.87315944060944</v>
       </c>
     </row>
     <row r="4928" spans="1:2">
@@ -39767,7 +39767,7 @@
         <v>4928</v>
       </c>
       <c r="B4928">
-        <v>81.43359801555739</v>
+        <v>81.43359801555738</v>
       </c>
     </row>
     <row r="4929" spans="1:2">
@@ -39807,7 +39807,7 @@
         <v>4933</v>
       </c>
       <c r="B4933">
-        <v>89.85587352460713</v>
+        <v>89.85587352460712</v>
       </c>
     </row>
     <row r="4934" spans="1:2">
@@ -39879,7 +39879,7 @@
         <v>4942</v>
       </c>
       <c r="B4942">
-        <v>99.81735812870626</v>
+        <v>99.81735812870625</v>
       </c>
     </row>
     <row r="4943" spans="1:2">
@@ -39887,7 +39887,7 @@
         <v>4943</v>
       </c>
       <c r="B4943">
-        <v>80.03008081140821</v>
+        <v>80.0300808114082</v>
       </c>
     </row>
     <row r="4944" spans="1:2">
@@ -39911,7 +39911,7 @@
         <v>4946</v>
       </c>
       <c r="B4946">
-        <v>59.21177958009955</v>
+        <v>59.21177958009954</v>
       </c>
     </row>
     <row r="4947" spans="1:2">
@@ -39959,7 +39959,7 @@
         <v>4952</v>
       </c>
       <c r="B4952">
-        <v>99.37423471825031</v>
+        <v>99.37423471825028</v>
       </c>
     </row>
     <row r="4953" spans="1:2">
@@ -39967,7 +39967,7 @@
         <v>4953</v>
       </c>
       <c r="B4953">
-        <v>91.04603501261086</v>
+        <v>91.04603501261084</v>
       </c>
     </row>
     <row r="4954" spans="1:2">
@@ -40007,7 +40007,7 @@
         <v>4958</v>
       </c>
       <c r="B4958">
-        <v>131.6076529054184</v>
+        <v>131.6076529054183</v>
       </c>
     </row>
     <row r="4959" spans="1:2">
@@ -40191,7 +40191,7 @@
         <v>4981</v>
       </c>
       <c r="B4981">
-        <v>72.36099787171813</v>
+        <v>72.36099787171811</v>
       </c>
     </row>
     <row r="4982" spans="1:2">
@@ -40263,7 +40263,7 @@
         <v>4990</v>
       </c>
       <c r="B4990">
-        <v>66.98812651993968</v>
+        <v>66.98812651993967</v>
       </c>
     </row>
     <row r="4991" spans="1:2">
@@ -40295,7 +40295,7 @@
         <v>4994</v>
       </c>
       <c r="B4994">
-        <v>29.00471316844376</v>
+        <v>29.00471316844375</v>
       </c>
     </row>
     <row r="4995" spans="1:2">
@@ -40583,7 +40583,7 @@
         <v>5030</v>
       </c>
       <c r="B5030">
-        <v>67.39871904510423</v>
+        <v>67.39871904510422</v>
       </c>
     </row>
     <row r="5031" spans="1:2">
@@ -40655,7 +40655,7 @@
         <v>5039</v>
       </c>
       <c r="B5039">
-        <v>47.89454835115304</v>
+        <v>47.89454835115303</v>
       </c>
     </row>
     <row r="5040" spans="1:2">
@@ -40687,7 +40687,7 @@
         <v>5043</v>
       </c>
       <c r="B5043">
-        <v>27.48610696741227</v>
+        <v>27.48610696741226</v>
       </c>
     </row>
     <row r="5044" spans="1:2">
@@ -40775,7 +40775,7 @@
         <v>5054</v>
       </c>
       <c r="B5054">
-        <v>64.88915174104713</v>
+        <v>64.88915174104712</v>
       </c>
     </row>
     <row r="5055" spans="1:2">
@@ -40815,7 +40815,7 @@
         <v>5059</v>
       </c>
       <c r="B5059">
-        <v>82.82187552569619</v>
+        <v>82.82187552569617</v>
       </c>
     </row>
     <row r="5060" spans="1:2">
@@ -41095,7 +41095,7 @@
         <v>5094</v>
       </c>
       <c r="B5094">
-        <v>58.80353162324429</v>
+        <v>58.80353162324428</v>
       </c>
     </row>
     <row r="5095" spans="1:2">
@@ -41119,7 +41119,7 @@
         <v>5097</v>
       </c>
       <c r="B5097">
-        <v>95.37176354325231</v>
+        <v>95.3717635432523</v>
       </c>
     </row>
     <row r="5098" spans="1:2">
@@ -41135,7 +41135,7 @@
         <v>5099</v>
       </c>
       <c r="B5099">
-        <v>105.0199552070225</v>
+        <v>105.0199552070224</v>
       </c>
     </row>
     <row r="5100" spans="1:2">
@@ -41159,7 +41159,7 @@
         <v>5102</v>
       </c>
       <c r="B5102">
-        <v>99.3636841608585</v>
+        <v>99.36368416085848</v>
       </c>
     </row>
     <row r="5103" spans="1:2">
@@ -41175,7 +41175,7 @@
         <v>5104</v>
       </c>
       <c r="B5104">
-        <v>126.0987965917011</v>
+        <v>126.098796591701</v>
       </c>
     </row>
     <row r="5105" spans="1:2">
@@ -41223,7 +41223,7 @@
         <v>5110</v>
       </c>
       <c r="B5110">
-        <v>97.42970837673228</v>
+        <v>97.42970837673226</v>
       </c>
     </row>
     <row r="5111" spans="1:2">
@@ -41255,7 +41255,7 @@
         <v>5114</v>
       </c>
       <c r="B5114">
-        <v>57.59637201499821</v>
+        <v>57.5963720149982</v>
       </c>
     </row>
     <row r="5115" spans="1:2">
@@ -41279,7 +41279,7 @@
         <v>5117</v>
       </c>
       <c r="B5117">
-        <v>57.4281492388066</v>
+        <v>57.42814923880659</v>
       </c>
     </row>
     <row r="5118" spans="1:2">
@@ -41439,7 +41439,7 @@
         <v>5137</v>
       </c>
       <c r="B5137">
-        <v>62.82944848133519</v>
+        <v>62.82944848133518</v>
       </c>
     </row>
     <row r="5138" spans="1:2">
@@ -41455,7 +41455,7 @@
         <v>5139</v>
       </c>
       <c r="B5139">
-        <v>52.62295648891518</v>
+        <v>52.62295648891517</v>
       </c>
     </row>
     <row r="5140" spans="1:2">
@@ -41479,7 +41479,7 @@
         <v>5142</v>
       </c>
       <c r="B5142">
-        <v>58.27395225638324</v>
+        <v>58.27395225638323</v>
       </c>
     </row>
     <row r="5143" spans="1:2">
@@ -41487,7 +41487,7 @@
         <v>5143</v>
       </c>
       <c r="B5143">
-        <v>65.98406514148591</v>
+        <v>65.9840651414859</v>
       </c>
     </row>
     <row r="5144" spans="1:2">
@@ -41511,7 +41511,7 @@
         <v>5146</v>
       </c>
       <c r="B5146">
-        <v>80.79177244088905</v>
+        <v>80.79177244088903</v>
       </c>
     </row>
     <row r="5147" spans="1:2">
@@ -41519,7 +41519,7 @@
         <v>5147</v>
       </c>
       <c r="B5147">
-        <v>83.43849699103966</v>
+        <v>83.43849699103964</v>
       </c>
     </row>
     <row r="5148" spans="1:2">
@@ -41527,7 +41527,7 @@
         <v>5148</v>
       </c>
       <c r="B5148">
-        <v>85.50171710321553</v>
+        <v>85.50171710321551</v>
       </c>
     </row>
     <row r="5149" spans="1:2">
@@ -41607,7 +41607,7 @@
         <v>5158</v>
       </c>
       <c r="B5158">
-        <v>92.57410740819113</v>
+        <v>92.5741074081911</v>
       </c>
     </row>
     <row r="5159" spans="1:2">
@@ -41655,7 +41655,7 @@
         <v>5164</v>
       </c>
       <c r="B5164">
-        <v>42.44518545828398</v>
+        <v>42.44518545828397</v>
       </c>
     </row>
     <row r="5165" spans="1:2">
@@ -41807,7 +41807,7 @@
         <v>5183</v>
       </c>
       <c r="B5183">
-        <v>95.16251082164813</v>
+        <v>95.1625108216481</v>
       </c>
     </row>
     <row r="5184" spans="1:2">
@@ -41823,7 +41823,7 @@
         <v>5185</v>
       </c>
       <c r="B5185">
-        <v>76.27144474057646</v>
+        <v>76.27144474057644</v>
       </c>
     </row>
     <row r="5186" spans="1:2">
@@ -41911,7 +41911,7 @@
         <v>5196</v>
       </c>
       <c r="B5196">
-        <v>79.96589825394138</v>
+        <v>79.96589825394136</v>
       </c>
     </row>
     <row r="5197" spans="1:2">
@@ -41919,7 +41919,7 @@
         <v>5197</v>
       </c>
       <c r="B5197">
-        <v>71.6834176303331</v>
+        <v>71.68341763033308</v>
       </c>
     </row>
     <row r="5198" spans="1:2">
@@ -41951,7 +41951,7 @@
         <v>5201</v>
       </c>
       <c r="B5201">
-        <v>63.12750172765378</v>
+        <v>63.12750172765377</v>
       </c>
     </row>
     <row r="5202" spans="1:2">
@@ -42127,7 +42127,7 @@
         <v>5223</v>
       </c>
       <c r="B5223">
-        <v>74.08366943696952</v>
+        <v>74.0836694369695</v>
       </c>
     </row>
     <row r="5224" spans="1:2">
@@ -42151,7 +42151,7 @@
         <v>5226</v>
       </c>
       <c r="B5226">
-        <v>88.75304720612449</v>
+        <v>88.75304720612448</v>
       </c>
     </row>
     <row r="5227" spans="1:2">
@@ -42159,7 +42159,7 @@
         <v>5227</v>
       </c>
       <c r="B5227">
-        <v>78.65645685320249</v>
+        <v>78.65645685320247</v>
       </c>
     </row>
     <row r="5228" spans="1:2">
@@ -42247,7 +42247,7 @@
         <v>5238</v>
       </c>
       <c r="B5238">
-        <v>7.871829484236002</v>
+        <v>7.871829484236001</v>
       </c>
     </row>
     <row r="5239" spans="1:2">
@@ -42255,7 +42255,7 @@
         <v>5239</v>
       </c>
       <c r="B5239">
-        <v>28.79991512662721</v>
+        <v>28.7999151266272</v>
       </c>
     </row>
     <row r="5240" spans="1:2">
@@ -42287,7 +42287,7 @@
         <v>5243</v>
       </c>
       <c r="B5243">
-        <v>70.42497059032128</v>
+        <v>70.42497059032127</v>
       </c>
     </row>
     <row r="5244" spans="1:2">
@@ -42303,7 +42303,7 @@
         <v>5245</v>
       </c>
       <c r="B5245">
-        <v>63.82002859201054</v>
+        <v>63.82002859201053</v>
       </c>
     </row>
     <row r="5246" spans="1:2">
@@ -42311,7 +42311,7 @@
         <v>5246</v>
       </c>
       <c r="B5246">
-        <v>74.51155315341508</v>
+        <v>74.51155315341506</v>
       </c>
     </row>
     <row r="5247" spans="1:2">
@@ -42447,7 +42447,7 @@
         <v>5263</v>
       </c>
       <c r="B5263">
-        <v>54.3734698028394</v>
+        <v>54.37346980283939</v>
       </c>
     </row>
     <row r="5264" spans="1:2">
@@ -42503,7 +42503,7 @@
         <v>5270</v>
       </c>
       <c r="B5270">
-        <v>84.00617559292668</v>
+        <v>84.00617559292667</v>
       </c>
     </row>
     <row r="5271" spans="1:2">
@@ -42511,7 +42511,7 @@
         <v>5271</v>
       </c>
       <c r="B5271">
-        <v>97.98800870538214</v>
+        <v>97.98800870538211</v>
       </c>
     </row>
     <row r="5272" spans="1:2">
@@ -42551,7 +42551,7 @@
         <v>5276</v>
       </c>
       <c r="B5276">
-        <v>81.42832273686149</v>
+        <v>81.42832273686147</v>
       </c>
     </row>
     <row r="5277" spans="1:2">
@@ -42671,7 +42671,7 @@
         <v>5291</v>
       </c>
       <c r="B5291">
-        <v>94.43129858018806</v>
+        <v>94.43129858018804</v>
       </c>
     </row>
     <row r="5292" spans="1:2">
@@ -42799,7 +42799,7 @@
         <v>5307</v>
       </c>
       <c r="B5307">
-        <v>38.05322287290506</v>
+        <v>38.05322287290505</v>
       </c>
     </row>
     <row r="5308" spans="1:2">
@@ -42831,7 +42831,7 @@
         <v>5311</v>
       </c>
       <c r="B5311">
-        <v>47.49245488610967</v>
+        <v>47.49245488610966</v>
       </c>
     </row>
     <row r="5312" spans="1:2">
@@ -42855,7 +42855,7 @@
         <v>5314</v>
       </c>
       <c r="B5314">
-        <v>91.08442731867549</v>
+        <v>91.08442731867548</v>
       </c>
     </row>
     <row r="5315" spans="1:2">
@@ -43223,7 +43223,7 @@
         <v>5360</v>
       </c>
       <c r="B5360">
-        <v>66.9318568805167</v>
+        <v>66.93185688051669</v>
       </c>
     </row>
     <row r="5361" spans="1:2">
@@ -43271,7 +43271,7 @@
         <v>5366</v>
       </c>
       <c r="B5366">
-        <v>134.3379027015875</v>
+        <v>134.3379027015874</v>
       </c>
     </row>
     <row r="5367" spans="1:2">
@@ -43343,7 +43343,7 @@
         <v>5375</v>
       </c>
       <c r="B5375">
-        <v>71.17933544383558</v>
+        <v>71.17933544383557</v>
       </c>
     </row>
     <row r="5376" spans="1:2">
@@ -43351,7 +43351,7 @@
         <v>5376</v>
       </c>
       <c r="B5376">
-        <v>67.71406348270384</v>
+        <v>67.71406348270382</v>
       </c>
     </row>
     <row r="5377" spans="1:2">
@@ -43543,7 +43543,7 @@
         <v>5400</v>
       </c>
       <c r="B5400">
-        <v>78.02987097254453</v>
+        <v>78.02987097254451</v>
       </c>
     </row>
     <row r="5401" spans="1:2">
@@ -43591,7 +43591,7 @@
         <v>5406</v>
       </c>
       <c r="B5406">
-        <v>67.60738562463111</v>
+        <v>67.60738562463109</v>
       </c>
     </row>
     <row r="5407" spans="1:2">
@@ -43607,7 +43607,7 @@
         <v>5408</v>
       </c>
       <c r="B5408">
-        <v>116.9142433110932</v>
+        <v>116.9142433110931</v>
       </c>
     </row>
     <row r="5409" spans="1:2">
@@ -43775,7 +43775,7 @@
         <v>5429</v>
       </c>
       <c r="B5429">
-        <v>23.4858631323081</v>
+        <v>23.48586313230809</v>
       </c>
     </row>
     <row r="5430" spans="1:2">
@@ -43791,7 +43791,7 @@
         <v>5431</v>
       </c>
       <c r="B5431">
-        <v>33.85966938069987</v>
+        <v>33.85966938069986</v>
       </c>
     </row>
     <row r="5432" spans="1:2">
@@ -43815,7 +43815,7 @@
         <v>5434</v>
       </c>
       <c r="B5434">
-        <v>55.5683204274617</v>
+        <v>55.56832042746169</v>
       </c>
     </row>
     <row r="5435" spans="1:2">
@@ -43863,7 +43863,7 @@
         <v>5440</v>
       </c>
       <c r="B5440">
-        <v>74.86528989707932</v>
+        <v>74.86528989707931</v>
       </c>
     </row>
     <row r="5441" spans="1:2">
@@ -43879,7 +43879,7 @@
         <v>5442</v>
       </c>
       <c r="B5442">
-        <v>77.9967539451758</v>
+        <v>77.99675394517578</v>
       </c>
     </row>
     <row r="5443" spans="1:2">
@@ -44087,7 +44087,7 @@
         <v>5468</v>
       </c>
       <c r="B5468">
-        <v>63.50175344402432</v>
+        <v>63.50175344402431</v>
       </c>
     </row>
     <row r="5469" spans="1:2">
@@ -44095,7 +44095,7 @@
         <v>5469</v>
       </c>
       <c r="B5469">
-        <v>61.73131129947113</v>
+        <v>61.73131129947112</v>
       </c>
     </row>
     <row r="5470" spans="1:2">
@@ -44111,7 +44111,7 @@
         <v>5471</v>
       </c>
       <c r="B5471">
-        <v>43.73440495735524</v>
+        <v>43.73440495735523</v>
       </c>
     </row>
     <row r="5472" spans="1:2">
@@ -44119,7 +44119,7 @@
         <v>5472</v>
       </c>
       <c r="B5472">
-        <v>35.71686055269682</v>
+        <v>35.71686055269681</v>
       </c>
     </row>
     <row r="5473" spans="1:2">
@@ -44135,7 +44135,7 @@
         <v>5474</v>
       </c>
       <c r="B5474">
-        <v>27.82102855039445</v>
+        <v>27.82102855039444</v>
       </c>
     </row>
     <row r="5475" spans="1:2">
@@ -44335,7 +44335,7 @@
         <v>5499</v>
       </c>
       <c r="B5499">
-        <v>45.64259049007926</v>
+        <v>45.64259049007925</v>
       </c>
     </row>
     <row r="5500" spans="1:2">
@@ -44431,7 +44431,7 @@
         <v>5511</v>
       </c>
       <c r="B5511">
-        <v>99.99876910163763</v>
+        <v>99.99876910163762</v>
       </c>
     </row>
     <row r="5512" spans="1:2">
@@ -44439,7 +44439,7 @@
         <v>5512</v>
       </c>
       <c r="B5512">
-        <v>92.15618810706005</v>
+        <v>92.15618810706002</v>
       </c>
     </row>
     <row r="5513" spans="1:2">
@@ -44463,7 +44463,7 @@
         <v>5515</v>
       </c>
       <c r="B5515">
-        <v>94.98959890883792</v>
+        <v>94.98959890883791</v>
       </c>
     </row>
     <row r="5516" spans="1:2">
@@ -44479,7 +44479,7 @@
         <v>5517</v>
       </c>
       <c r="B5517">
-        <v>75.35940766826235</v>
+        <v>75.35940766826234</v>
       </c>
     </row>
     <row r="5518" spans="1:2">
@@ -44631,7 +44631,7 @@
         <v>5536</v>
       </c>
       <c r="B5536">
-        <v>82.96694568983355</v>
+        <v>82.96694568983354</v>
       </c>
     </row>
     <row r="5537" spans="1:2">
@@ -44711,7 +44711,7 @@
         <v>5546</v>
       </c>
       <c r="B5546">
-        <v>41.18175621061492</v>
+        <v>41.18175621061491</v>
       </c>
     </row>
     <row r="5547" spans="1:2">
@@ -44863,7 +44863,7 @@
         <v>5565</v>
       </c>
       <c r="B5565">
-        <v>111.6108297954775</v>
+        <v>111.6108297954774</v>
       </c>
     </row>
     <row r="5566" spans="1:2">
@@ -44943,7 +44943,7 @@
         <v>5575</v>
       </c>
       <c r="B5575">
-        <v>57.56325498762948</v>
+        <v>57.56325498762947</v>
       </c>
     </row>
     <row r="5576" spans="1:2">
@@ -44967,7 +44967,7 @@
         <v>5578</v>
       </c>
       <c r="B5578">
-        <v>61.89894793358542</v>
+        <v>61.89894793358541</v>
       </c>
     </row>
     <row r="5579" spans="1:2">
@@ -44975,7 +44975,7 @@
         <v>5579</v>
       </c>
       <c r="B5579">
-        <v>67.47227987580823</v>
+        <v>67.47227987580821</v>
       </c>
     </row>
     <row r="5580" spans="1:2">
@@ -45031,7 +45031,7 @@
         <v>5586</v>
       </c>
       <c r="B5586">
-        <v>83.3775382149981</v>
+        <v>83.37753821499808</v>
       </c>
     </row>
     <row r="5587" spans="1:2">
@@ -45151,7 +45151,7 @@
         <v>5601</v>
       </c>
       <c r="B5601">
-        <v>78.43255057966522</v>
+        <v>78.4325505796652</v>
       </c>
     </row>
     <row r="5602" spans="1:2">
@@ -45239,7 +45239,7 @@
         <v>5612</v>
       </c>
       <c r="B5612">
-        <v>64.7514083528763</v>
+        <v>64.75140835287628</v>
       </c>
     </row>
     <row r="5613" spans="1:2">
@@ -45255,7 +45255,7 @@
         <v>5614</v>
       </c>
       <c r="B5614">
-        <v>54.5698273987425</v>
+        <v>54.56982739874249</v>
       </c>
     </row>
     <row r="5615" spans="1:2">
@@ -45311,7 +45311,7 @@
         <v>5621</v>
       </c>
       <c r="B5621">
-        <v>6.678766592949533</v>
+        <v>6.678766592949532</v>
       </c>
     </row>
     <row r="5622" spans="1:2">
@@ -45335,7 +45335,7 @@
         <v>5624</v>
       </c>
       <c r="B5624">
-        <v>55.87370044974682</v>
+        <v>55.87370044974681</v>
       </c>
     </row>
     <row r="5625" spans="1:2">
@@ -45343,7 +45343,7 @@
         <v>5625</v>
       </c>
       <c r="B5625">
-        <v>73.79294296661746</v>
+        <v>73.79294296661745</v>
       </c>
     </row>
     <row r="5626" spans="1:2">
@@ -45383,7 +45383,7 @@
         <v>5630</v>
       </c>
       <c r="B5630">
-        <v>77.122523036849</v>
+        <v>77.12252303684899</v>
       </c>
     </row>
     <row r="5631" spans="1:2">
@@ -45391,7 +45391,7 @@
         <v>5631</v>
       </c>
       <c r="B5631">
-        <v>89.66186049701332</v>
+        <v>89.66186049701331</v>
       </c>
     </row>
     <row r="5632" spans="1:2">
@@ -45527,7 +45527,7 @@
         <v>5648</v>
       </c>
       <c r="B5648">
-        <v>65.43631537022786</v>
+        <v>65.43631537022785</v>
       </c>
     </row>
     <row r="5649" spans="1:2">
@@ -45543,7 +45543,7 @@
         <v>5650</v>
       </c>
       <c r="B5650">
-        <v>85.19633708093041</v>
+        <v>85.19633708093039</v>
       </c>
     </row>
     <row r="5651" spans="1:2">
@@ -45551,7 +45551,7 @@
         <v>5651</v>
       </c>
       <c r="B5651">
-        <v>80.41429694309323</v>
+        <v>80.41429694309322</v>
       </c>
     </row>
     <row r="5652" spans="1:2">
@@ -45567,7 +45567,7 @@
         <v>5653</v>
       </c>
       <c r="B5653">
-        <v>71.8138342425374</v>
+        <v>71.81383424253738</v>
       </c>
     </row>
     <row r="5654" spans="1:2">
@@ -45647,7 +45647,7 @@
         <v>5663</v>
       </c>
       <c r="B5663">
-        <v>42.74353177564123</v>
+        <v>42.74353177564122</v>
       </c>
     </row>
     <row r="5664" spans="1:2">
@@ -45743,7 +45743,7 @@
         <v>5675</v>
       </c>
       <c r="B5675">
-        <v>86.99198333480847</v>
+        <v>86.99198333480845</v>
       </c>
     </row>
     <row r="5676" spans="1:2">
@@ -45839,7 +45839,7 @@
         <v>5687</v>
       </c>
       <c r="B5687">
-        <v>61.62902950697832</v>
+        <v>61.62902950697831</v>
       </c>
     </row>
     <row r="5688" spans="1:2">
@@ -45975,7 +45975,7 @@
         <v>5704</v>
       </c>
       <c r="B5704">
-        <v>147.9812387643891</v>
+        <v>147.981238764389</v>
       </c>
     </row>
     <row r="5705" spans="1:2">
@@ -45991,7 +45991,7 @@
         <v>5706</v>
       </c>
       <c r="B5706">
-        <v>125.6908417058845</v>
+        <v>125.6908417058844</v>
       </c>
     </row>
     <row r="5707" spans="1:2">
@@ -46015,7 +46015,7 @@
         <v>5709</v>
       </c>
       <c r="B5709">
-        <v>94.16167322461962</v>
+        <v>94.16167322461961</v>
       </c>
     </row>
     <row r="5710" spans="1:2">
@@ -46087,7 +46087,7 @@
         <v>5718</v>
       </c>
       <c r="B5718">
-        <v>41.14834611220753</v>
+        <v>41.14834611220752</v>
       </c>
     </row>
     <row r="5719" spans="1:2">
@@ -46207,7 +46207,7 @@
         <v>5733</v>
       </c>
       <c r="B5733">
-        <v>95.26244804583165</v>
+        <v>95.26244804583162</v>
       </c>
     </row>
     <row r="5734" spans="1:2">
@@ -46215,7 +46215,7 @@
         <v>5734</v>
       </c>
       <c r="B5734">
-        <v>84.09614840179572</v>
+        <v>84.0961484017957</v>
       </c>
     </row>
     <row r="5735" spans="1:2">
@@ -46255,7 +46255,7 @@
         <v>5739</v>
       </c>
       <c r="B5739">
-        <v>39.34244237197632</v>
+        <v>39.34244237197631</v>
       </c>
     </row>
     <row r="5740" spans="1:2">
@@ -46431,7 +46431,7 @@
         <v>5761</v>
       </c>
       <c r="B5761">
-        <v>65.10514509654054</v>
+        <v>65.10514509654053</v>
       </c>
     </row>
     <row r="5762" spans="1:2">
@@ -46543,7 +46543,7 @@
         <v>5775</v>
       </c>
       <c r="B5775">
-        <v>98.47685119786928</v>
+        <v>98.47685119786924</v>
       </c>
     </row>
     <row r="5776" spans="1:2">
@@ -46663,7 +46663,7 @@
         <v>5790</v>
       </c>
       <c r="B5790">
-        <v>7.477180023574635</v>
+        <v>7.477180023574634</v>
       </c>
     </row>
     <row r="5791" spans="1:2">
@@ -46711,7 +46711,7 @@
         <v>5796</v>
       </c>
       <c r="B5796">
-        <v>78.30740924615682</v>
+        <v>78.30740924615681</v>
       </c>
     </row>
     <row r="5797" spans="1:2">
@@ -46807,7 +46807,7 @@
         <v>5808</v>
       </c>
       <c r="B5808">
-        <v>36.16027703419143</v>
+        <v>36.16027703419142</v>
       </c>
     </row>
     <row r="5809" spans="1:2">
@@ -46815,7 +46815,7 @@
         <v>5809</v>
       </c>
       <c r="B5809">
-        <v>30.32288808613476</v>
+        <v>30.32288808613475</v>
       </c>
     </row>
     <row r="5810" spans="1:2">
@@ -46863,7 +46863,7 @@
         <v>5815</v>
       </c>
       <c r="B5815">
-        <v>29.33435947273004</v>
+        <v>29.33435947273003</v>
       </c>
     </row>
     <row r="5816" spans="1:2">
@@ -47079,7 +47079,7 @@
         <v>5842</v>
       </c>
       <c r="B5842">
-        <v>73.18950969801375</v>
+        <v>73.18950969801374</v>
       </c>
     </row>
     <row r="5843" spans="1:2">
@@ -47087,7 +47087,7 @@
         <v>5843</v>
       </c>
       <c r="B5843">
-        <v>86.18515876537379</v>
+        <v>86.18515876537377</v>
       </c>
     </row>
     <row r="5844" spans="1:2">
@@ -47191,7 +47191,7 @@
         <v>5856</v>
       </c>
       <c r="B5856">
-        <v>60.13641870707609</v>
+        <v>60.13641870707608</v>
       </c>
     </row>
     <row r="5857" spans="1:2">
@@ -47231,7 +47231,7 @@
         <v>5861</v>
       </c>
       <c r="B5861">
-        <v>36.95743025935029</v>
+        <v>36.95743025935028</v>
       </c>
     </row>
     <row r="5862" spans="1:2">
@@ -47415,7 +47415,7 @@
         <v>5884</v>
       </c>
       <c r="B5884">
-        <v>43.47474401710129</v>
+        <v>43.47474401710128</v>
       </c>
     </row>
     <row r="5885" spans="1:2">
@@ -47431,7 +47431,7 @@
         <v>5886</v>
       </c>
       <c r="B5886">
-        <v>45.73197715687097</v>
+        <v>45.73197715687096</v>
       </c>
     </row>
     <row r="5887" spans="1:2">
@@ -47503,7 +47503,7 @@
         <v>5895</v>
       </c>
       <c r="B5895">
-        <v>69.2049158563741</v>
+        <v>69.20491585637409</v>
       </c>
     </row>
     <row r="5896" spans="1:2">
@@ -47615,7 +47615,7 @@
         <v>5909</v>
       </c>
       <c r="B5909">
-        <v>3.484937027825924</v>
+        <v>3.484937027825923</v>
       </c>
     </row>
     <row r="5910" spans="1:2">
@@ -47671,7 +47671,7 @@
         <v>5916</v>
       </c>
       <c r="B5916">
-        <v>53.9124690590251</v>
+        <v>53.91246905902509</v>
       </c>
     </row>
     <row r="5917" spans="1:2">
@@ -47679,7 +47679,7 @@
         <v>5917</v>
       </c>
       <c r="B5917">
-        <v>50.92109296740875</v>
+        <v>50.92109296740874</v>
       </c>
     </row>
     <row r="5918" spans="1:2">
@@ -47695,7 +47695,7 @@
         <v>5919</v>
       </c>
       <c r="B5919">
-        <v>66.68216035557724</v>
+        <v>66.68216035557722</v>
       </c>
     </row>
     <row r="5920" spans="1:2">
@@ -47863,7 +47863,7 @@
         <v>5940</v>
       </c>
       <c r="B5940">
-        <v>60.13378106772814</v>
+        <v>60.13378106772813</v>
       </c>
     </row>
     <row r="5941" spans="1:2">
@@ -48063,7 +48063,7 @@
         <v>5965</v>
       </c>
       <c r="B5965">
-        <v>51.49990826876491</v>
+        <v>51.4999082687649</v>
       </c>
     </row>
     <row r="5966" spans="1:2">
@@ -48071,7 +48071,7 @@
         <v>5966</v>
       </c>
       <c r="B5966">
-        <v>66.26951633314206</v>
+        <v>66.26951633314205</v>
       </c>
     </row>
     <row r="5967" spans="1:2">
@@ -48215,7 +48215,7 @@
         <v>5984</v>
       </c>
       <c r="B5984">
-        <v>41.25531704131892</v>
+        <v>41.25531704131891</v>
       </c>
     </row>
     <row r="5985" spans="1:2">
@@ -48495,7 +48495,7 @@
         <v>6019</v>
       </c>
       <c r="B6019">
-        <v>82.15484584170297</v>
+        <v>82.15484584170295</v>
       </c>
     </row>
     <row r="6020" spans="1:2">
@@ -48583,7 +48583,7 @@
         <v>6030</v>
       </c>
       <c r="B6030">
-        <v>30.62094133245334</v>
+        <v>30.62094133245333</v>
       </c>
     </row>
     <row r="6031" spans="1:2">
@@ -48783,7 +48783,7 @@
         <v>6055</v>
       </c>
       <c r="B6055">
-        <v>40.98305404640253</v>
+        <v>40.98305404640252</v>
       </c>
     </row>
     <row r="6056" spans="1:2">
@@ -48879,7 +48879,7 @@
         <v>6067</v>
       </c>
       <c r="B6067">
-        <v>78.15706380332355</v>
+        <v>78.15706380332354</v>
       </c>
     </row>
     <row r="6068" spans="1:2">
@@ -48903,7 +48903,7 @@
         <v>6070</v>
       </c>
       <c r="B6070">
-        <v>72.52658300856179</v>
+        <v>72.52658300856177</v>
       </c>
     </row>
     <row r="6071" spans="1:2">
@@ -48911,7 +48911,7 @@
         <v>6071</v>
       </c>
       <c r="B6071">
-        <v>60.77033136370058</v>
+        <v>60.77033136370057</v>
       </c>
     </row>
     <row r="6072" spans="1:2">
@@ -48927,7 +48927,7 @@
         <v>6073</v>
       </c>
       <c r="B6073">
-        <v>34.80247891207342</v>
+        <v>34.80247891207341</v>
       </c>
     </row>
     <row r="6074" spans="1:2">
@@ -48943,7 +48943,7 @@
         <v>6075</v>
       </c>
       <c r="B6075">
-        <v>24.38383279476646</v>
+        <v>24.38383279476645</v>
       </c>
     </row>
     <row r="6076" spans="1:2">
@@ -49015,7 +49015,7 @@
         <v>6084</v>
       </c>
       <c r="B6084">
-        <v>78.71272649262546</v>
+        <v>78.71272649262545</v>
       </c>
     </row>
     <row r="6085" spans="1:2">
@@ -49167,7 +49167,7 @@
         <v>6103</v>
       </c>
       <c r="B6103">
-        <v>32.98573154341174</v>
+        <v>32.98573154341173</v>
       </c>
     </row>
     <row r="6104" spans="1:2">
@@ -49175,7 +49175,7 @@
         <v>6104</v>
       </c>
       <c r="B6104">
-        <v>62.03170911409901</v>
+        <v>62.031709114099</v>
       </c>
     </row>
     <row r="6105" spans="1:2">
@@ -49239,7 +49239,7 @@
         <v>6112</v>
       </c>
       <c r="B6112">
-        <v>87.49196252676472</v>
+        <v>87.49196252676471</v>
       </c>
     </row>
     <row r="6113" spans="1:2">
@@ -49279,7 +49279,7 @@
         <v>6117</v>
       </c>
       <c r="B6117">
-        <v>78.24908810946322</v>
+        <v>78.2490881094632</v>
       </c>
     </row>
     <row r="6118" spans="1:2">
@@ -49367,7 +49367,7 @@
         <v>6128</v>
       </c>
       <c r="B6128">
-        <v>59.2674630774452</v>
+        <v>59.26746307744519</v>
       </c>
     </row>
     <row r="6129" spans="1:2">
@@ -49455,7 +49455,7 @@
         <v>6139</v>
       </c>
       <c r="B6139">
-        <v>72.11188748885598</v>
+        <v>72.11188748885597</v>
       </c>
     </row>
     <row r="6140" spans="1:2">
@@ -49535,7 +49535,7 @@
         <v>6149</v>
       </c>
       <c r="B6149">
-        <v>8.864402477974247</v>
+        <v>8.864402477974245</v>
       </c>
     </row>
     <row r="6150" spans="1:2">
@@ -49655,7 +49655,7 @@
         <v>6164</v>
       </c>
       <c r="B6164">
-        <v>72.35836023237017</v>
+        <v>72.35836023237016</v>
       </c>
     </row>
     <row r="6165" spans="1:2">
@@ -49775,7 +49775,7 @@
         <v>6179</v>
       </c>
       <c r="B6179">
-        <v>63.56271222006588</v>
+        <v>63.56271222006587</v>
       </c>
     </row>
     <row r="6180" spans="1:2">
@@ -49839,7 +49839,7 @@
         <v>6187</v>
       </c>
       <c r="B6187">
-        <v>63.87102295273761</v>
+        <v>63.8710229527376</v>
       </c>
     </row>
     <row r="6188" spans="1:2">
@@ -49967,7 +49967,7 @@
         <v>6203</v>
       </c>
       <c r="B6203">
-        <v>91.5574439750749</v>
+        <v>91.55744397507488</v>
       </c>
     </row>
     <row r="6204" spans="1:2">
@@ -49999,7 +49999,7 @@
         <v>6207</v>
       </c>
       <c r="B6207">
-        <v>95.40019143400248</v>
+        <v>95.40019143400244</v>
       </c>
     </row>
     <row r="6208" spans="1:2">
@@ -50023,7 +50023,7 @@
         <v>6210</v>
       </c>
       <c r="B6210">
-        <v>83.82066162545405</v>
+        <v>83.82066162545404</v>
       </c>
     </row>
     <row r="6211" spans="1:2">
@@ -50031,7 +50031,7 @@
         <v>6211</v>
       </c>
       <c r="B6211">
-        <v>71.72913671236427</v>
+        <v>71.72913671236425</v>
       </c>
     </row>
     <row r="6212" spans="1:2">
@@ -50103,7 +50103,7 @@
         <v>6220</v>
       </c>
       <c r="B6220">
-        <v>22.56556145670374</v>
+        <v>22.56556145670373</v>
       </c>
     </row>
     <row r="6221" spans="1:2">
@@ -50199,7 +50199,7 @@
         <v>6232</v>
       </c>
       <c r="B6232">
-        <v>90.45198001724432</v>
+        <v>90.4519800172443</v>
       </c>
     </row>
     <row r="6233" spans="1:2">
@@ -50255,7 +50255,7 @@
         <v>6239</v>
       </c>
       <c r="B6239">
-        <v>56.1263276850729</v>
+        <v>56.12632768507289</v>
       </c>
     </row>
     <row r="6240" spans="1:2">
@@ -50351,7 +50351,7 @@
         <v>6251</v>
       </c>
       <c r="B6251">
-        <v>63.37397447116797</v>
+        <v>63.37397447116796</v>
       </c>
     </row>
     <row r="6252" spans="1:2">
@@ -50375,7 +50375,7 @@
         <v>6254</v>
       </c>
       <c r="B6254">
-        <v>67.3140215149311</v>
+        <v>67.31402151493108</v>
       </c>
     </row>
     <row r="6255" spans="1:2">
@@ -50431,7 +50431,7 @@
         <v>6261</v>
       </c>
       <c r="B6261">
-        <v>47.27030703880437</v>
+        <v>47.27030703880436</v>
       </c>
     </row>
     <row r="6262" spans="1:2">
@@ -50447,7 +50447,7 @@
         <v>6263</v>
       </c>
       <c r="B6263">
-        <v>32.6114798270412</v>
+        <v>32.61147982704119</v>
       </c>
     </row>
     <row r="6264" spans="1:2">
@@ -50495,7 +50495,7 @@
         <v>6269</v>
       </c>
       <c r="B6269">
-        <v>6.214864445852489</v>
+        <v>6.214864445852488</v>
       </c>
     </row>
     <row r="6270" spans="1:2">
@@ -50615,7 +50615,7 @@
         <v>6284</v>
       </c>
       <c r="B6284">
-        <v>88.17745568619361</v>
+        <v>88.1774556861936</v>
       </c>
     </row>
     <row r="6285" spans="1:2">
@@ -50647,7 +50647,7 @@
         <v>6288</v>
       </c>
       <c r="B6288">
-        <v>52.43978708975184</v>
+        <v>52.43978708975183</v>
       </c>
     </row>
     <row r="6289" spans="1:2">
@@ -50703,7 +50703,7 @@
         <v>6295</v>
       </c>
       <c r="B6295">
-        <v>46.78908439332244</v>
+        <v>46.78908439332243</v>
       </c>
     </row>
     <row r="6296" spans="1:2">
@@ -50815,7 +50815,7 @@
         <v>6309</v>
       </c>
       <c r="B6309">
-        <v>60.41893918834563</v>
+        <v>60.41893918834562</v>
       </c>
     </row>
     <row r="6310" spans="1:2">
@@ -50823,7 +50823,7 @@
         <v>6310</v>
       </c>
       <c r="B6310">
-        <v>51.47177344905342</v>
+        <v>51.47177344905341</v>
       </c>
     </row>
     <row r="6311" spans="1:2">
@@ -50935,7 +50935,7 @@
         <v>6324</v>
       </c>
       <c r="B6324">
-        <v>35.36283073799391</v>
+        <v>35.3628307379939</v>
       </c>
     </row>
     <row r="6325" spans="1:2">
@@ -50951,7 +50951,7 @@
         <v>6326</v>
       </c>
       <c r="B6326">
-        <v>52.21558774517591</v>
+        <v>52.2155877451759</v>
       </c>
     </row>
     <row r="6327" spans="1:2">
@@ -50959,7 +50959,7 @@
         <v>6327</v>
       </c>
       <c r="B6327">
-        <v>57.91464716298443</v>
+        <v>57.91464716298442</v>
       </c>
     </row>
     <row r="6328" spans="1:2">
@@ -51071,7 +51071,7 @@
         <v>6341</v>
       </c>
       <c r="B6341">
-        <v>0.8662154154194053</v>
+        <v>0.8662154154194052</v>
       </c>
     </row>
     <row r="6342" spans="1:2">
@@ -51135,7 +51135,7 @@
         <v>6349</v>
       </c>
       <c r="B6349">
-        <v>50.06767010282691</v>
+        <v>50.0676701028269</v>
       </c>
     </row>
     <row r="6350" spans="1:2">
@@ -51191,7 +51191,7 @@
         <v>6356</v>
       </c>
       <c r="B6356">
-        <v>36.07118343843838</v>
+        <v>36.07118343843837</v>
       </c>
     </row>
     <row r="6357" spans="1:2">
@@ -51247,7 +51247,7 @@
         <v>6363</v>
       </c>
       <c r="B6363">
-        <v>6.255689241538014</v>
+        <v>6.255689241538013</v>
       </c>
     </row>
     <row r="6364" spans="1:2">
@@ -51503,7 +51503,7 @@
         <v>6395</v>
       </c>
       <c r="B6395">
-        <v>21.11866973883268</v>
+        <v>21.11866973883267</v>
       </c>
     </row>
     <row r="6396" spans="1:2">
@@ -51527,7 +51527,7 @@
         <v>6398</v>
       </c>
       <c r="B6398">
-        <v>31.86151103910682</v>
+        <v>31.86151103910681</v>
       </c>
     </row>
     <row r="6399" spans="1:2">
@@ -51551,7 +51551,7 @@
         <v>6401</v>
       </c>
       <c r="B6401">
-        <v>25.37581964642738</v>
+        <v>25.37581964642737</v>
       </c>
     </row>
     <row r="6402" spans="1:2">
@@ -51567,7 +51567,7 @@
         <v>6403</v>
       </c>
       <c r="B6403">
-        <v>25.08351059246656</v>
+        <v>25.08351059246655</v>
       </c>
     </row>
     <row r="6404" spans="1:2">
@@ -51871,7 +51871,7 @@
         <v>6441</v>
       </c>
       <c r="B6441">
-        <v>62.67617232811531</v>
+        <v>62.6761723281153</v>
       </c>
     </row>
     <row r="6442" spans="1:2">
@@ -51879,7 +51879,7 @@
         <v>6442</v>
       </c>
       <c r="B6442">
-        <v>67.69618614934549</v>
+        <v>67.69618614934548</v>
       </c>
     </row>
     <row r="6443" spans="1:2">
@@ -51919,7 +51919,7 @@
         <v>6447</v>
       </c>
       <c r="B6447">
-        <v>74.73018414825644</v>
+        <v>74.73018414825643</v>
       </c>
     </row>
     <row r="6448" spans="1:2">
@@ -51927,7 +51927,7 @@
         <v>6448</v>
       </c>
       <c r="B6448">
-        <v>86.46533467833403</v>
+        <v>86.46533467833402</v>
       </c>
     </row>
     <row r="6449" spans="1:2">
@@ -52047,7 +52047,7 @@
         <v>6463</v>
       </c>
       <c r="B6463">
-        <v>9.013341179821944</v>
+        <v>9.013341179821939</v>
       </c>
     </row>
     <row r="6464" spans="1:2">
@@ -52063,7 +52063,7 @@
         <v>6465</v>
       </c>
       <c r="B6465">
-        <v>37.39088232553042</v>
+        <v>37.39088232553041</v>
       </c>
     </row>
     <row r="6466" spans="1:2">
@@ -52095,7 +52095,7 @@
         <v>6469</v>
       </c>
       <c r="B6469">
-        <v>52.06758687065193</v>
+        <v>52.06758687065192</v>
       </c>
     </row>
     <row r="6470" spans="1:2">
@@ -52399,7 +52399,7 @@
         <v>6507</v>
       </c>
       <c r="B6507">
-        <v>9.238683501448651</v>
+        <v>9.23868350144865</v>
       </c>
     </row>
     <row r="6508" spans="1:2">
@@ -52463,7 +52463,7 @@
         <v>6515</v>
       </c>
       <c r="B6515">
-        <v>62.01617634904996</v>
+        <v>62.01617634904995</v>
       </c>
     </row>
     <row r="6516" spans="1:2">
@@ -52503,7 +52503,7 @@
         <v>6520</v>
       </c>
       <c r="B6520">
-        <v>75.52030366848743</v>
+        <v>75.52030366848741</v>
       </c>
     </row>
     <row r="6521" spans="1:2">
@@ -52639,7 +52639,7 @@
         <v>6537</v>
       </c>
       <c r="B6537">
-        <v>59.69798443323872</v>
+        <v>59.69798443323871</v>
       </c>
     </row>
     <row r="6538" spans="1:2">
@@ -52647,7 +52647,7 @@
         <v>6538</v>
       </c>
       <c r="B6538">
-        <v>50.51108658432153</v>
+        <v>50.51108658432152</v>
       </c>
     </row>
     <row r="6539" spans="1:2">
@@ -52655,7 +52655,7 @@
         <v>6539</v>
       </c>
       <c r="B6539">
-        <v>60.8186880850797</v>
+        <v>60.81868808507969</v>
       </c>
     </row>
     <row r="6540" spans="1:2">
@@ -52679,7 +52679,7 @@
         <v>6542</v>
       </c>
       <c r="B6542">
-        <v>59.43070364597957</v>
+        <v>59.43070364597956</v>
       </c>
     </row>
     <row r="6543" spans="1:2">
@@ -52719,7 +52719,7 @@
         <v>6547</v>
       </c>
       <c r="B6547">
-        <v>39.79816783709471</v>
+        <v>39.7981678370947</v>
       </c>
     </row>
     <row r="6548" spans="1:2">
@@ -52871,7 +52871,7 @@
         <v>6566</v>
       </c>
       <c r="B6566">
-        <v>33.85468717304263</v>
+        <v>33.85468717304262</v>
       </c>
     </row>
     <row r="6567" spans="1:2">
@@ -53015,7 +53015,7 @@
         <v>6584</v>
       </c>
       <c r="B6584">
-        <v>38.57782003210887</v>
+        <v>38.57782003210886</v>
       </c>
     </row>
     <row r="6585" spans="1:2">
@@ -53039,7 +53039,7 @@
         <v>6587</v>
       </c>
       <c r="B6587">
-        <v>62.73507960688624</v>
+        <v>62.73507960688623</v>
       </c>
     </row>
     <row r="6588" spans="1:2">
@@ -53055,7 +53055,7 @@
         <v>6589</v>
       </c>
       <c r="B6589">
-        <v>62.58707873236226</v>
+        <v>62.58707873236225</v>
       </c>
     </row>
     <row r="6590" spans="1:2">
@@ -53119,7 +53119,7 @@
         <v>6597</v>
       </c>
       <c r="B6597">
-        <v>58.73495300019754</v>
+        <v>58.73495300019753</v>
       </c>
     </row>
     <row r="6598" spans="1:2">
@@ -53135,7 +53135,7 @@
         <v>6599</v>
       </c>
       <c r="B6599">
-        <v>39.56634864551359</v>
+        <v>39.56634864551358</v>
       </c>
     </row>
     <row r="6600" spans="1:2">
@@ -53207,7 +53207,7 @@
         <v>6608</v>
       </c>
       <c r="B6608">
-        <v>41.64773916208646</v>
+        <v>41.64773916208645</v>
       </c>
     </row>
     <row r="6609" spans="1:2">
@@ -53231,7 +53231,7 @@
         <v>6611</v>
       </c>
       <c r="B6611">
-        <v>79.26311390323147</v>
+        <v>79.26311390323146</v>
       </c>
     </row>
     <row r="6612" spans="1:2">
@@ -53335,7 +53335,7 @@
         <v>6624</v>
       </c>
       <c r="B6624">
-        <v>37.14880564759615</v>
+        <v>37.14880564759614</v>
       </c>
     </row>
     <row r="6625" spans="1:2">
@@ -53391,7 +53391,7 @@
         <v>6631</v>
       </c>
       <c r="B6631">
-        <v>8.354165799664845</v>
+        <v>8.354165799664843</v>
       </c>
     </row>
     <row r="6632" spans="1:2">
@@ -53407,7 +53407,7 @@
         <v>6633</v>
       </c>
       <c r="B6633">
-        <v>80.97523491109105</v>
+        <v>80.97523491109104</v>
       </c>
     </row>
     <row r="6634" spans="1:2">
@@ -53415,7 +53415,7 @@
         <v>6634</v>
       </c>
       <c r="B6634">
-        <v>86.91314722540857</v>
+        <v>86.91314722540855</v>
       </c>
     </row>
     <row r="6635" spans="1:2">
@@ -53487,7 +53487,7 @@
         <v>6643</v>
       </c>
       <c r="B6643">
-        <v>68.46110156025161</v>
+        <v>68.46110156025159</v>
       </c>
     </row>
     <row r="6644" spans="1:2">
@@ -53511,7 +53511,7 @@
         <v>6646</v>
       </c>
       <c r="B6646">
-        <v>46.65163407619027</v>
+        <v>46.65163407619026</v>
       </c>
     </row>
     <row r="6647" spans="1:2">
@@ -53559,7 +53559,7 @@
         <v>6652</v>
       </c>
       <c r="B6652">
-        <v>6.515496717311296</v>
+        <v>6.515496717311295</v>
       </c>
     </row>
     <row r="6653" spans="1:2">
@@ -53623,7 +53623,7 @@
         <v>6660</v>
       </c>
       <c r="B6660">
-        <v>72.67692845139506</v>
+        <v>72.67692845139504</v>
       </c>
     </row>
     <row r="6661" spans="1:2">
@@ -53775,7 +53775,7 @@
         <v>6679</v>
       </c>
       <c r="B6679">
-        <v>24.80333467950631</v>
+        <v>24.8033346795063</v>
       </c>
     </row>
     <row r="6680" spans="1:2">
@@ -53903,7 +53903,7 @@
         <v>6695</v>
       </c>
       <c r="B6695">
-        <v>4.618711647991204</v>
+        <v>4.618711647991203</v>
       </c>
     </row>
     <row r="6696" spans="1:2">
@@ -53943,7 +53943,7 @@
         <v>6700</v>
       </c>
       <c r="B6700">
-        <v>0.8547299614142672</v>
+        <v>0.854729961414267</v>
       </c>
     </row>
     <row r="6701" spans="1:2">
@@ -53959,7 +53959,7 @@
         <v>6702</v>
       </c>
       <c r="B6702">
-        <v>0.7225490615572272</v>
+        <v>0.7225490615572271</v>
       </c>
     </row>
     <row r="6703" spans="1:2">
@@ -54039,7 +54039,7 @@
         <v>6712</v>
       </c>
       <c r="B6712">
-        <v>38.69534151861207</v>
+        <v>38.69534151861206</v>
       </c>
     </row>
     <row r="6713" spans="1:2">
@@ -54047,7 +54047,7 @@
         <v>6713</v>
       </c>
       <c r="B6713">
-        <v>35.34495340463557</v>
+        <v>35.34495340463556</v>
       </c>
     </row>
     <row r="6714" spans="1:2">
@@ -54055,7 +54055,7 @@
         <v>6714</v>
       </c>
       <c r="B6714">
-        <v>17.66714280941415</v>
+        <v>17.66714280941414</v>
       </c>
     </row>
     <row r="6715" spans="1:2">
@@ -54087,7 +54087,7 @@
         <v>6718</v>
       </c>
       <c r="B6718">
-        <v>3.20610924164352</v>
+        <v>3.206109241643519</v>
       </c>
     </row>
     <row r="6719" spans="1:2">
@@ -54103,7 +54103,7 @@
         <v>6720</v>
       </c>
       <c r="B6720">
-        <v>0.7177925185997536</v>
+        <v>0.7177925185997535</v>
       </c>
     </row>
     <row r="6721" spans="1:2">
@@ -54127,7 +54127,7 @@
         <v>6723</v>
       </c>
       <c r="B6723">
-        <v>0.5188500361356592</v>
+        <v>0.5188500361356591</v>
       </c>
     </row>
     <row r="6724" spans="1:2">
@@ -54239,7 +54239,7 @@
         <v>6737</v>
       </c>
       <c r="B6737">
-        <v>38.11154400959867</v>
+        <v>38.11154400959866</v>
       </c>
     </row>
     <row r="6738" spans="1:2">
@@ -54295,7 +54295,7 @@
         <v>6744</v>
       </c>
       <c r="B6744">
-        <v>0.5487608663414361</v>
+        <v>0.5487608663414359</v>
       </c>
     </row>
     <row r="6745" spans="1:2">
@@ -54303,7 +54303,7 @@
         <v>6745</v>
       </c>
       <c r="B6745">
-        <v>0.4953896994908184</v>
+        <v>0.4953896994908183</v>
       </c>
     </row>
     <row r="6746" spans="1:2">
@@ -54319,7 +54319,7 @@
         <v>6747</v>
       </c>
       <c r="B6747">
-        <v>0.446376498985095</v>
+        <v>0.4463764989850949</v>
       </c>
     </row>
     <row r="6748" spans="1:2">
@@ -54327,7 +54327,7 @@
         <v>6748</v>
       </c>
       <c r="B6748">
-        <v>0.4363270930693975</v>
+        <v>0.4363270930693974</v>
       </c>
     </row>
     <row r="6749" spans="1:2">
@@ -54343,7 +54343,7 @@
         <v>6750</v>
       </c>
       <c r="B6750">
-        <v>0.4761495858027011</v>
+        <v>0.476149585802701</v>
       </c>
     </row>
     <row r="6751" spans="1:2">
@@ -54463,7 +54463,7 @@
         <v>6765</v>
       </c>
       <c r="B6765">
-        <v>15.94154053377615</v>
+        <v>15.94154053377614</v>
       </c>
     </row>
     <row r="6766" spans="1:2">
@@ -54495,7 +54495,7 @@
         <v>6769</v>
       </c>
       <c r="B6769">
-        <v>0.9118553682701366</v>
+        <v>0.9118553682701364</v>
       </c>
     </row>
     <row r="6770" spans="1:2">
@@ -54519,7 +54519,7 @@
         <v>6772</v>
       </c>
       <c r="B6772">
-        <v>0.6118092388886512</v>
+        <v>0.6118092388886511</v>
       </c>
     </row>
     <row r="6773" spans="1:2">
@@ -54751,7 +54751,7 @@
         <v>6801</v>
       </c>
       <c r="B6801">
-        <v>59.61387304514291</v>
+        <v>59.6138730451429</v>
       </c>
     </row>
     <row r="6802" spans="1:2">
@@ -54999,7 +54999,7 @@
         <v>6832</v>
       </c>
       <c r="B6832">
-        <v>63.46892948769425</v>
+        <v>63.46892948769424</v>
       </c>
     </row>
     <row r="6833" spans="1:2">
@@ -55135,7 +55135,7 @@
         <v>6849</v>
       </c>
       <c r="B6849">
-        <v>69.88249609775913</v>
+        <v>69.88249609775912</v>
       </c>
     </row>
     <row r="6850" spans="1:2">
@@ -55159,7 +55159,7 @@
         <v>6852</v>
       </c>
       <c r="B6852">
-        <v>78.98030035092327</v>
+        <v>78.98030035092326</v>
       </c>
     </row>
     <row r="6853" spans="1:2">
@@ -55391,7 +55391,7 @@
         <v>6881</v>
       </c>
       <c r="B6881">
-        <v>54.33243985742681</v>
+        <v>54.3324398574268</v>
       </c>
     </row>
     <row r="6882" spans="1:2">
@@ -55415,7 +55415,7 @@
         <v>6884</v>
       </c>
       <c r="B6884">
-        <v>57.19105476852957</v>
+        <v>57.19105476852956</v>
       </c>
     </row>
     <row r="6885" spans="1:2">
@@ -55479,7 +55479,7 @@
         <v>6892</v>
       </c>
       <c r="B6892">
-        <v>2.592427278817822</v>
+        <v>2.592427278817821</v>
       </c>
     </row>
     <row r="6893" spans="1:2">
@@ -55519,7 +55519,7 @@
         <v>6897</v>
       </c>
       <c r="B6897">
-        <v>50.88328680342144</v>
+        <v>50.88328680342143</v>
       </c>
     </row>
     <row r="6898" spans="1:2">
@@ -55527,7 +55527,7 @@
         <v>6898</v>
       </c>
       <c r="B6898">
-        <v>56.12339697468629</v>
+        <v>56.12339697468628</v>
       </c>
     </row>
     <row r="6899" spans="1:2">
@@ -55575,7 +55575,7 @@
         <v>6904</v>
       </c>
       <c r="B6904">
-        <v>73.8843811306798</v>
+        <v>73.88438113067978</v>
       </c>
     </row>
     <row r="6905" spans="1:2">
@@ -55695,7 +55695,7 @@
         <v>6919</v>
       </c>
       <c r="B6919">
-        <v>5.868659627881842</v>
+        <v>5.868659627881841</v>
       </c>
     </row>
     <row r="6920" spans="1:2">
@@ -55751,7 +55751,7 @@
         <v>6926</v>
       </c>
       <c r="B6926">
-        <v>42.23388123940915</v>
+        <v>42.23388123940914</v>
       </c>
     </row>
     <row r="6927" spans="1:2">
@@ -55823,7 +55823,7 @@
         <v>6935</v>
       </c>
       <c r="B6935">
-        <v>7.141174077749403</v>
+        <v>7.141174077749402</v>
       </c>
     </row>
     <row r="6936" spans="1:2">
@@ -55847,7 +55847,7 @@
         <v>6938</v>
       </c>
       <c r="B6938">
-        <v>0.8553336877539095</v>
+        <v>0.8553336877539094</v>
       </c>
     </row>
     <row r="6939" spans="1:2">
@@ -55983,7 +55983,7 @@
         <v>6955</v>
       </c>
       <c r="B6955">
-        <v>20.83260309799534</v>
+        <v>20.83260309799533</v>
       </c>
     </row>
     <row r="6956" spans="1:2">
@@ -56023,7 +56023,7 @@
         <v>6960</v>
       </c>
       <c r="B6960">
-        <v>1.692359227722645</v>
+        <v>1.692359227722644</v>
       </c>
     </row>
     <row r="6961" spans="1:2">
@@ -56055,7 +56055,7 @@
         <v>6964</v>
       </c>
       <c r="B6964">
-        <v>0.6275383615336056</v>
+        <v>0.6275383615336055</v>
       </c>
     </row>
     <row r="6965" spans="1:2">
@@ -56063,7 +56063,7 @@
         <v>6965</v>
       </c>
       <c r="B6965">
-        <v>0.6793943511143441</v>
+        <v>0.679394351114344</v>
       </c>
     </row>
     <row r="6966" spans="1:2">
@@ -56111,7 +56111,7 @@
         <v>6971</v>
       </c>
       <c r="B6971">
-        <v>32.25979458064759</v>
+        <v>32.25979458064758</v>
       </c>
     </row>
     <row r="6972" spans="1:2">
@@ -56175,7 +56175,7 @@
         <v>6979</v>
       </c>
       <c r="B6979">
-        <v>17.13861849829228</v>
+        <v>17.13861849829227</v>
       </c>
     </row>
     <row r="6980" spans="1:2">
@@ -56367,7 +56367,7 @@
         <v>7003</v>
       </c>
       <c r="B7003">
-        <v>23.01771145515046</v>
+        <v>23.01771145515045</v>
       </c>
     </row>
     <row r="7004" spans="1:2">
@@ -56599,7 +56599,7 @@
         <v>7032</v>
       </c>
       <c r="B7032">
-        <v>7.386796915251476</v>
+        <v>7.386796915251475</v>
       </c>
     </row>
     <row r="7033" spans="1:2">
@@ -56607,7 +56607,7 @@
         <v>7033</v>
       </c>
       <c r="B7033">
-        <v>6.132071877430659</v>
+        <v>6.132071877430658</v>
       </c>
     </row>
     <row r="7034" spans="1:2">
@@ -56615,7 +56615,7 @@
         <v>7034</v>
       </c>
       <c r="B7034">
-        <v>4.357878423582607</v>
+        <v>4.357878423582606</v>
       </c>
     </row>
     <row r="7035" spans="1:2">
@@ -56623,7 +56623,7 @@
         <v>7035</v>
       </c>
       <c r="B7035">
-        <v>3.085070902676384</v>
+        <v>3.085070902676383</v>
       </c>
     </row>
     <row r="7036" spans="1:2">
@@ -56735,7 +56735,7 @@
         <v>7049</v>
       </c>
       <c r="B7049">
-        <v>66.02040595027992</v>
+        <v>66.02040595027991</v>
       </c>
     </row>
     <row r="7050" spans="1:2">
@@ -56887,7 +56887,7 @@
         <v>7068</v>
       </c>
       <c r="B7068">
-        <v>64.55739532528249</v>
+        <v>64.55739532528247</v>
       </c>
     </row>
     <row r="7069" spans="1:2">
@@ -56919,7 +56919,7 @@
         <v>7072</v>
       </c>
       <c r="B7072">
-        <v>89.55313114166997</v>
+        <v>89.55313114166995</v>
       </c>
     </row>
     <row r="7073" spans="1:2">
@@ -57047,7 +57047,7 @@
         <v>7088</v>
       </c>
       <c r="B7088">
-        <v>14.59145017997493</v>
+        <v>14.59145017997492</v>
       </c>
     </row>
     <row r="7089" spans="1:2">
@@ -57063,7 +57063,7 @@
         <v>7090</v>
       </c>
       <c r="B7090">
-        <v>56.45251575110298</v>
+        <v>56.45251575110297</v>
       </c>
     </row>
     <row r="7091" spans="1:2">
@@ -57087,7 +57087,7 @@
         <v>7093</v>
       </c>
       <c r="B7093">
-        <v>67.23254776618325</v>
+        <v>67.23254776618323</v>
       </c>
     </row>
     <row r="7094" spans="1:2">
@@ -57151,7 +57151,7 @@
         <v>7101</v>
       </c>
       <c r="B7101">
-        <v>64.84284651693864</v>
+        <v>64.84284651693862</v>
       </c>
     </row>
     <row r="7102" spans="1:2">
@@ -57271,7 +57271,7 @@
         <v>7116</v>
       </c>
       <c r="B7116">
-        <v>76.61580321100354</v>
+        <v>76.61580321100352</v>
       </c>
     </row>
     <row r="7117" spans="1:2">
@@ -57335,7 +57335,7 @@
         <v>7124</v>
       </c>
       <c r="B7124">
-        <v>74.68974034492118</v>
+        <v>74.68974034492116</v>
       </c>
     </row>
     <row r="7125" spans="1:2">
@@ -57359,7 +57359,7 @@
         <v>7127</v>
       </c>
       <c r="B7127">
-        <v>51.59632864048449</v>
+        <v>51.59632864048448</v>
       </c>
     </row>
     <row r="7128" spans="1:2">
@@ -57375,7 +57375,7 @@
         <v>7129</v>
       </c>
       <c r="B7129">
-        <v>43.77777947107712</v>
+        <v>43.77777947107711</v>
       </c>
     </row>
     <row r="7130" spans="1:2">
@@ -57407,7 +57407,7 @@
         <v>7133</v>
       </c>
       <c r="B7133">
-        <v>39.85678204482698</v>
+        <v>39.85678204482697</v>
       </c>
     </row>
     <row r="7134" spans="1:2">
@@ -57439,7 +57439,7 @@
         <v>7137</v>
       </c>
       <c r="B7137">
-        <v>80.70238577409734</v>
+        <v>80.70238577409732</v>
       </c>
     </row>
     <row r="7138" spans="1:2">
@@ -57479,7 +57479,7 @@
         <v>7142</v>
       </c>
       <c r="B7142">
-        <v>72.99080753380136</v>
+        <v>72.99080753380134</v>
       </c>
     </row>
     <row r="7143" spans="1:2">
@@ -57495,7 +57495,7 @@
         <v>7144</v>
       </c>
       <c r="B7144">
-        <v>78.79625173864395</v>
+        <v>78.79625173864393</v>
       </c>
     </row>
     <row r="7145" spans="1:2">
@@ -57503,7 +57503,7 @@
         <v>7145</v>
       </c>
       <c r="B7145">
-        <v>65.30384726075293</v>
+        <v>65.30384726075292</v>
       </c>
     </row>
     <row r="7146" spans="1:2">
@@ -57511,7 +57511,7 @@
         <v>7146</v>
       </c>
       <c r="B7146">
-        <v>51.00549742654322</v>
+        <v>51.00549742654321</v>
       </c>
     </row>
     <row r="7147" spans="1:2">
@@ -57551,7 +57551,7 @@
         <v>7151</v>
       </c>
       <c r="B7151">
-        <v>18.58181752107621</v>
+        <v>18.5818175210762</v>
       </c>
     </row>
     <row r="7152" spans="1:2">
@@ -57567,7 +57567,7 @@
         <v>7153</v>
       </c>
       <c r="B7153">
-        <v>8.033634004680932</v>
+        <v>8.03363400468093</v>
       </c>
     </row>
     <row r="7154" spans="1:2">
@@ -57743,7 +57743,7 @@
         <v>7175</v>
       </c>
       <c r="B7175">
-        <v>3.989048521427304</v>
+        <v>3.989048521427303</v>
       </c>
     </row>
     <row r="7176" spans="1:2">
@@ -57807,7 +57807,7 @@
         <v>7183</v>
       </c>
       <c r="B7183">
-        <v>0.5914290788601413</v>
+        <v>0.5914290788601412</v>
       </c>
     </row>
     <row r="7184" spans="1:2">
@@ -57823,7 +57823,7 @@
         <v>7185</v>
       </c>
       <c r="B7185">
-        <v>21.15899631375248</v>
+        <v>21.15899631375247</v>
       </c>
     </row>
     <row r="7186" spans="1:2">
@@ -57847,7 +57847,7 @@
         <v>7188</v>
       </c>
       <c r="B7188">
-        <v>22.28872655358424</v>
+        <v>22.28872655358423</v>
       </c>
     </row>
     <row r="7189" spans="1:2">
@@ -57911,7 +57911,7 @@
         <v>7196</v>
       </c>
       <c r="B7196">
-        <v>7.362501326146451</v>
+        <v>7.36250132614645</v>
       </c>
     </row>
     <row r="7197" spans="1:2">
@@ -57919,7 +57919,7 @@
         <v>7197</v>
       </c>
       <c r="B7197">
-        <v>7.216727791516298</v>
+        <v>7.216727791516297</v>
       </c>
     </row>
     <row r="7198" spans="1:2">
@@ -57999,7 +57999,7 @@
         <v>7207</v>
       </c>
       <c r="B7207">
-        <v>0.6512917692171077</v>
+        <v>0.6512917692171076</v>
       </c>
     </row>
     <row r="7208" spans="1:2">
@@ -58079,7 +58079,7 @@
         <v>7217</v>
       </c>
       <c r="B7217">
-        <v>13.63047024420438</v>
+        <v>13.63047024420437</v>
       </c>
     </row>
     <row r="7218" spans="1:2">
@@ -58103,7 +58103,7 @@
         <v>7220</v>
       </c>
       <c r="B7220">
-        <v>5.811393546927414</v>
+        <v>5.811393546927413</v>
       </c>
     </row>
     <row r="7221" spans="1:2">
@@ -58159,7 +58159,7 @@
         <v>7227</v>
       </c>
       <c r="B7227">
-        <v>0.4008684281017613</v>
+        <v>0.4008684281017612</v>
       </c>
     </row>
     <row r="7228" spans="1:2">
@@ -58343,7 +58343,7 @@
         <v>7250</v>
       </c>
       <c r="B7250">
-        <v>0.6838871301370225</v>
+        <v>0.6838871301370224</v>
       </c>
     </row>
     <row r="7251" spans="1:2">
@@ -58511,7 +58511,7 @@
         <v>7271</v>
       </c>
       <c r="B7271">
-        <v>3.599000276072919</v>
+        <v>3.599000276072918</v>
       </c>
     </row>
     <row r="7272" spans="1:2">
@@ -58551,7 +58551,7 @@
         <v>7276</v>
       </c>
       <c r="B7276">
-        <v>0.6041425005172705</v>
+        <v>0.6041425005172704</v>
       </c>
     </row>
     <row r="7277" spans="1:2">
@@ -58711,7 +58711,7 @@
         <v>7296</v>
       </c>
       <c r="B7296">
-        <v>1.528670260499124</v>
+        <v>1.528670260499123</v>
       </c>
     </row>
     <row r="7297" spans="1:2">
@@ -58751,7 +58751,7 @@
         <v>7301</v>
       </c>
       <c r="B7301">
-        <v>0.5733876257201489</v>
+        <v>0.5733876257201488</v>
       </c>
     </row>
     <row r="7302" spans="1:2">
@@ -58767,7 +58767,7 @@
         <v>7303</v>
       </c>
       <c r="B7303">
-        <v>0.5440277690670553</v>
+        <v>0.5440277690670552</v>
       </c>
     </row>
     <row r="7304" spans="1:2">
@@ -58831,7 +58831,7 @@
         <v>7311</v>
       </c>
       <c r="B7311">
-        <v>36.15500175549553</v>
+        <v>36.15500175549552</v>
       </c>
     </row>
     <row r="7312" spans="1:2">
@@ -58847,7 +58847,7 @@
         <v>7313</v>
       </c>
       <c r="B7313">
-        <v>27.90124209367606</v>
+        <v>27.90124209367605</v>
       </c>
     </row>
     <row r="7314" spans="1:2">
@@ -59127,7 +59127,7 @@
         <v>7348</v>
       </c>
       <c r="B7348">
-        <v>0.5536991133428797</v>
+        <v>0.5536991133428796</v>
       </c>
     </row>
     <row r="7349" spans="1:2">
@@ -59159,7 +59159,7 @@
         <v>7352</v>
       </c>
       <c r="B7352">
-        <v>0.6317908223045818</v>
+        <v>0.6317908223045817</v>
       </c>
     </row>
     <row r="7353" spans="1:2">
@@ -59391,7 +59391,7 @@
         <v>7381</v>
       </c>
       <c r="B7381">
-        <v>36.46331248816726</v>
+        <v>36.46331248816725</v>
       </c>
     </row>
     <row r="7382" spans="1:2">
@@ -59439,7 +59439,7 @@
         <v>7387</v>
       </c>
       <c r="B7387">
-        <v>5.124786717551615</v>
+        <v>5.124786717551614</v>
       </c>
     </row>
     <row r="7388" spans="1:2">
@@ -59511,7 +59511,7 @@
         <v>7396</v>
       </c>
       <c r="B7396">
-        <v>0.6801827122083431</v>
+        <v>0.680182712208343</v>
       </c>
     </row>
     <row r="7397" spans="1:2">
@@ -59527,7 +59527,7 @@
         <v>7398</v>
       </c>
       <c r="B7398">
-        <v>0.7290874764297618</v>
+        <v>0.7290874764297617</v>
       </c>
     </row>
     <row r="7399" spans="1:2">
@@ -59615,7 +59615,7 @@
         <v>7409</v>
       </c>
       <c r="B7409">
-        <v>9.427948778216148</v>
+        <v>9.427948778216146</v>
       </c>
     </row>
     <row r="7410" spans="1:2">
@@ -59711,7 +59711,7 @@
         <v>7421</v>
       </c>
       <c r="B7421">
-        <v>0.4173038519498896</v>
+        <v>0.4173038519498895</v>
       </c>
     </row>
     <row r="7422" spans="1:2">
@@ -59815,7 +59815,7 @@
         <v>7434</v>
       </c>
       <c r="B7434">
-        <v>3.809630431558828</v>
+        <v>3.809630431558827</v>
       </c>
     </row>
     <row r="7435" spans="1:2">
@@ -59879,7 +59879,7 @@
         <v>7442</v>
       </c>
       <c r="B7442">
-        <v>0.5013126651821642</v>
+        <v>0.5013126651821641</v>
       </c>
     </row>
     <row r="7443" spans="1:2">
@@ -59919,7 +59919,7 @@
         <v>7447</v>
       </c>
       <c r="B7447">
-        <v>0.5937502014863392</v>
+        <v>0.5937502014863391</v>
       </c>
     </row>
     <row r="7448" spans="1:2">
@@ -60007,7 +60007,7 @@
         <v>7458</v>
       </c>
       <c r="B7458">
-        <v>9.064892375522474</v>
+        <v>9.064892375522472</v>
       </c>
     </row>
     <row r="7459" spans="1:2">
@@ -60039,7 +60039,7 @@
         <v>7462</v>
       </c>
       <c r="B7462">
-        <v>7.742790305913412</v>
+        <v>7.742790305913411</v>
       </c>
     </row>
     <row r="7463" spans="1:2">
@@ -60079,7 +60079,7 @@
         <v>7467</v>
       </c>
       <c r="B7467">
-        <v>0.8315802800704074</v>
+        <v>0.8315802800704073</v>
       </c>
     </row>
     <row r="7468" spans="1:2">
@@ -60111,7 +60111,7 @@
         <v>7471</v>
       </c>
       <c r="B7471">
-        <v>0.6684628013722759</v>
+        <v>0.6684628013722758</v>
       </c>
     </row>
     <row r="7472" spans="1:2">
@@ -60119,7 +60119,7 @@
         <v>7472</v>
       </c>
       <c r="B7472">
-        <v>0.6038113302435831</v>
+        <v>0.603811330243583</v>
       </c>
     </row>
     <row r="7473" spans="1:2">
@@ -60431,7 +60431,7 @@
         <v>7511</v>
       </c>
       <c r="B7511">
-        <v>30.44773634860449</v>
+        <v>30.44773634860448</v>
       </c>
     </row>
     <row r="7512" spans="1:2">
@@ -60463,7 +60463,7 @@
         <v>7515</v>
       </c>
       <c r="B7515">
-        <v>10.28896218269932</v>
+        <v>10.28896218269931</v>
       </c>
     </row>
     <row r="7516" spans="1:2">
@@ -60519,7 +60519,7 @@
         <v>7522</v>
       </c>
       <c r="B7522">
-        <v>37.11803318853671</v>
+        <v>37.1180331885367</v>
       </c>
     </row>
     <row r="7523" spans="1:2">
@@ -60535,7 +60535,7 @@
         <v>7524</v>
       </c>
       <c r="B7524">
-        <v>27.36374980877115</v>
+        <v>27.36374980877114</v>
       </c>
     </row>
     <row r="7525" spans="1:2">
@@ -60663,7 +60663,7 @@
         <v>7540</v>
       </c>
       <c r="B7540">
-        <v>0.7189354956505328</v>
+        <v>0.7189354956505327</v>
       </c>
     </row>
     <row r="7541" spans="1:2">
@@ -60727,7 +60727,7 @@
         <v>7548</v>
       </c>
       <c r="B7548">
-        <v>26.74056355216167</v>
+        <v>26.74056355216166</v>
       </c>
     </row>
     <row r="7549" spans="1:2">
@@ -60807,7 +60807,7 @@
         <v>7558</v>
       </c>
       <c r="B7558">
-        <v>3.702190588785577</v>
+        <v>3.702190588785578</v>
       </c>
     </row>
     <row r="7559" spans="1:2">
@@ -60815,7 +60815,7 @@
         <v>7559</v>
       </c>
       <c r="B7559">
-        <v>2.734742575191772</v>
+        <v>2.734742575191771</v>
       </c>
     </row>
     <row r="7560" spans="1:2">
@@ -60831,7 +60831,7 @@
         <v>7561</v>
       </c>
       <c r="B7561">
-        <v>0.8172930669356668</v>
+        <v>0.8172930669356667</v>
       </c>
     </row>
     <row r="7562" spans="1:2">
@@ -60839,7 +60839,7 @@
         <v>7562</v>
       </c>
       <c r="B7562">
-        <v>0.718827059366228</v>
+        <v>0.7188270593662279</v>
       </c>
     </row>
     <row r="7563" spans="1:2">
@@ -60871,7 +60871,7 @@
         <v>7566</v>
       </c>
       <c r="B7566">
-        <v>0.5016115976415988</v>
+        <v>0.5016115976415987</v>
       </c>
     </row>
     <row r="7567" spans="1:2">
@@ -61007,7 +61007,7 @@
         <v>7583</v>
       </c>
       <c r="B7583">
-        <v>0.838816204014956</v>
+        <v>0.8388162040149559</v>
       </c>
     </row>
     <row r="7584" spans="1:2">
@@ -61207,7 +61207,7 @@
         <v>7608</v>
       </c>
       <c r="B7608">
-        <v>1.943201660423277</v>
+        <v>1.943201660423276</v>
       </c>
     </row>
     <row r="7609" spans="1:2">
@@ -61231,7 +61231,7 @@
         <v>7611</v>
       </c>
       <c r="B7611">
-        <v>0.8662652374959777</v>
+        <v>0.8662652374959776</v>
       </c>
     </row>
     <row r="7612" spans="1:2">
@@ -61255,7 +61255,7 @@
         <v>7614</v>
       </c>
       <c r="B7614">
-        <v>0.909683711873656</v>
+        <v>0.9096837118736558</v>
       </c>
     </row>
     <row r="7615" spans="1:2">
@@ -61279,7 +61279,7 @@
         <v>7617</v>
       </c>
       <c r="B7617">
-        <v>0.663905546721092</v>
+        <v>0.6639055467210919</v>
       </c>
     </row>
     <row r="7618" spans="1:2">
@@ -61311,7 +61311,7 @@
         <v>7621</v>
       </c>
       <c r="B7621">
-        <v>0.3547683537203317</v>
+        <v>0.3547683537203316</v>
       </c>
     </row>
     <row r="7622" spans="1:2">
@@ -61367,7 +61367,7 @@
         <v>7628</v>
       </c>
       <c r="B7628">
-        <v>1.518532933271828</v>
+        <v>1.518532933271827</v>
       </c>
     </row>
     <row r="7629" spans="1:2">
@@ -61399,7 +61399,7 @@
         <v>7632</v>
       </c>
       <c r="B7632">
-        <v>0.762711516695378</v>
+        <v>0.7627115166953778</v>
       </c>
     </row>
     <row r="7633" spans="1:2">
@@ -61415,7 +61415,7 @@
         <v>7634</v>
       </c>
       <c r="B7634">
-        <v>0.5531452090798098</v>
+        <v>0.5531452090798097</v>
       </c>
     </row>
     <row r="7635" spans="1:2">
@@ -61423,7 +61423,7 @@
         <v>7635</v>
       </c>
       <c r="B7635">
-        <v>0.476688836513838</v>
+        <v>0.4766888365138379</v>
       </c>
     </row>
     <row r="7636" spans="1:2">
@@ -61431,7 +61431,7 @@
         <v>7636</v>
       </c>
       <c r="B7636">
-        <v>0.4652268281917928</v>
+        <v>0.4652268281917927</v>
       </c>
     </row>
     <row r="7637" spans="1:2">
@@ -61439,7 +61439,7 @@
         <v>7637</v>
       </c>
       <c r="B7637">
-        <v>0.4556170288340873</v>
+        <v>0.4556170288340872</v>
       </c>
     </row>
     <row r="7638" spans="1:2">
@@ -61471,7 +61471,7 @@
         <v>7641</v>
       </c>
       <c r="B7641">
-        <v>6.404715864697308</v>
+        <v>6.404715864697307</v>
       </c>
     </row>
     <row r="7642" spans="1:2">
@@ -61511,7 +61511,7 @@
         <v>7646</v>
       </c>
       <c r="B7646">
-        <v>4.764221418686562</v>
+        <v>4.764221418686561</v>
       </c>
     </row>
     <row r="7647" spans="1:2">
@@ -61527,7 +61527,7 @@
         <v>7648</v>
       </c>
       <c r="B7648">
-        <v>7.140881006710742</v>
+        <v>7.140881006710741</v>
       </c>
     </row>
     <row r="7649" spans="1:2">
@@ -61567,7 +61567,7 @@
         <v>7653</v>
       </c>
       <c r="B7653">
-        <v>1.863782339656439</v>
+        <v>1.863782339656438</v>
       </c>
     </row>
     <row r="7654" spans="1:2">
@@ -61639,7 +61639,7 @@
         <v>7662</v>
       </c>
       <c r="B7662">
-        <v>0.3205405871150732</v>
+        <v>0.3205405871150731</v>
       </c>
     </row>
     <row r="7663" spans="1:2">
@@ -61695,7 +61695,7 @@
         <v>7669</v>
       </c>
       <c r="B7669">
-        <v>5.962588895772803</v>
+        <v>5.962588895772802</v>
       </c>
     </row>
     <row r="7670" spans="1:2">
@@ -61727,7 +61727,7 @@
         <v>7673</v>
       </c>
       <c r="B7673">
-        <v>0.4637057895011404</v>
+        <v>0.4637057895011403</v>
       </c>
     </row>
     <row r="7674" spans="1:2">
@@ -61831,7 +61831,7 @@
         <v>7686</v>
       </c>
       <c r="B7686">
-        <v>0.5212327036799759</v>
+        <v>0.5212327036799758</v>
       </c>
     </row>
     <row r="7687" spans="1:2">
@@ -61879,7 +61879,7 @@
         <v>7692</v>
       </c>
       <c r="B7692">
-        <v>18.67873611356152</v>
+        <v>18.67873611356151</v>
       </c>
     </row>
     <row r="7693" spans="1:2">
@@ -61927,7 +61927,7 @@
         <v>7698</v>
       </c>
       <c r="B7698">
-        <v>0.4638874935451104</v>
+        <v>0.4638874935451103</v>
       </c>
     </row>
     <row r="7699" spans="1:2">
@@ -62063,7 +62063,7 @@
         <v>7715</v>
       </c>
       <c r="B7715">
-        <v>11.60408916158824</v>
+        <v>11.60408916158823</v>
       </c>
     </row>
     <row r="7716" spans="1:2">
@@ -62327,7 +62327,7 @@
         <v>7748</v>
       </c>
       <c r="B7748">
-        <v>0.6129932458848431</v>
+        <v>0.6129932458848429</v>
       </c>
     </row>
     <row r="7749" spans="1:2">
@@ -62399,7 +62399,7 @@
         <v>7757</v>
       </c>
       <c r="B7757">
-        <v>0.2859892700831326</v>
+        <v>0.2859892700831325</v>
       </c>
     </row>
     <row r="7758" spans="1:2">
@@ -62415,7 +62415,7 @@
         <v>7759</v>
       </c>
       <c r="B7759">
-        <v>0.3533967812593966</v>
+        <v>0.3533967812593965</v>
       </c>
     </row>
     <row r="7760" spans="1:2">
@@ -62719,7 +62719,7 @@
         <v>7797</v>
       </c>
       <c r="B7797">
-        <v>0.6638557246445196</v>
+        <v>0.6638557246445195</v>
       </c>
     </row>
     <row r="7798" spans="1:2">
@@ -62727,7 +62727,7 @@
         <v>7798</v>
       </c>
       <c r="B7798">
-        <v>0.6874919039125571</v>
+        <v>0.687491903912557</v>
       </c>
     </row>
     <row r="7799" spans="1:2">
@@ -62743,7 +62743,7 @@
         <v>7800</v>
       </c>
       <c r="B7800">
-        <v>0.4327018043211567</v>
+        <v>0.4327018043211566</v>
       </c>
     </row>
     <row r="7801" spans="1:2">
@@ -62807,7 +62807,7 @@
         <v>7808</v>
       </c>
       <c r="B7808">
-        <v>0.3307922120474471</v>
+        <v>0.330792212047447</v>
       </c>
     </row>
     <row r="7809" spans="1:2">
@@ -62911,7 +62911,7 @@
         <v>7821</v>
       </c>
       <c r="B7821">
-        <v>0.6094207099235612</v>
+        <v>0.6094207099235611</v>
       </c>
     </row>
     <row r="7822" spans="1:2">
@@ -62991,7 +62991,7 @@
         <v>7831</v>
       </c>
       <c r="B7831">
-        <v>0.2933963475142594</v>
+        <v>0.2933963475142593</v>
       </c>
     </row>
     <row r="7832" spans="1:2">
@@ -63007,7 +63007,7 @@
         <v>7833</v>
       </c>
       <c r="B7833">
-        <v>0.8182543399424761</v>
+        <v>0.818254339942476</v>
       </c>
     </row>
     <row r="7834" spans="1:2">
@@ -63015,7 +63015,7 @@
         <v>7834</v>
       </c>
       <c r="B7834">
-        <v>4.090099415557735</v>
+        <v>4.090099415557734</v>
       </c>
     </row>
     <row r="7835" spans="1:2">
@@ -63023,7 +63023,7 @@
         <v>7835</v>
       </c>
       <c r="B7835">
-        <v>5.747709210226304</v>
+        <v>5.747709210226303</v>
       </c>
     </row>
     <row r="7836" spans="1:2">
@@ -63111,7 +63111,7 @@
         <v>7846</v>
       </c>
       <c r="B7846">
-        <v>0.4820051451551548</v>
+        <v>0.4820051451551547</v>
       </c>
     </row>
     <row r="7847" spans="1:2">
@@ -63271,7 +63271,7 @@
         <v>7866</v>
       </c>
       <c r="B7866">
-        <v>0.2833475277406392</v>
+        <v>0.2833475277406391</v>
       </c>
     </row>
     <row r="7867" spans="1:2">
@@ -63415,7 +63415,7 @@
         <v>7884</v>
       </c>
       <c r="B7884">
-        <v>0.4055223961957035</v>
+        <v>0.4055223961957034</v>
       </c>
     </row>
     <row r="7885" spans="1:2">
@@ -63479,7 +63479,7 @@
         <v>7892</v>
       </c>
       <c r="B7892">
-        <v>0.6686034754708333</v>
+        <v>0.6686034754708332</v>
       </c>
     </row>
     <row r="7893" spans="1:2">
@@ -63583,7 +63583,7 @@
         <v>7905</v>
       </c>
       <c r="B7905">
-        <v>0.9005838561232212</v>
+        <v>0.9005838561232211</v>
       </c>
     </row>
     <row r="7906" spans="1:2">
@@ -63639,7 +63639,7 @@
         <v>7912</v>
       </c>
       <c r="B7912">
-        <v>14.01357270594249</v>
+        <v>14.01357270594248</v>
       </c>
     </row>
     <row r="7913" spans="1:2">
@@ -63735,7 +63735,7 @@
         <v>7924</v>
       </c>
       <c r="B7924">
-        <v>0.6868383554963423</v>
+        <v>0.6868383554963422</v>
       </c>
     </row>
     <row r="7925" spans="1:2">
@@ -63751,7 +63751,7 @@
         <v>7926</v>
       </c>
       <c r="B7926">
-        <v>0.7552938887068593</v>
+        <v>0.7552938887068592</v>
       </c>
     </row>
     <row r="7927" spans="1:2">
@@ -64023,7 +64023,7 @@
         <v>7960</v>
       </c>
       <c r="B7960">
-        <v>2.010763326965877</v>
+        <v>2.010763326965876</v>
       </c>
     </row>
     <row r="7961" spans="1:2">
@@ -64103,7 +64103,7 @@
         <v>7970</v>
       </c>
       <c r="B7970">
-        <v>0.5200721423668769</v>
+        <v>0.5200721423668768</v>
       </c>
     </row>
     <row r="7971" spans="1:2">
@@ -64127,7 +64127,7 @@
         <v>7973</v>
       </c>
       <c r="B7973">
-        <v>0.3220440415434059</v>
+        <v>0.3220440415434058</v>
       </c>
     </row>
     <row r="7974" spans="1:2">
@@ -64159,7 +64159,7 @@
         <v>7977</v>
       </c>
       <c r="B7977">
-        <v>0.4695027346458618</v>
+        <v>0.4695027346458617</v>
       </c>
     </row>
     <row r="7978" spans="1:2">
@@ -64223,7 +64223,7 @@
         <v>7985</v>
       </c>
       <c r="B7985">
-        <v>0.4285870869383514</v>
+        <v>0.4285870869383513</v>
       </c>
     </row>
     <row r="7986" spans="1:2">
@@ -64335,7 +64335,7 @@
         <v>7999</v>
       </c>
       <c r="B7999">
-        <v>0.5341952357199672</v>
+        <v>0.5341952357199671</v>
       </c>
     </row>
     <row r="8000" spans="1:2">
@@ -64399,7 +64399,7 @@
         <v>8007</v>
       </c>
       <c r="B8007">
-        <v>0.2931970592079697</v>
+        <v>0.2931970592079696</v>
       </c>
     </row>
     <row r="8008" spans="1:2">
@@ -64423,7 +64423,7 @@
         <v>8010</v>
       </c>
       <c r="B8010">
-        <v>0.4176643293274431</v>
+        <v>0.417664329327443</v>
       </c>
     </row>
     <row r="8011" spans="1:2">
@@ -64439,7 +64439,7 @@
         <v>8012</v>
       </c>
       <c r="B8012">
-        <v>0.8854584598179092</v>
+        <v>0.885458459817909</v>
       </c>
     </row>
     <row r="8013" spans="1:2">
@@ -64495,7 +64495,7 @@
         <v>8019</v>
       </c>
       <c r="B8019">
-        <v>0.8540822744188256</v>
+        <v>0.8540822744188254</v>
       </c>
     </row>
     <row r="8020" spans="1:2">
@@ -64655,7 +64655,7 @@
         <v>8039</v>
       </c>
       <c r="B8039">
-        <v>2.636880293961975</v>
+        <v>2.636880293961974</v>
       </c>
     </row>
     <row r="8040" spans="1:2">
@@ -64887,7 +64887,7 @@
         <v>8068</v>
       </c>
       <c r="B8068">
-        <v>0.5645515339045093</v>
+        <v>0.5645515339045092</v>
       </c>
     </row>
     <row r="8069" spans="1:2">
@@ -64895,7 +64895,7 @@
         <v>8069</v>
       </c>
       <c r="B8069">
-        <v>0.5780943466010501</v>
+        <v>0.57809434660105</v>
       </c>
     </row>
     <row r="8070" spans="1:2">
@@ -64911,7 +64911,7 @@
         <v>8071</v>
       </c>
       <c r="B8071">
-        <v>0.6022873608425442</v>
+        <v>0.6022873608425441</v>
       </c>
     </row>
     <row r="8072" spans="1:2">
@@ -65087,7 +65087,7 @@
         <v>8093</v>
       </c>
       <c r="B8093">
-        <v>1.266711643302067</v>
+        <v>1.266711643302066</v>
       </c>
     </row>
     <row r="8094" spans="1:2">
@@ -65183,7 +65183,7 @@
         <v>8105</v>
       </c>
       <c r="B8105">
-        <v>30.43894421744465</v>
+        <v>30.43894421744464</v>
       </c>
     </row>
     <row r="8106" spans="1:2">
@@ -65223,7 +65223,7 @@
         <v>8110</v>
       </c>
       <c r="B8110">
-        <v>32.98836918275969</v>
+        <v>32.98836918275968</v>
       </c>
     </row>
     <row r="8111" spans="1:2">
@@ -65239,7 +65239,7 @@
         <v>8112</v>
       </c>
       <c r="B8112">
-        <v>14.1782493225663</v>
+        <v>14.17824932256629</v>
       </c>
     </row>
     <row r="8113" spans="1:2">
@@ -65263,7 +65263,7 @@
         <v>8115</v>
       </c>
       <c r="B8115">
-        <v>3.157488756329602</v>
+        <v>3.157488756329601</v>
       </c>
     </row>
     <row r="8116" spans="1:2">
@@ -65295,7 +65295,7 @@
         <v>8119</v>
       </c>
       <c r="B8119">
-        <v>3.148022561780841</v>
+        <v>3.14802256178084</v>
       </c>
     </row>
     <row r="8120" spans="1:2">
@@ -65303,7 +65303,7 @@
         <v>8120</v>
       </c>
       <c r="B8120">
-        <v>3.54917819950049</v>
+        <v>3.549178199500489</v>
       </c>
     </row>
     <row r="8121" spans="1:2">
@@ -65335,7 +65335,7 @@
         <v>8124</v>
       </c>
       <c r="B8124">
-        <v>27.55102220247575</v>
+        <v>27.55102220247574</v>
       </c>
     </row>
     <row r="8125" spans="1:2">
@@ -65375,7 +65375,7 @@
         <v>8129</v>
       </c>
       <c r="B8129">
-        <v>27.36644606232684</v>
+        <v>27.36644606232683</v>
       </c>
     </row>
     <row r="8130" spans="1:2">
@@ -65391,7 +65391,7 @@
         <v>8131</v>
       </c>
       <c r="B8131">
-        <v>27.15610897787959</v>
+        <v>27.15610897787958</v>
       </c>
     </row>
     <row r="8132" spans="1:2">
@@ -65447,7 +65447,7 @@
         <v>8138</v>
       </c>
       <c r="B8138">
-        <v>6.51016282440766</v>
+        <v>6.510162824407659</v>
       </c>
     </row>
     <row r="8139" spans="1:2">
@@ -65455,7 +65455,7 @@
         <v>8139</v>
       </c>
       <c r="B8139">
-        <v>3.167482478747954</v>
+        <v>3.167482478747953</v>
       </c>
     </row>
     <row r="8140" spans="1:2">
@@ -65623,7 +65623,7 @@
         <v>8160</v>
       </c>
       <c r="B8160">
-        <v>30.83371090652148</v>
+        <v>30.83371090652147</v>
       </c>
     </row>
     <row r="8161" spans="1:2">
@@ -65695,7 +65695,7 @@
         <v>8169</v>
       </c>
       <c r="B8169">
-        <v>48.4399535541018</v>
+        <v>48.43995355410179</v>
       </c>
     </row>
     <row r="8170" spans="1:2">
@@ -65711,7 +65711,7 @@
         <v>8171</v>
       </c>
       <c r="B8171">
-        <v>56.79628807945274</v>
+        <v>56.79628807945273</v>
       </c>
     </row>
     <row r="8172" spans="1:2">
@@ -65727,7 +65727,7 @@
         <v>8173</v>
       </c>
       <c r="B8173">
-        <v>39.30639463422097</v>
+        <v>39.30639463422096</v>
       </c>
     </row>
     <row r="8174" spans="1:2">
@@ -65759,7 +65759,7 @@
         <v>8177</v>
       </c>
       <c r="B8177">
-        <v>36.51958212759024</v>
+        <v>36.51958212759023</v>
       </c>
     </row>
     <row r="8178" spans="1:2">
@@ -65911,7 +65911,7 @@
         <v>8196</v>
       </c>
       <c r="B8196">
-        <v>1.176900023504298</v>
+        <v>1.176900023504297</v>
       </c>
     </row>
     <row r="8197" spans="1:2">
@@ -65983,7 +65983,7 @@
         <v>8205</v>
       </c>
       <c r="B8205">
-        <v>6.906600018404862</v>
+        <v>6.906600018404861</v>
       </c>
     </row>
     <row r="8206" spans="1:2">
@@ -65991,7 +65991,7 @@
         <v>8206</v>
       </c>
       <c r="B8206">
-        <v>7.825553567231377</v>
+        <v>7.825553567231376</v>
       </c>
     </row>
     <row r="8207" spans="1:2">
@@ -65999,7 +65999,7 @@
         <v>8207</v>
       </c>
       <c r="B8207">
-        <v>7.054102672163117</v>
+        <v>7.054102672163116</v>
       </c>
     </row>
     <row r="8208" spans="1:2">
@@ -66031,7 +66031,7 @@
         <v>8211</v>
       </c>
       <c r="B8211">
-        <v>0.727736418941533</v>
+        <v>0.7277364189415328</v>
       </c>
     </row>
     <row r="8212" spans="1:2">
@@ -66047,7 +66047,7 @@
         <v>8213</v>
       </c>
       <c r="B8213">
-        <v>0.6345925814341843</v>
+        <v>0.6345925814341842</v>
       </c>
     </row>
     <row r="8214" spans="1:2">
@@ -66055,7 +66055,7 @@
         <v>8214</v>
       </c>
       <c r="B8214">
-        <v>0.5632561599136262</v>
+        <v>0.5632561599136261</v>
       </c>
     </row>
     <row r="8215" spans="1:2">
@@ -66087,7 +66087,7 @@
         <v>8218</v>
       </c>
       <c r="B8218">
-        <v>14.31162595226108</v>
+        <v>14.31162595226107</v>
       </c>
     </row>
     <row r="8219" spans="1:2">
@@ -66159,7 +66159,7 @@
         <v>8227</v>
       </c>
       <c r="B8227">
-        <v>0.5048148640941673</v>
+        <v>0.5048148640941672</v>
       </c>
     </row>
     <row r="8228" spans="1:2">
@@ -66191,7 +66191,7 @@
         <v>8231</v>
       </c>
       <c r="B8231">
-        <v>0.6874186361528918</v>
+        <v>0.6874186361528917</v>
       </c>
     </row>
     <row r="8232" spans="1:2">
@@ -66215,7 +66215,7 @@
         <v>8234</v>
       </c>
       <c r="B8234">
-        <v>0.4621232058923691</v>
+        <v>0.462123205892369</v>
       </c>
     </row>
     <row r="8235" spans="1:2">
@@ -66271,7 +66271,7 @@
         <v>8241</v>
       </c>
       <c r="B8241">
-        <v>0.4050622746650052</v>
+        <v>0.4050622746650051</v>
       </c>
     </row>
     <row r="8242" spans="1:2">
@@ -66319,7 +66319,7 @@
         <v>8247</v>
       </c>
       <c r="B8247">
-        <v>17.92826910486141</v>
+        <v>17.9282691048614</v>
       </c>
     </row>
     <row r="8248" spans="1:2">
@@ -66423,7 +66423,7 @@
         <v>8260</v>
       </c>
       <c r="B8260">
-        <v>0.5850108231134579</v>
+        <v>0.5850108231134578</v>
       </c>
     </row>
     <row r="8261" spans="1:2">
@@ -66671,7 +66671,7 @@
         <v>8291</v>
       </c>
       <c r="B8291">
-        <v>0.3133427624055506</v>
+        <v>0.3133427624055505</v>
       </c>
     </row>
     <row r="8292" spans="1:2">
@@ -66775,7 +66775,7 @@
         <v>8304</v>
       </c>
       <c r="B8304">
-        <v>0.7652377890486387</v>
+        <v>0.7652377890486386</v>
       </c>
     </row>
     <row r="8305" spans="1:2">
@@ -66823,7 +66823,7 @@
         <v>8310</v>
       </c>
       <c r="B8310">
-        <v>0.5422165900481282</v>
+        <v>0.5422165900481281</v>
       </c>
     </row>
     <row r="8311" spans="1:2">
@@ -66831,7 +66831,7 @@
         <v>8311</v>
       </c>
       <c r="B8311">
-        <v>0.5504049948683262</v>
+        <v>0.5504049948683261</v>
       </c>
     </row>
     <row r="8312" spans="1:2">
@@ -66839,7 +66839,7 @@
         <v>8312</v>
       </c>
       <c r="B8312">
-        <v>0.4905042052763338</v>
+        <v>0.4905042052763337</v>
       </c>
     </row>
     <row r="8313" spans="1:2">
@@ -66863,7 +66863,7 @@
         <v>8315</v>
       </c>
       <c r="B8315">
-        <v>0.2894864867874784</v>
+        <v>0.2894864867874783</v>
       </c>
     </row>
     <row r="8316" spans="1:2">
@@ -67007,7 +67007,7 @@
         <v>8333</v>
       </c>
       <c r="B8333">
-        <v>0.3981047682071849</v>
+        <v>0.3981047682071848</v>
       </c>
     </row>
     <row r="8334" spans="1:2">
@@ -67015,7 +67015,7 @@
         <v>8334</v>
       </c>
       <c r="B8334">
-        <v>0.4519829479546866</v>
+        <v>0.4519829479546865</v>
       </c>
     </row>
     <row r="8335" spans="1:2">
@@ -67071,7 +67071,7 @@
         <v>8341</v>
       </c>
       <c r="B8341">
-        <v>8.524293537607756</v>
+        <v>8.524293537607754</v>
       </c>
     </row>
     <row r="8342" spans="1:2">
@@ -67159,7 +67159,7 @@
         <v>8352</v>
       </c>
       <c r="B8352">
-        <v>0.4914156562065706</v>
+        <v>0.4914156562065705</v>
       </c>
     </row>
     <row r="8353" spans="1:2">
@@ -67215,7 +67215,7 @@
         <v>8359</v>
       </c>
       <c r="B8359">
-        <v>0.2374057117200867</v>
+        <v>0.2374057117200866</v>
       </c>
     </row>
     <row r="8360" spans="1:2">
@@ -67327,7 +67327,7 @@
         <v>8373</v>
       </c>
       <c r="B8373">
-        <v>0.8617724584732992</v>
+        <v>0.8617724584732991</v>
       </c>
     </row>
     <row r="8374" spans="1:2">
@@ -67343,7 +67343,7 @@
         <v>8375</v>
       </c>
       <c r="B8375">
-        <v>0.8940630255130063</v>
+        <v>0.8940630255130062</v>
       </c>
     </row>
     <row r="8376" spans="1:2">
@@ -67351,7 +67351,7 @@
         <v>8376</v>
       </c>
       <c r="B8376">
-        <v>0.5945121861868586</v>
+        <v>0.5945121861868585</v>
       </c>
     </row>
     <row r="8377" spans="1:2">
@@ -67391,7 +67391,7 @@
         <v>8381</v>
       </c>
       <c r="B8381">
-        <v>0.3798142046843303</v>
+        <v>0.3798142046843302</v>
       </c>
     </row>
     <row r="8382" spans="1:2">
@@ -67423,7 +67423,7 @@
         <v>8385</v>
       </c>
       <c r="B8385">
-        <v>0.5725494425495774</v>
+        <v>0.5725494425495773</v>
       </c>
     </row>
     <row r="8386" spans="1:2">
@@ -67431,7 +67431,7 @@
         <v>8386</v>
       </c>
       <c r="B8386">
-        <v>0.5450476562815968</v>
+        <v>0.5450476562815967</v>
       </c>
     </row>
     <row r="8387" spans="1:2">
@@ -67511,7 +67511,7 @@
         <v>8396</v>
       </c>
       <c r="B8396">
-        <v>0.6301408323569184</v>
+        <v>0.6301408323569183</v>
       </c>
     </row>
     <row r="8397" spans="1:2">
@@ -67527,7 +67527,7 @@
         <v>8398</v>
       </c>
       <c r="B8398">
-        <v>0.7836045510415452</v>
+        <v>0.7836045510415451</v>
       </c>
     </row>
     <row r="8399" spans="1:2">
@@ -67551,7 +67551,7 @@
         <v>8401</v>
       </c>
       <c r="B8401">
-        <v>0.5834106552423669</v>
+        <v>0.5834106552423668</v>
       </c>
     </row>
     <row r="8402" spans="1:2">
@@ -67591,7 +67591,7 @@
         <v>8406</v>
       </c>
       <c r="B8406">
-        <v>0.5549974180441495</v>
+        <v>0.5549974180441494</v>
       </c>
     </row>
     <row r="8407" spans="1:2">
@@ -67607,7 +67607,7 @@
         <v>8408</v>
       </c>
       <c r="B8408">
-        <v>0.5801839431067055</v>
+        <v>0.5801839431067054</v>
       </c>
     </row>
     <row r="8409" spans="1:2">
@@ -67631,7 +67631,7 @@
         <v>8411</v>
       </c>
       <c r="B8411">
-        <v>5.637895492039898</v>
+        <v>5.637895492039897</v>
       </c>
     </row>
     <row r="8412" spans="1:2">
@@ -67703,7 +67703,7 @@
         <v>8420</v>
       </c>
       <c r="B8420">
-        <v>0.906468722579541</v>
+        <v>0.9064687225795408</v>
       </c>
     </row>
     <row r="8421" spans="1:2">
@@ -67727,7 +67727,7 @@
         <v>8423</v>
       </c>
       <c r="B8423">
-        <v>0.9508338164120956</v>
+        <v>0.9508338164120954</v>
       </c>
     </row>
     <row r="8424" spans="1:2">
@@ -67751,7 +67751,7 @@
         <v>8426</v>
       </c>
       <c r="B8426">
-        <v>0.5009697720669305</v>
+        <v>0.5009697720669304</v>
       </c>
     </row>
     <row r="8427" spans="1:2">
@@ -67759,7 +67759,7 @@
         <v>8427</v>
       </c>
       <c r="B8427">
-        <v>0.424882669009672</v>
+        <v>0.4248826690096719</v>
       </c>
     </row>
     <row r="8428" spans="1:2">
@@ -67783,7 +67783,7 @@
         <v>8430</v>
       </c>
       <c r="B8430">
-        <v>0.4227110126131914</v>
+        <v>0.4227110126131913</v>
       </c>
     </row>
     <row r="8431" spans="1:2">
@@ -67927,7 +67927,7 @@
         <v>8448</v>
       </c>
       <c r="B8448">
-        <v>0.6698226509916646</v>
+        <v>0.6698226509916645</v>
       </c>
     </row>
     <row r="8449" spans="1:2">
@@ -67943,7 +67943,7 @@
         <v>8450</v>
       </c>
       <c r="B8450">
-        <v>0.4713637357413613</v>
+        <v>0.4713637357413612</v>
       </c>
     </row>
     <row r="8451" spans="1:2">
@@ -68047,7 +68047,7 @@
         <v>8463</v>
       </c>
       <c r="B8463">
-        <v>4.850911831922588</v>
+        <v>4.850911831922587</v>
       </c>
     </row>
     <row r="8464" spans="1:2">
@@ -68103,7 +68103,7 @@
         <v>8470</v>
       </c>
       <c r="B8470">
-        <v>3.934009780366703</v>
+        <v>3.934009780366702</v>
       </c>
     </row>
     <row r="8471" spans="1:2">
@@ -68111,7 +68111,7 @@
         <v>8471</v>
       </c>
       <c r="B8471">
-        <v>3.384208511838019</v>
+        <v>3.384208511838018</v>
       </c>
     </row>
     <row r="8472" spans="1:2">
@@ -68127,7 +68127,7 @@
         <v>8473</v>
       </c>
       <c r="B8473">
-        <v>0.827875862141728</v>
+        <v>0.8278758621417279</v>
       </c>
     </row>
     <row r="8474" spans="1:2">
@@ -68175,7 +68175,7 @@
         <v>8479</v>
       </c>
       <c r="B8479">
-        <v>0.6386691995819636</v>
+        <v>0.6386691995819634</v>
       </c>
     </row>
     <row r="8480" spans="1:2">
@@ -68319,7 +68319,7 @@
         <v>8497</v>
       </c>
       <c r="B8497">
-        <v>0.9448903357480434</v>
+        <v>0.9448903357480432</v>
       </c>
     </row>
     <row r="8498" spans="1:2">
@@ -68327,7 +68327,7 @@
         <v>8498</v>
       </c>
       <c r="B8498">
-        <v>0.8039407504142559</v>
+        <v>0.8039407504142558</v>
       </c>
     </row>
     <row r="8499" spans="1:2">
@@ -68359,7 +68359,7 @@
         <v>8502</v>
       </c>
       <c r="B8502">
-        <v>0.7340784762181646</v>
+        <v>0.7340784762181645</v>
       </c>
     </row>
     <row r="8503" spans="1:2">
@@ -68471,7 +68471,7 @@
         <v>8516</v>
       </c>
       <c r="B8516">
-        <v>6.126269070865164</v>
+        <v>6.126269070865163</v>
       </c>
     </row>
     <row r="8517" spans="1:2">
@@ -68503,7 +68503,7 @@
         <v>8520</v>
       </c>
       <c r="B8520">
-        <v>4.075445863624668</v>
+        <v>4.075445863624667</v>
       </c>
     </row>
     <row r="8521" spans="1:2">
@@ -68607,7 +68607,7 @@
         <v>8533</v>
       </c>
       <c r="B8533">
-        <v>0.4576597339735568</v>
+        <v>0.4576597339735567</v>
       </c>
     </row>
     <row r="8534" spans="1:2">
@@ -68695,7 +68695,7 @@
         <v>8544</v>
       </c>
       <c r="B8544">
-        <v>0.3698937500256438</v>
+        <v>0.3698937500256437</v>
       </c>
     </row>
     <row r="8545" spans="1:2">
@@ -68711,7 +68711,7 @@
         <v>8546</v>
       </c>
       <c r="B8546">
-        <v>0.2559568153963112</v>
+        <v>0.2559568153963111</v>
       </c>
     </row>
     <row r="8547" spans="1:2">
@@ -68743,7 +68743,7 @@
         <v>8550</v>
       </c>
       <c r="B8550">
-        <v>0.1749789428458722</v>
+        <v>0.1749789428458721</v>
       </c>
     </row>
     <row r="8551" spans="1:2">
@@ -69023,7 +69023,7 @@
         <v>8585</v>
       </c>
       <c r="B8585">
-        <v>0.1380572672532386</v>
+        <v>0.1380572672532385</v>
       </c>
     </row>
     <row r="8586" spans="1:2">
@@ -69431,7 +69431,7 @@
         <v>8636</v>
       </c>
       <c r="B8636">
-        <v>0.5295119605221589</v>
+        <v>0.5295119605221588</v>
       </c>
     </row>
     <row r="8637" spans="1:2">
@@ -69447,7 +69447,7 @@
         <v>8638</v>
       </c>
       <c r="B8638">
-        <v>0.64914355850372</v>
+        <v>0.6491435585037199</v>
       </c>
     </row>
     <row r="8639" spans="1:2">
@@ -69623,7 +69623,7 @@
         <v>8660</v>
       </c>
       <c r="B8660">
-        <v>0.6693244302259402</v>
+        <v>0.6693244302259401</v>
       </c>
     </row>
     <row r="8661" spans="1:2">
@@ -69727,7 +69727,7 @@
         <v>8673</v>
       </c>
       <c r="B8673">
-        <v>0.3385703174135192</v>
+        <v>0.3385703174135191</v>
       </c>
     </row>
     <row r="8674" spans="1:2">
@@ -69775,7 +69775,7 @@
         <v>8679</v>
       </c>
       <c r="B8679">
-        <v>0.2036275160881347</v>
+        <v>0.2036275160881346</v>
       </c>
     </row>
     <row r="8680" spans="1:2">
@@ -69783,7 +69783,7 @@
         <v>8680</v>
       </c>
       <c r="B8680">
-        <v>0.2311879165638476</v>
+        <v>0.2311879165638475</v>
       </c>
     </row>
     <row r="8681" spans="1:2">
@@ -69815,7 +69815,7 @@
         <v>8684</v>
       </c>
       <c r="B8684">
-        <v>0.8395957729777953</v>
+        <v>0.8395957729777952</v>
       </c>
     </row>
     <row r="8685" spans="1:2">
@@ -69847,7 +69847,7 @@
         <v>8688</v>
       </c>
       <c r="B8688">
-        <v>0.6616108004883737</v>
+        <v>0.6616108004883736</v>
       </c>
     </row>
     <row r="8689" spans="1:2">
@@ -69991,7 +69991,7 @@
         <v>8706</v>
       </c>
       <c r="B8706">
-        <v>0.2924435735675714</v>
+        <v>0.2924435735675713</v>
       </c>
     </row>
     <row r="8707" spans="1:2">
@@ -70015,7 +70015,7 @@
         <v>8709</v>
       </c>
       <c r="B8709">
-        <v>0.7728048832668747</v>
+        <v>0.7728048832668746</v>
       </c>
     </row>
     <row r="8710" spans="1:2">
@@ -70023,7 +70023,7 @@
         <v>8710</v>
       </c>
       <c r="B8710">
-        <v>0.8021090564226225</v>
+        <v>0.8021090564226224</v>
       </c>
     </row>
     <row r="8711" spans="1:2">
@@ -70079,7 +70079,7 @@
         <v>8717</v>
       </c>
       <c r="B8717">
-        <v>0.3547683537203317</v>
+        <v>0.3547683537203316</v>
       </c>
     </row>
     <row r="8718" spans="1:2">
@@ -70215,7 +70215,7 @@
         <v>8734</v>
       </c>
       <c r="B8734">
-        <v>0.3651196228058504</v>
+        <v>0.3651196228058503</v>
       </c>
     </row>
     <row r="8735" spans="1:2">
@@ -70271,7 +70271,7 @@
         <v>8741</v>
       </c>
       <c r="B8741">
-        <v>0.1730455532038233</v>
+        <v>0.1730455532038232</v>
       </c>
     </row>
     <row r="8742" spans="1:2">
